--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F55C4-A8A9-CC4C-975A-64E827F5DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA01E2-77FE-3740-B3C1-4C8E198350D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16680" activeTab="2" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="4" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
     <sheet name="standard_curve_plate 2" sheetId="4" r:id="rId2"/>
-    <sheet name="fe_plate_1" sheetId="6" r:id="rId3"/>
-    <sheet name="sampling" sheetId="5" r:id="rId4"/>
-    <sheet name="data" sheetId="2" r:id="rId5"/>
+    <sheet name="standard_curve_plate_3" sheetId="7" r:id="rId3"/>
+    <sheet name="fe_plate_1" sheetId="6" r:id="rId4"/>
+    <sheet name="sampling" sheetId="5" r:id="rId5"/>
+    <sheet name="data" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Standard</t>
   </si>
@@ -184,10 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,6 +1077,415 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>calibration range</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8468522626868989E-2"/>
+                  <c:y val="-1.6007093312307215E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>standard_curve_plate_3!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.78133333333333344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63933333333333342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49733333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7333333333333338E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>standard_curve_plate_3!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56CA-A54B-87F9-33DC4508AA91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1885324960"/>
+        <c:axId val="1885326672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1885324960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1885326672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1885326672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1885324960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
@@ -1438,7 +1850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -8850,6 +9262,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.099775999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.626621999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.184258999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.789517999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111.725752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.108394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.293140000000008</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>123.63746799999998</c:v>
                 </c:pt>
@@ -8861,6 +9309,18 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>153.030552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137.89374400000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144.310576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.44316800000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149.1232</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.24387099999999995</c:v>
@@ -12875,6 +13335,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14978,6 +15478,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15068,6 +16084,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F976A0C9-43D6-964F-8E69-861E28C65E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -15105,7 +16164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15983,8 +17042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B2BD3-475B-2C46-BEA3-601A68A0865E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16330,10 +17389,539 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F067866-145E-4840-B852-3EC052744DCC}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("F",B2,"-",A2)</f>
+        <v>F1-2</v>
+      </c>
+      <c r="D2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(I2:K2)</f>
+        <v>0.78133333333333344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C17" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <v>F2-2</v>
+      </c>
+      <c r="D3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="1">AVERAGE(I3:K3)</f>
+        <v>0.63933333333333342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-2</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+      <c r="E4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0.501</v>
+      </c>
+      <c r="J4">
+        <v>0.497</v>
+      </c>
+      <c r="K4">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.49733333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-2</v>
+      </c>
+      <c r="D5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.19633333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-3</v>
+      </c>
+      <c r="D7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G7">
+        <f>66.842*AVERAGE(D7:E7)-2.8244</f>
+        <v>19.099775999999995</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.112</v>
+      </c>
+      <c r="J7">
+        <v>0.113</v>
+      </c>
+      <c r="K7">
+        <v>0.114</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-3</v>
+      </c>
+      <c r="D8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G9" si="2">66.842*AVERAGE(D8:E8)-2.8244</f>
+        <v>16.626621999999998</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4.7333333333333338E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-3</v>
+      </c>
+      <c r="D9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>13.184258999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-4</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <f>(66.842*AVERAGE(D10:E10)-2.8244)*2</f>
+        <v>59.789517999999994</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>1.9</v>
+      </c>
+      <c r="M10">
+        <f>-4.6806+70.427*L10</f>
+        <v>129.13070000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-4</v>
+      </c>
+      <c r="D11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="3">(66.842*AVERAGE(D11:E11)-2.8244)*2</f>
+        <v>111.725752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-4</v>
+      </c>
+      <c r="D12">
+        <v>0.83</v>
+      </c>
+      <c r="E12">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>105.108394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-4</v>
+      </c>
+      <c r="D13">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>99.293140000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-6</v>
+      </c>
+      <c r="D14">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f>(66.842*AVERAGE(D14:E14)-2.8244)*4</f>
+        <v>137.89374400000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-6</v>
+      </c>
+      <c r="D15">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G17" si="4">(66.842*AVERAGE(D15:E15)-2.8244)*4</f>
+        <v>144.310576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-6</v>
+      </c>
+      <c r="D16">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>169.44316800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-6</v>
+      </c>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>149.1232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40BEACF-0DE4-5246-AC39-8A2F27C18FD3}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -16810,12 +18398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="110" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17008,6 +18596,10 @@
         <f t="shared" si="0"/>
         <v>8.9930555550381541E-2</v>
       </c>
+      <c r="K6">
+        <f>VLOOKUP(C6,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -17034,6 +18626,10 @@
         <f t="shared" si="0"/>
         <v>8.9930555550381541E-2</v>
       </c>
+      <c r="K7">
+        <f>VLOOKUP(C7,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -17060,6 +18656,10 @@
         <f t="shared" si="0"/>
         <v>8.0208333332848269E-2</v>
       </c>
+      <c r="K8">
+        <f>VLOOKUP(C8,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -17086,6 +18686,10 @@
         <f t="shared" si="0"/>
         <v>8.0208333332848269E-2</v>
       </c>
+      <c r="K9">
+        <f>VLOOKUP(C9,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -17118,6 +18722,10 @@
       <c r="J10">
         <v>898</v>
       </c>
+      <c r="K10">
+        <f>VLOOKUP(C10,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -17150,6 +18758,10 @@
       <c r="J11">
         <v>915</v>
       </c>
+      <c r="K11">
+        <f>VLOOKUP(C11,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>19.099775999999995</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -17182,6 +18794,10 @@
       <c r="J12">
         <v>911</v>
       </c>
+      <c r="K12">
+        <f>VLOOKUP(C12,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>16.626621999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -17214,6 +18830,10 @@
       <c r="J13">
         <v>926</v>
       </c>
+      <c r="K13">
+        <f>VLOOKUP(C13,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>13.184258999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -17244,6 +18864,10 @@
         <f>2.21/60*1000</f>
         <v>36.833333333333336</v>
       </c>
+      <c r="K14">
+        <f>VLOOKUP(C14,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>59.789517999999994</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -17274,6 +18898,10 @@
         <f>2.48/60*1000</f>
         <v>41.333333333333336</v>
       </c>
+      <c r="K15">
+        <f>VLOOKUP(C15,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>111.725752</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -17304,6 +18932,10 @@
         <f>2.18/60*1000</f>
         <v>36.333333333333336</v>
       </c>
+      <c r="K16">
+        <f>VLOOKUP(C16,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>105.108394</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -17334,6 +18966,10 @@
         <f>2.08/60*1000</f>
         <v>34.666666666666664</v>
       </c>
+      <c r="K17">
+        <f>VLOOKUP(C17,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>99.293140000000008</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -17483,6 +19119,10 @@
       <c r="H22">
         <v>34.6</v>
       </c>
+      <c r="K22">
+        <f>VLOOKUP(C22,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>137.89374400000003</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -17512,6 +19152,10 @@
       <c r="H23">
         <v>37.200000000000003</v>
       </c>
+      <c r="K23">
+        <f>VLOOKUP(C23,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>144.310576</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -17541,6 +19185,10 @@
       <c r="H24">
         <v>35.700000000000003</v>
       </c>
+      <c r="K24">
+        <f>VLOOKUP(C24,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>169.44316800000001</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -17570,6 +19218,10 @@
       <c r="H25">
         <v>34.1</v>
       </c>
+      <c r="K25">
+        <f>VLOOKUP(C25,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
+        <v>149.1232</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -18797,7 +20449,7 @@
         <v>45792.371527777781</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G105" si="4" xml:space="preserve"> F66-IF(OR(B66=1,B66=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G66:G129" si="4" xml:space="preserve"> F66-IF(OR(B66=1,B66=2),$M$2,$M$3)</f>
         <v>2.5381944444452529</v>
       </c>
       <c r="H66">
@@ -18816,7 +20468,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C105" si="5">_xlfn.CONCAT("F",B67,"-",A67)</f>
+        <f t="shared" ref="C67:C130" si="5">_xlfn.CONCAT("F",B67,"-",A67)</f>
         <v>F2-17</v>
       </c>
       <c r="D67" s="1">
@@ -18826,7 +20478,7 @@
         <v>45792.392361111109</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F105" si="6">(E67-D67)/2+D67</f>
+        <f t="shared" ref="F67:F130" si="6">(E67-D67)/2+D67</f>
         <v>45792.371527777781</v>
       </c>
       <c r="G67">
@@ -19830,15 +21482,15 @@
         <v>45793.568055555559</v>
       </c>
       <c r="E102" s="1">
-        <v>45793.604166666664</v>
+        <v>45793.602083333331</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="6"/>
-        <v>45793.586111111115</v>
+        <v>45793.585069444445</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
-        <v>3.7527777777795563</v>
+        <v>3.7517361111094942</v>
       </c>
       <c r="L102">
         <f>VLOOKUP(sampling!C102,fe_plate_1!$C$2:$G$17,5,FALSE)</f>
@@ -19860,15 +21512,15 @@
         <v>45793.568055555559</v>
       </c>
       <c r="E103" s="1">
-        <v>45793.604166666664</v>
+        <v>45793.602083333331</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="6"/>
-        <v>45793.586111111115</v>
+        <v>45793.585069444445</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
-        <v>3.7527777777795563</v>
+        <v>3.7517361111094942</v>
       </c>
       <c r="L103">
         <f>VLOOKUP(sampling!C103,fe_plate_1!$C$2:$G$17,5,FALSE)</f>
@@ -19890,15 +21542,15 @@
         <v>45793.568055555559</v>
       </c>
       <c r="E104" s="1">
-        <v>45793.604166666664</v>
+        <v>45793.602083333331</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="6"/>
-        <v>45793.586111111115</v>
+        <v>45793.585069444445</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
-        <v>3.7430555555620231</v>
+        <v>3.742013888891961</v>
       </c>
       <c r="L104">
         <f>VLOOKUP(sampling!C104,fe_plate_1!$C$2:$G$17,5,FALSE)</f>
@@ -19920,19 +21572,1160 @@
         <v>45793.568055555559</v>
       </c>
       <c r="E105" s="1">
-        <v>45793.604166666664</v>
+        <v>45793.602083333331</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="6"/>
-        <v>45793.586111111115</v>
+        <v>45793.585069444445</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
-        <v>3.7430555555620231</v>
+        <v>3.742013888891961</v>
       </c>
       <c r="L105">
         <f>VLOOKUP(sampling!C105,fe_plate_1!$C$2:$G$17,5,FALSE)</f>
         <v>-7.7631999999999977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-27</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45793.604166666664</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45793.772916666669</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="6"/>
+        <v>45793.688541666663</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>3.8552083333270275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-27</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45793.604166666664</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45793.772916666669</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="6"/>
+        <v>45793.688541666663</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>3.8552083333270275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-27</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45793.604166666664</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45793.772916666669</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="6"/>
+        <v>45793.688541666663</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>3.8454861111094942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>27</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-27</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45793.604166666664</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45793.772916666669</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="6"/>
+        <v>45793.688541666663</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>3.8454861111094942</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-28</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45793.774305555555</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45794.342361111114</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.058333333334</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>4.2249999999985448</v>
+      </c>
+      <c r="H110">
+        <v>32.56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>28</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-28</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45793.774305555555</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45794.342361111114</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.058333333334</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>4.2249999999985448</v>
+      </c>
+      <c r="H111">
+        <v>35.409999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-28</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45793.774305555555</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45794.342361111114</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.058333333334</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>4.2152777777810115</v>
+      </c>
+      <c r="H112">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>28</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-28</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45793.774305555555</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45794.342361111114</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.058333333334</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>4.2152777777810115</v>
+      </c>
+      <c r="H113">
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>29</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-29</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45794.344444444447</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45794.602083333331</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.473263888889</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>4.6399305555532919</v>
+      </c>
+      <c r="H114">
+        <v>32.6</v>
+      </c>
+      <c r="I114" s="4">
+        <v>7.72</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>29</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-29</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45794.344444444447</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45794.602083333331</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.473263888889</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>4.6399305555532919</v>
+      </c>
+      <c r="H115">
+        <v>35.5</v>
+      </c>
+      <c r="I115" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="J115" s="4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-29</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45794.344444444447</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45794.602083333331</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.473263888889</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>4.6302083333357587</v>
+      </c>
+      <c r="H116">
+        <v>34</v>
+      </c>
+      <c r="I116" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>29</v>
+      </c>
+      <c r="B117" s="2">
+        <v>4</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-29</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45794.344444444447</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45794.602083333331</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.473263888889</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>4.6302083333357587</v>
+      </c>
+      <c r="H117">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I117" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="J117" s="4">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-30</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45794.604861111111</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45794.652777777781</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.62881944445</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>4.7954861111138598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>30</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-30</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45794.604861111111</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45794.652777777781</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.62881944445</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>4.7954861111138598</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-30</v>
+      </c>
+      <c r="D120" s="1">
+        <v>45794.604861111111</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45794.652777777781</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.62881944445</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>4.7857638888963265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-30</v>
+      </c>
+      <c r="D121" s="1">
+        <v>45794.604861111111</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45794.652777777781</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.62881944445</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>4.7857638888963265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>31</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-31</v>
+      </c>
+      <c r="D122" s="1">
+        <v>45794.655555555553</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45794.818749999999</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.737152777772</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>4.9038194444365217</v>
+      </c>
+      <c r="H122">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>31</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-31</v>
+      </c>
+      <c r="D123" s="1">
+        <v>45794.655555555553</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45794.818749999999</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.737152777772</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>4.9038194444365217</v>
+      </c>
+      <c r="H123">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-31</v>
+      </c>
+      <c r="D124" s="1">
+        <v>45794.655555555553</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45794.818749999999</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.737152777772</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>4.8940972222189885</v>
+      </c>
+      <c r="H124">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>31</v>
+      </c>
+      <c r="B125" s="2">
+        <v>4</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-31</v>
+      </c>
+      <c r="D125" s="1">
+        <v>45794.655555555553</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45794.818749999999</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="6"/>
+        <v>45794.737152777772</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>4.8940972222189885</v>
+      </c>
+      <c r="H125">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>32</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-32</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45794.820138888892</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45795.363888888889</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="6"/>
+        <v>45795.092013888891</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>5.2586805555547471</v>
+      </c>
+      <c r="H126">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>32</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="5"/>
+        <v>F2-32</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45794.820138888892</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45795.363888888889</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="6"/>
+        <v>45795.092013888891</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>5.2586805555547471</v>
+      </c>
+      <c r="H127">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>32</v>
+      </c>
+      <c r="B128" s="2">
+        <v>3</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="5"/>
+        <v>F3-32</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45794.820138888892</v>
+      </c>
+      <c r="E128" s="1">
+        <v>45795.363888888889</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="6"/>
+        <v>45795.092013888891</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>5.2489583333372138</v>
+      </c>
+      <c r="H128">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>32</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="5"/>
+        <v>F4-32</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45794.820138888892</v>
+      </c>
+      <c r="E129" s="1">
+        <v>45795.363888888889</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="6"/>
+        <v>45795.092013888891</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>5.2489583333372138</v>
+      </c>
+      <c r="H129">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>33</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="5"/>
+        <v>F1-33</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45795.366666666669</v>
+      </c>
+      <c r="E130" s="1">
+        <v>45795.816666666666</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="6"/>
+        <v>45795.591666666667</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ref="G130:G145" si="7" xml:space="preserve"> F130-IF(OR(B130=1,B130=2),$M$2,$M$3)</f>
+        <v>5.7583333333313931</v>
+      </c>
+      <c r="H130">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I130">
+        <v>7.58</v>
+      </c>
+      <c r="J130">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>33</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C145" si="8">_xlfn.CONCAT("F",B131,"-",A131)</f>
+        <v>F2-33</v>
+      </c>
+      <c r="D131" s="3">
+        <v>45795.366666666669</v>
+      </c>
+      <c r="E131" s="1">
+        <v>45795.816666666666</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131:F145" si="9">(E131-D131)/2+D131</f>
+        <v>45795.591666666667</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>5.7583333333313931</v>
+      </c>
+      <c r="H131">
+        <v>32.9</v>
+      </c>
+      <c r="I131">
+        <v>7.59</v>
+      </c>
+      <c r="J131">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>33</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="8"/>
+        <v>F3-33</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45795.366666666669</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45795.816666666666</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="9"/>
+        <v>45795.591666666667</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>5.7486111111138598</v>
+      </c>
+      <c r="I132">
+        <v>7.51</v>
+      </c>
+      <c r="J132">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>33</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="8"/>
+        <v>F4-33</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45795.366666666669</v>
+      </c>
+      <c r="E133" s="1">
+        <v>45795.816666666666</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="9"/>
+        <v>45795.591666666667</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>5.7486111111138598</v>
+      </c>
+      <c r="H133">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I133">
+        <v>7.59</v>
+      </c>
+      <c r="J133">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="8"/>
+        <v>F1-34</v>
+      </c>
+      <c r="D134" s="1">
+        <v>45795.818055555559</v>
+      </c>
+      <c r="E134" s="1">
+        <v>45796.382638888892</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.100347222222</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>6.2670138888861402</v>
+      </c>
+      <c r="H134">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J134">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>34</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="8"/>
+        <v>F2-34</v>
+      </c>
+      <c r="D135" s="1">
+        <v>45795.818055555559</v>
+      </c>
+      <c r="E135" s="1">
+        <v>45796.382638888892</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.100347222222</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>6.2670138888861402</v>
+      </c>
+      <c r="H135">
+        <v>33.4</v>
+      </c>
+      <c r="J135">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="8"/>
+        <v>F3-34</v>
+      </c>
+      <c r="D136" s="1">
+        <v>45795.818055555559</v>
+      </c>
+      <c r="E136" s="1">
+        <v>45796.382638888892</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.100347222222</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>6.2572916666686069</v>
+      </c>
+      <c r="H136">
+        <v>33.5</v>
+      </c>
+      <c r="J136">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="8"/>
+        <v>F4-34</v>
+      </c>
+      <c r="D137" s="1">
+        <v>45795.818055555559</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45796.382638888892</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.100347222222</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>6.2572916666686069</v>
+      </c>
+      <c r="H137">
+        <v>33.4</v>
+      </c>
+      <c r="J137">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>35</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="8"/>
+        <v>F1-35</v>
+      </c>
+      <c r="D138" s="1">
+        <v>45796.384027777778</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45796.420138888891</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.402083333334</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>6.5687499999985448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>35</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="8"/>
+        <v>F2-35</v>
+      </c>
+      <c r="D139" s="1">
+        <v>45796.384027777778</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45796.420138888891</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.402083333334</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>6.5687499999985448</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>35</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="8"/>
+        <v>F3-35</v>
+      </c>
+      <c r="D140" s="1">
+        <v>45796.384027777778</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45796.420138888891</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.402083333334</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>6.5590277777810115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>35</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="8"/>
+        <v>F4-35</v>
+      </c>
+      <c r="D141" s="1">
+        <v>45796.384027777778</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45796.420138888891</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="9"/>
+        <v>45796.402083333334</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>6.5590277777810115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>36</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="8"/>
+        <v>F1-36</v>
+      </c>
+      <c r="D142" s="1">
+        <v>45796.421527777777</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="9"/>
+        <v>22898.210763888888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>36</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="8"/>
+        <v>F2-36</v>
+      </c>
+      <c r="D143" s="1">
+        <v>45796.421527777777</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="9"/>
+        <v>22898.210763888888</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>36</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="8"/>
+        <v>F3-36</v>
+      </c>
+      <c r="D144" s="1">
+        <v>45796.421527777777</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="9"/>
+        <v>22898.210763888888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>36</v>
+      </c>
+      <c r="B145" s="2">
+        <v>4</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="8"/>
+        <v>F4-36</v>
+      </c>
+      <c r="D145" s="1">
+        <v>45796.421527777777</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="9"/>
+        <v>22898.210763888888</v>
       </c>
     </row>
   </sheetData>
@@ -19941,7 +22734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C7900E-9887-B243-BF49-26E84C1A4CE3}">
   <dimension ref="A1:E25"/>
   <sheetViews>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7075DD9-FD24-5745-945B-D02AF71AFF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAF937-47F7-2343-BAC0-CA7AD2A077D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
@@ -7960,10 +7960,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142:J145"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210:I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13895,15 +13895,15 @@
         <v>45799.730555555558</v>
       </c>
       <c r="E194" s="1">
-        <v>45799.416666666664</v>
+        <v>45800.416666666664</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="9"/>
-        <v>45799.573611111111</v>
+        <v>45800.073611111111</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G201" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$M$2,$M$3)</f>
-        <v>9.7402777777751908</v>
+        <f t="shared" ref="G194:G229" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$M$2,$M$3)</f>
+        <v>10.240277777775191</v>
       </c>
       <c r="H194">
         <v>30.6</v>
@@ -13921,22 +13921,22 @@
         <v>2</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C217" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
+        <f t="shared" ref="C195:C241" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
         <v>F2-49</v>
       </c>
       <c r="D195" s="1">
         <v>45799.730555555558</v>
       </c>
       <c r="E195" s="1">
-        <v>45799.416666666664</v>
+        <v>45800.416666666664</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F201" si="12">(E195-D195)/2+D195</f>
-        <v>45799.573611111111</v>
+        <f t="shared" ref="F195:F229" si="12">(E195-D195)/2+D195</f>
+        <v>45800.073611111111</v>
       </c>
       <c r="G195">
         <f t="shared" si="10"/>
-        <v>9.7402777777751908</v>
+        <v>10.240277777775191</v>
       </c>
       <c r="H195">
         <v>32.299999999999997</v>
@@ -13961,15 +13961,15 @@
         <v>45799.730555555558</v>
       </c>
       <c r="E196" s="1">
-        <v>45799.416666666664</v>
+        <v>45800.416666666664</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" si="12"/>
-        <v>45799.573611111111</v>
+        <v>45800.073611111111</v>
       </c>
       <c r="G196">
         <f t="shared" si="10"/>
-        <v>9.7305555555576575</v>
+        <v>10.230555555557657</v>
       </c>
       <c r="H196">
         <v>32.44</v>
@@ -13994,15 +13994,15 @@
         <v>45799.730555555558</v>
       </c>
       <c r="E197" s="1">
-        <v>45799.416666666664</v>
+        <v>45800.416666666664</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" si="12"/>
-        <v>45799.573611111111</v>
+        <v>45800.073611111111</v>
       </c>
       <c r="G197">
         <f t="shared" si="10"/>
-        <v>9.7305555555576575</v>
+        <v>10.230555555557657</v>
       </c>
       <c r="H197">
         <v>31.3</v>
@@ -14024,18 +14024,18 @@
         <v>F1-50</v>
       </c>
       <c r="D198" s="1">
-        <v>45799.488888888889</v>
+        <v>45800.488888888889</v>
       </c>
       <c r="E198" s="1">
-        <v>45799.56527777778</v>
+        <v>45800.56527777778</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="12"/>
-        <v>45799.527083333334</v>
+        <v>45800.527083333334</v>
       </c>
       <c r="G198">
         <f t="shared" si="10"/>
-        <v>9.6937499999985448</v>
+        <v>10.693749999998545</v>
       </c>
       <c r="L198">
         <f>VLOOKUP(sampling!C198,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
@@ -14054,18 +14054,18 @@
         <v>F2-50</v>
       </c>
       <c r="D199" s="1">
-        <v>45799.488888888889</v>
+        <v>45800.488888888889</v>
       </c>
       <c r="E199" s="1">
-        <v>45799.56527777778</v>
+        <v>45800.56527777778</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="12"/>
-        <v>45799.527083333334</v>
+        <v>45800.527083333334</v>
       </c>
       <c r="G199">
         <f t="shared" si="10"/>
-        <v>9.6937499999985448</v>
+        <v>10.693749999998545</v>
       </c>
       <c r="L199">
         <f>VLOOKUP(sampling!C199,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
@@ -14084,18 +14084,18 @@
         <v>F3-50</v>
       </c>
       <c r="D200" s="1">
-        <v>45799.488888888889</v>
+        <v>45800.488888888889</v>
       </c>
       <c r="E200" s="1">
-        <v>45799.56527777778</v>
+        <v>45800.56527777778</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="12"/>
-        <v>45799.527083333334</v>
+        <v>45800.527083333334</v>
       </c>
       <c r="G200">
         <f t="shared" si="10"/>
-        <v>9.6840277777810115</v>
+        <v>10.684027777781012</v>
       </c>
       <c r="L200">
         <f>VLOOKUP(sampling!C200,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
@@ -14114,18 +14114,18 @@
         <v>F4-50</v>
       </c>
       <c r="D201" s="1">
-        <v>45799.488888888889</v>
+        <v>45800.488888888889</v>
       </c>
       <c r="E201" s="1">
-        <v>45799.56527777778</v>
+        <v>45800.56527777778</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="12"/>
-        <v>45799.527083333334</v>
+        <v>45800.527083333334</v>
       </c>
       <c r="G201">
         <f t="shared" si="10"/>
-        <v>9.6840277777810115</v>
+        <v>10.684027777781012</v>
       </c>
       <c r="L201">
         <f>VLOOKUP(sampling!C201,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
@@ -14143,7 +14143,29 @@
         <f t="shared" si="11"/>
         <v>F1-51</v>
       </c>
-      <c r="F202" s="1"/>
+      <c r="D202" s="1">
+        <v>45800.568055555559</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45800.714583333334</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="12"/>
+        <v>45800.641319444447</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="10"/>
+        <v>10.807986111110949</v>
+      </c>
+      <c r="H202">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I202">
+        <v>7.52</v>
+      </c>
+      <c r="J202">
+        <v>1042</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
@@ -14156,7 +14178,29 @@
         <f t="shared" si="11"/>
         <v>F2-51</v>
       </c>
-      <c r="F203" s="1"/>
+      <c r="D203" s="1">
+        <v>45800.568055555559</v>
+      </c>
+      <c r="E203" s="3">
+        <v>45800.714583333334</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="12"/>
+        <v>45800.641319444447</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="10"/>
+        <v>10.807986111110949</v>
+      </c>
+      <c r="H203">
+        <v>34.5</v>
+      </c>
+      <c r="I203">
+        <v>7.56</v>
+      </c>
+      <c r="J203">
+        <v>800</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
@@ -14169,7 +14213,29 @@
         <f t="shared" si="11"/>
         <v>F3-51</v>
       </c>
-      <c r="F204" s="1"/>
+      <c r="D204" s="1">
+        <v>45800.568055555559</v>
+      </c>
+      <c r="E204" s="3">
+        <v>45800.714583333334</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="12"/>
+        <v>45800.641319444447</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="10"/>
+        <v>10.798263888893416</v>
+      </c>
+      <c r="H204">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I204">
+        <v>7.3</v>
+      </c>
+      <c r="J204">
+        <v>1048</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
@@ -14182,7 +14248,29 @@
         <f t="shared" si="11"/>
         <v>F4-51</v>
       </c>
-      <c r="F205" s="1"/>
+      <c r="D205" s="1">
+        <v>45800.568055555559</v>
+      </c>
+      <c r="E205" s="3">
+        <v>45800.714583333334</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="12"/>
+        <v>45800.641319444447</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="10"/>
+        <v>10.798263888893416</v>
+      </c>
+      <c r="H205">
+        <v>35.1</v>
+      </c>
+      <c r="I205">
+        <v>7.43</v>
+      </c>
+      <c r="J205">
+        <v>941</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
@@ -14195,7 +14283,26 @@
         <f t="shared" si="11"/>
         <v>F1-52</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="D206" s="3">
+        <v>45800.795138888891</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45801.342361111114</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.068750000006</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>11.235416666670062</v>
+      </c>
+      <c r="H206">
+        <v>33.1</v>
+      </c>
+      <c r="J206">
+        <v>1029</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
@@ -14208,7 +14315,29 @@
         <f t="shared" si="11"/>
         <v>F2-52</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="D207" s="3">
+        <v>45800.795138888891</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45801.342361111114</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.068750000006</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="10"/>
+        <v>11.235416666670062</v>
+      </c>
+      <c r="H207">
+        <v>34.9</v>
+      </c>
+      <c r="I207">
+        <v>7.66</v>
+      </c>
+      <c r="J207">
+        <v>964</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
@@ -14221,9 +14350,28 @@
         <f t="shared" si="11"/>
         <v>F3-52</v>
       </c>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D208" s="3">
+        <v>45800.795138888891</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45801.342361111114</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.068750000006</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="10"/>
+        <v>11.225694444452529</v>
+      </c>
+      <c r="H208">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J208">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>52</v>
       </c>
@@ -14234,9 +14382,28 @@
         <f t="shared" si="11"/>
         <v>F4-52</v>
       </c>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D209" s="3">
+        <v>45800.795138888891</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45801.342361111114</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.068750000006</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="10"/>
+        <v>11.225694444452529</v>
+      </c>
+      <c r="H209">
+        <v>34.9</v>
+      </c>
+      <c r="J209">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>53</v>
       </c>
@@ -14247,9 +14414,28 @@
         <f t="shared" si="11"/>
         <v>F1-53</v>
       </c>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D210" s="1">
+        <v>45801.345138888886</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45801.53125</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.438194444447</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="10"/>
+        <v>11.604861111110949</v>
+      </c>
+      <c r="I210">
+        <v>7.62</v>
+      </c>
+      <c r="J210">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>53</v>
       </c>
@@ -14260,9 +14446,28 @@
         <f t="shared" si="11"/>
         <v>F2-53</v>
       </c>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D211" s="1">
+        <v>45801.345138888886</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45801.53125</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.438194444447</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="10"/>
+        <v>11.604861111110949</v>
+      </c>
+      <c r="I211">
+        <v>7.61</v>
+      </c>
+      <c r="J211">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>53</v>
       </c>
@@ -14273,9 +14478,28 @@
         <f t="shared" si="11"/>
         <v>F3-53</v>
       </c>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D212" s="1">
+        <v>45801.345138888886</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45801.53125</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.438194444447</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="10"/>
+        <v>11.595138888893416</v>
+      </c>
+      <c r="I212">
+        <v>7.55</v>
+      </c>
+      <c r="J212">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>53</v>
       </c>
@@ -14286,9 +14510,28 @@
         <f t="shared" si="11"/>
         <v>F4-53</v>
       </c>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D213" s="1">
+        <v>45801.345138888886</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45801.53125</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.438194444447</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="10"/>
+        <v>11.595138888893416</v>
+      </c>
+      <c r="I213">
+        <v>7.64</v>
+      </c>
+      <c r="J213">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>54</v>
       </c>
@@ -14299,9 +14542,22 @@
         <f t="shared" si="11"/>
         <v>F1-54</v>
       </c>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D214" s="1">
+        <v>45801.53402777778</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45801.55972222222</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.546875</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="10"/>
+        <v>11.713541666664241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>54</v>
       </c>
@@ -14312,9 +14568,22 @@
         <f t="shared" si="11"/>
         <v>F2-54</v>
       </c>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D215" s="1">
+        <v>45801.53402777778</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45801.55972222222</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.546875</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="10"/>
+        <v>11.713541666664241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>54</v>
       </c>
@@ -14325,9 +14594,22 @@
         <f t="shared" si="11"/>
         <v>F3-54</v>
       </c>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D216" s="1">
+        <v>45801.53402777778</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45801.55972222222</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.546875</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="10"/>
+        <v>11.703819444446708</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>54</v>
       </c>
@@ -14338,7 +14620,563 @@
         <f t="shared" si="11"/>
         <v>F4-54</v>
       </c>
-      <c r="F217" s="1"/>
+      <c r="D217" s="1">
+        <v>45801.53402777778</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45801.55972222222</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.546875</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="10"/>
+        <v>11.703819444446708</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>55</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-55</v>
+      </c>
+      <c r="D218" s="1">
+        <v>45801.5625</v>
+      </c>
+      <c r="E218" s="3">
+        <v>45801.791666666664</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.677083333328</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="10"/>
+        <v>11.843749999992724</v>
+      </c>
+      <c r="H218">
+        <v>32.1</v>
+      </c>
+      <c r="I218">
+        <v>7.35</v>
+      </c>
+      <c r="J218">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>55</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-55</v>
+      </c>
+      <c r="D219" s="1">
+        <v>45801.5625</v>
+      </c>
+      <c r="E219" s="3">
+        <v>45801.791666666664</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.677083333328</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="10"/>
+        <v>11.843749999992724</v>
+      </c>
+      <c r="H219">
+        <v>33.5</v>
+      </c>
+      <c r="I219">
+        <v>7.31</v>
+      </c>
+      <c r="J219">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>55</v>
+      </c>
+      <c r="B220" s="2">
+        <v>3</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-55</v>
+      </c>
+      <c r="D220" s="1">
+        <v>45801.5625</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45801.791666666664</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.677083333328</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="10"/>
+        <v>11.834027777775191</v>
+      </c>
+      <c r="H220">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I220">
+        <v>7.33</v>
+      </c>
+      <c r="J220">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>55</v>
+      </c>
+      <c r="B221" s="2">
+        <v>4</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-55</v>
+      </c>
+      <c r="D221" s="1">
+        <v>45801.5625</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45801.791666666664</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="12"/>
+        <v>45801.677083333328</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="10"/>
+        <v>11.834027777775191</v>
+      </c>
+      <c r="H221">
+        <v>33.4</v>
+      </c>
+      <c r="I221">
+        <v>7.31</v>
+      </c>
+      <c r="J221">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>56</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-56</v>
+      </c>
+      <c r="D222" s="1">
+        <v>45801.792361111111</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45802.385416666664</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.088888888888</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="10"/>
+        <v>12.255555555551837</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>56</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-56</v>
+      </c>
+      <c r="D223" s="1">
+        <v>45801.792361111111</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45802.385416666664</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.088888888888</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="10"/>
+        <v>12.255555555551837</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>56</v>
+      </c>
+      <c r="B224" s="2">
+        <v>3</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-56</v>
+      </c>
+      <c r="D224" s="1">
+        <v>45801.792361111111</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45802.385416666664</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.088888888888</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="10"/>
+        <v>12.245833333334303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>56</v>
+      </c>
+      <c r="B225" s="2">
+        <v>4</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-56</v>
+      </c>
+      <c r="D225" s="1">
+        <v>45801.792361111111</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45802.385416666664</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.088888888888</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="10"/>
+        <v>12.245833333334303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>57</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-57</v>
+      </c>
+      <c r="D226" s="1">
+        <v>45802.387499999997</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45802.540972222225</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.464236111111</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="10"/>
+        <v>12.630902777775191</v>
+      </c>
+      <c r="H226">
+        <v>32.1</v>
+      </c>
+      <c r="I226">
+        <v>7.44</v>
+      </c>
+      <c r="J226">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>57</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-57</v>
+      </c>
+      <c r="D227" s="1">
+        <v>45802.387499999997</v>
+      </c>
+      <c r="E227" s="1">
+        <v>45802.540972222225</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.464236111111</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="10"/>
+        <v>12.630902777775191</v>
+      </c>
+      <c r="H227">
+        <v>33.1</v>
+      </c>
+      <c r="I227">
+        <v>7.44</v>
+      </c>
+      <c r="J227">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>57</v>
+      </c>
+      <c r="B228" s="2">
+        <v>3</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-57</v>
+      </c>
+      <c r="D228" s="1">
+        <v>45802.387499999997</v>
+      </c>
+      <c r="E228" s="1">
+        <v>45802.540972222225</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.464236111111</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="10"/>
+        <v>12.621180555557657</v>
+      </c>
+      <c r="H228">
+        <v>33.9</v>
+      </c>
+      <c r="I228">
+        <v>7.42</v>
+      </c>
+      <c r="J228">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>57</v>
+      </c>
+      <c r="B229" s="2">
+        <v>4</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-57</v>
+      </c>
+      <c r="D229" s="1">
+        <v>45802.387499999997</v>
+      </c>
+      <c r="E229" s="1">
+        <v>45802.540972222225</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.464236111111</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="10"/>
+        <v>12.621180555557657</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>58</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-58</v>
+      </c>
+      <c r="D230" s="1">
+        <v>45802.542361111111</v>
+      </c>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>58</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-58</v>
+      </c>
+      <c r="D231" s="1">
+        <v>45802.542361111111</v>
+      </c>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>58</v>
+      </c>
+      <c r="B232" s="2">
+        <v>3</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-58</v>
+      </c>
+      <c r="D232" s="1">
+        <v>45802.542361111111</v>
+      </c>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>58</v>
+      </c>
+      <c r="B233" s="2">
+        <v>4</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-58</v>
+      </c>
+      <c r="D233" s="1">
+        <v>45802.542361111111</v>
+      </c>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>59</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-59</v>
+      </c>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>59</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-59</v>
+      </c>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>59</v>
+      </c>
+      <c r="B236" s="2">
+        <v>3</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-59</v>
+      </c>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>59</v>
+      </c>
+      <c r="B237" s="2">
+        <v>4</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-59</v>
+      </c>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>60</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-60</v>
+      </c>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>60</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-60</v>
+      </c>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>60</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-60</v>
+      </c>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>60</v>
+      </c>
+      <c r="B241" s="2">
+        <v>4</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-60</v>
+      </c>
+      <c r="F241" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CAF937-47F7-2343-BAC0-CA7AD2A077D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0F934-B514-4740-83E4-633ED8501B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="standard_curve_plate 4" sheetId="8" r:id="rId4"/>
     <sheet name="fe_plate_1" sheetId="6" r:id="rId5"/>
     <sheet name="sampling" sheetId="5" r:id="rId6"/>
-    <sheet name="data" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="data" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>Standard</t>
   </si>
@@ -145,12 +146,255 @@
   <si>
     <t>second standard test 23.05</t>
   </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chlorid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sulfat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nitrat</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>012-F1-1</t>
+  </si>
+  <si>
+    <t>013-F2-1</t>
+  </si>
+  <si>
+    <t>014-F3-1</t>
+  </si>
+  <si>
+    <t>015-F4-1</t>
+  </si>
+  <si>
+    <t>016-F1-2</t>
+  </si>
+  <si>
+    <t>017-F2-2</t>
+  </si>
+  <si>
+    <t>018-F3-2</t>
+  </si>
+  <si>
+    <t>019-F4-2</t>
+  </si>
+  <si>
+    <t>020-F1-3</t>
+  </si>
+  <si>
+    <t>021-F2-3</t>
+  </si>
+  <si>
+    <t>022-F3-3</t>
+  </si>
+  <si>
+    <t>023-F4-3</t>
+  </si>
+  <si>
+    <t>024-F1-4</t>
+  </si>
+  <si>
+    <t>025-F2-4</t>
+  </si>
+  <si>
+    <t>026-F3-4</t>
+  </si>
+  <si>
+    <t>027-F4-4</t>
+  </si>
+  <si>
+    <t>028-F1-6</t>
+  </si>
+  <si>
+    <t>029-F2-6</t>
+  </si>
+  <si>
+    <t>030-F3-6</t>
+  </si>
+  <si>
+    <t>031-F4-6</t>
+  </si>
+  <si>
+    <t>032-F1-10</t>
+  </si>
+  <si>
+    <t>033-F2-10</t>
+  </si>
+  <si>
+    <t>034-F3-10</t>
+  </si>
+  <si>
+    <t>035-F4-10</t>
+  </si>
+  <si>
+    <t>038-F2-19</t>
+  </si>
+  <si>
+    <t>039-F3-19</t>
+  </si>
+  <si>
+    <t>040-F4-19</t>
+  </si>
+  <si>
+    <t>041-F1-24</t>
+  </si>
+  <si>
+    <t>042-F2-24</t>
+  </si>
+  <si>
+    <t>043-F3-24</t>
+  </si>
+  <si>
+    <t>044-F4-24</t>
+  </si>
+  <si>
+    <t>045-F1-28</t>
+  </si>
+  <si>
+    <t>046-F2-28</t>
+  </si>
+  <si>
+    <t>047-F3-28</t>
+  </si>
+  <si>
+    <t>048-F4-28</t>
+  </si>
+  <si>
+    <t>049-F1-29</t>
+  </si>
+  <si>
+    <t>050-F2-29</t>
+  </si>
+  <si>
+    <t>051-F3-29</t>
+  </si>
+  <si>
+    <t>052-F4-29</t>
+  </si>
+  <si>
+    <t>053-F1-31</t>
+  </si>
+  <si>
+    <t>054-F2-31</t>
+  </si>
+  <si>
+    <t>055-F3-31</t>
+  </si>
+  <si>
+    <t>056-F4-31</t>
+  </si>
+  <si>
+    <t>057-F1-32</t>
+  </si>
+  <si>
+    <t>058-F2-32</t>
+  </si>
+  <si>
+    <t>059-F3-32</t>
+  </si>
+  <si>
+    <t>060-F4-32</t>
+  </si>
+  <si>
+    <t>061-F1-33</t>
+  </si>
+  <si>
+    <t>062-F2-33</t>
+  </si>
+  <si>
+    <t>063-F3-33</t>
+  </si>
+  <si>
+    <t>064-F4-33</t>
+  </si>
+  <si>
+    <t>065-F1-34</t>
+  </si>
+  <si>
+    <t>066-F2-34</t>
+  </si>
+  <si>
+    <t>067-F3-34</t>
+  </si>
+  <si>
+    <t>068-F4-34</t>
+  </si>
+  <si>
+    <t>069-F1-36</t>
+  </si>
+  <si>
+    <t>070-F2-36</t>
+  </si>
+  <si>
+    <t>071-F3-36</t>
+  </si>
+  <si>
+    <t>072-F4-36</t>
+  </si>
+  <si>
+    <t>073-F1-37</t>
+  </si>
+  <si>
+    <t>074-F2-37</t>
+  </si>
+  <si>
+    <t>075-F3-37</t>
+  </si>
+  <si>
+    <t>076-F1-39</t>
+  </si>
+  <si>
+    <t>076-F4-37</t>
+  </si>
+  <si>
+    <t>078-F2-39</t>
+  </si>
+  <si>
+    <t>079-F3-39</t>
+  </si>
+  <si>
+    <t>080-F4-39</t>
+  </si>
+  <si>
+    <t>081-F1-41</t>
+  </si>
+  <si>
+    <t>082-F2-41</t>
+  </si>
+  <si>
+    <t>083-F3-41</t>
+  </si>
+  <si>
+    <t>084-F4-41</t>
+  </si>
+  <si>
+    <t>Sample id</t>
+  </si>
+  <si>
+    <t>NO3-</t>
+  </si>
+  <si>
+    <t>SO4-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +414,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,11 +441,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5611,10 +5867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F067866-145E-4840-B852-3EC052744DCC}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5702,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C57" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>F2-2</v>
       </c>
       <c r="D3">
@@ -6262,7 +6518,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G57" si="6">(66.842*AVERAGE(D19:E19)-2.8244)</f>
+        <f t="shared" ref="G19:G68" si="6">(66.842*AVERAGE(D19:E19)-2.8244)</f>
         <v>4.9805999999999795E-2</v>
       </c>
       <c r="H19">
@@ -6999,6 +7255,519 @@
       <c r="G57">
         <f t="shared" si="6"/>
         <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-51</v>
+      </c>
+      <c r="D58">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-52</v>
+      </c>
+      <c r="D59">
+        <v>0.04</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>-0.15071999999999974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-53</v>
+      </c>
+      <c r="D60">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-55</v>
+      </c>
+      <c r="D61">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-56</v>
+      </c>
+      <c r="D62">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>-0.21756200000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-57</v>
+      </c>
+      <c r="D63">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-59</v>
+      </c>
+      <c r="D64">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-51</v>
+      </c>
+      <c r="D65">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>-0.21756200000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-52</v>
+      </c>
+      <c r="D66">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C84" si="7">_xlfn.CONCAT("F",B67,"-",A67)</f>
+        <v>F2-53</v>
+      </c>
+      <c r="D67">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-55</v>
+      </c>
+      <c r="D68">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>56</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-56</v>
+      </c>
+      <c r="D69">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G84" si="8">(66.842*AVERAGE(D69:E69)-2.8244)</f>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-57</v>
+      </c>
+      <c r="D70">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-59</v>
+      </c>
+      <c r="D71">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>51</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-51</v>
+      </c>
+      <c r="D72">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>52</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-52</v>
+      </c>
+      <c r="D73">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>-0.35124600000000017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>53</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-53</v>
+      </c>
+      <c r="D74">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-55</v>
+      </c>
+      <c r="D75">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>-0.75229799999999969</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-56</v>
+      </c>
+      <c r="D76">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-57</v>
+      </c>
+      <c r="D77">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>59</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-59</v>
+      </c>
+      <c r="D78">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>-0.35124600000000017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>51</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-51</v>
+      </c>
+      <c r="D79">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-52</v>
+      </c>
+      <c r="D80">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>53</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-53</v>
+      </c>
+      <c r="D81">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-55</v>
+      </c>
+      <c r="D82">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>56</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-56</v>
+      </c>
+      <c r="D83">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>59</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-59</v>
+      </c>
+      <c r="D84">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>-0.61861399999999955</v>
       </c>
     </row>
   </sheetData>
@@ -7021,10 +7790,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40BEACF-0DE4-5246-AC39-8A2F27C18FD3}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7113,14 +7882,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C41" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C53" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>F1-15</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
+        <f t="shared" ref="G3:G53" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
         <v>3.1280000000000037</v>
       </c>
       <c r="I3">
@@ -7950,6 +8719,234 @@
       <c r="G41">
         <f t="shared" si="2"/>
         <v>3.8086999999999982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-54</v>
+      </c>
+      <c r="D42">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-54</v>
+      </c>
+      <c r="D43">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>38.5244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-54</v>
+      </c>
+      <c r="D44">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>18.784099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-54</v>
+      </c>
+      <c r="D45">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>4.4893999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-58</v>
+      </c>
+      <c r="D46">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-58</v>
+      </c>
+      <c r="D47">
+        <v>0.124</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>53.499800000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-58</v>
+      </c>
+      <c r="D48">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>22.868300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-58</v>
+      </c>
+      <c r="D49">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>3.8086999999999982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-61</v>
+      </c>
+      <c r="D50">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>26.952500000000011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-61</v>
+      </c>
+      <c r="D51">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>48.054200000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-61</v>
+      </c>
+      <c r="D52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-61</v>
+      </c>
+      <c r="D53">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>4.4893999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7960,10 +8957,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210:I213"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N166" sqref="N166:N245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7971,10 +8968,10 @@
     <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -8012,10 +9009,16 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8037,17 +9040,25 @@
         <v>45789.865277777775</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="0" xml:space="preserve"> F2-IF(OR(B2=1,B2=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G2:G33" si="0" xml:space="preserve"> F2-IF(OR(B2=1,B2=2),$O$2,$O$3)</f>
         <v>3.1944444439432118E-2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
+        <f>VLOOKUP(C2,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2800962116556325</v>
+      </c>
+      <c r="N2">
+        <f>VLOOKUP(C2,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2516.4522565816555</v>
+      </c>
+      <c r="O2" s="1">
         <v>45789.833333333336</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8072,14 +9083,22 @@
         <f t="shared" si="0"/>
         <v>3.1944444439432118E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
+        <f>VLOOKUP(C3,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.4270405598659877</v>
+      </c>
+      <c r="N3">
+        <f>VLOOKUP(C3,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2620.9912586548785</v>
+      </c>
+      <c r="O3" s="1">
         <v>45789.843055555553</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8104,8 +9123,16 @@
         <f t="shared" si="0"/>
         <v>2.2222222221898846E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f>VLOOKUP(C4,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2894487273801016</v>
+      </c>
+      <c r="N4">
+        <f>VLOOKUP(C4,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2600.0153318979769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8130,8 +9157,16 @@
         <f t="shared" si="0"/>
         <v>2.2222222221898846E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f>VLOOKUP(C5,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.639352256373134</v>
+      </c>
+      <c r="N5">
+        <f>VLOOKUP(C5,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2629.7907491464703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8160,8 +9195,16 @@
         <f>VLOOKUP(C6,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f>VLOOKUP(C6,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2640628495004838</v>
+      </c>
+      <c r="N6">
+        <f>VLOOKUP(C6,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2604.2975454095404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8190,8 +9233,16 @@
         <f>VLOOKUP(C7,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f>VLOOKUP(C7,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>1.9753590705992712</v>
+      </c>
+      <c r="N7">
+        <f>VLOOKUP(C7,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2591.1055192504705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8220,8 +9271,16 @@
         <f>VLOOKUP(C8,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>VLOOKUP(C8,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2106139477701614</v>
+      </c>
+      <c r="N8">
+        <f>VLOOKUP(C8,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2522.9458140460206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8250,8 +9309,16 @@
         <f>VLOOKUP(C9,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f>VLOOKUP(C9,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1130524061280114</v>
+      </c>
+      <c r="N9">
+        <f>VLOOKUP(C9,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2552.2926836684851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8286,8 +9353,16 @@
         <f>VLOOKUP(C10,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f>VLOOKUP(C10,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.719442326571134</v>
+      </c>
+      <c r="N10">
+        <f>VLOOKUP(C10,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>1596.1283849375911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8322,8 +9397,16 @@
         <f>VLOOKUP(C11,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>19.099775999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f>VLOOKUP(C11,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>12.533613101123134</v>
+      </c>
+      <c r="N11">
+        <f>VLOOKUP(C11,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>1640.4489999673099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8358,8 +9441,16 @@
         <f>VLOOKUP(C12,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>16.626621999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f>VLOOKUP(C12,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>10.462283462817595</v>
+      </c>
+      <c r="N12">
+        <f>VLOOKUP(C12,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>1534.0827329086985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8394,8 +9485,16 @@
         <f>VLOOKUP(C13,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>13.184258999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f>VLOOKUP(C13,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>9.2157430453003357</v>
+      </c>
+      <c r="N13">
+        <f>VLOOKUP(C13,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>1427.9507269991318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8428,8 +9527,16 @@
         <f>VLOOKUP(C14,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>59.789517999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f>VLOOKUP(C14,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>10.506826339850326</v>
+      </c>
+      <c r="N14">
+        <f>VLOOKUP(C14,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2614.4354755360032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -8462,8 +9569,16 @@
         <f>VLOOKUP(C15,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>111.725752</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f>VLOOKUP(C15,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>106.93709105509899</v>
+      </c>
+      <c r="N15">
+        <f>VLOOKUP(C15,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2583.459141811144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8496,8 +9611,16 @@
         <f>VLOOKUP(C16,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>105.108394</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f>VLOOKUP(C16,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>64.395235179859228</v>
+      </c>
+      <c r="N16">
+        <f>VLOOKUP(C16,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2579.4479702868884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8530,8 +9653,16 @@
         <f>VLOOKUP(C17,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>99.293140000000008</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f>VLOOKUP(C17,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>72.423476136462085</v>
+      </c>
+      <c r="N17">
+        <f>VLOOKUP(C17,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2589.6603190136379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8561,7 +9692,7 @@
         <v>123.63746799999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8591,7 +9722,7 @@
         <v>134.338176</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -8621,7 +9752,7 @@
         <v>150.86331999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8651,7 +9782,7 @@
         <v>153.030552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8683,8 +9814,16 @@
         <f>VLOOKUP(C22,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>137.89374400000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f>VLOOKUP(C22,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>16.351680464951791</v>
+      </c>
+      <c r="N22">
+        <f>VLOOKUP(C22,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2538.9185938923874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8716,8 +9855,16 @@
         <f>VLOOKUP(C23,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>144.310576</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f>VLOOKUP(C23,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>114.82252797522456</v>
+      </c>
+      <c r="N23">
+        <f>VLOOKUP(C23,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2586.5567295416026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -8749,8 +9896,16 @@
         <f>VLOOKUP(C24,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>169.44316800000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f>VLOOKUP(C24,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>20.281742760509303</v>
+      </c>
+      <c r="N24">
+        <f>VLOOKUP(C24,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2587.3696398755446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8782,8 +9937,16 @@
         <f>VLOOKUP(C25,standard_curve_plate_3!$C$2:$G$17,5,FALSE)</f>
         <v>149.1232</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f>VLOOKUP(C25,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>24.593747752305124</v>
+      </c>
+      <c r="N25">
+        <f>VLOOKUP(C25,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2612.6254447627771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8813,7 +9976,7 @@
         <v>1.0854529550232428</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -8843,7 +10006,7 @@
         <v>-2.3175999999999952</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -8873,7 +10036,7 @@
         <v>2.447300000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -8903,7 +10066,7 @@
         <v>-0.27549999999999741</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8938,7 +10101,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8973,7 +10136,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -9008,7 +10171,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -9043,7 +10206,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -9065,14 +10228,14 @@
         <v>45791.030555555553</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="3" xml:space="preserve"> F34-IF(OR(B34=1,B34=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G34:G65" si="3" xml:space="preserve"> F34-IF(OR(B34=1,B34=2),$O$2,$O$3)</f>
         <v>1.1972222222175333</v>
       </c>
       <c r="H34">
         <v>34.1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -9101,7 +10264,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -9130,7 +10293,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -9159,7 +10322,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -9184,8 +10347,16 @@
         <f t="shared" si="3"/>
         <v>1.5600694444365217</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f>VLOOKUP(C38,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>1.9245483532713032</v>
+      </c>
+      <c r="N38">
+        <f>VLOOKUP(C38,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2598.2563386734591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -9210,8 +10381,16 @@
         <f t="shared" si="3"/>
         <v>1.5600694444365217</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <f>VLOOKUP(C39,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1451298992800369</v>
+      </c>
+      <c r="N39">
+        <f>VLOOKUP(C39,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2569.3556565111426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -9236,8 +10415,16 @@
         <f t="shared" si="3"/>
         <v>1.5503472222189885</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <f>VLOOKUP(C40,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>20.705920536055764</v>
+      </c>
+      <c r="N40">
+        <f>VLOOKUP(C40,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2589.6531886962935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -9262,8 +10449,16 @@
         <f t="shared" si="3"/>
         <v>1.5503472222189885</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f>VLOOKUP(C41,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>45.229559892416013</v>
+      </c>
+      <c r="N41">
+        <f>VLOOKUP(C41,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2568.1678452248293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>11</v>
       </c>
@@ -9293,7 +10488,7 @@
         <v>-0.24387099999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>11</v>
       </c>
@@ -9323,7 +10518,7 @@
         <v>-0.6603194999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11</v>
       </c>
@@ -9353,7 +10548,7 @@
         <v>59.922405999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>11</v>
       </c>
@@ -9383,7 +10578,7 @@
         <v>62.69917199999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>12</v>
       </c>
@@ -9413,7 +10608,7 @@
         <v>-0.14776750000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>12</v>
       </c>
@@ -9443,7 +10638,7 @@
         <v>-0.56421599999999961</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -9961,7 +11156,7 @@
         <v>2.2104166666686069</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>16</v>
       </c>
@@ -9987,7 +11182,7 @@
         <v>2.2104166666686069</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>17</v>
       </c>
@@ -10009,7 +11204,7 @@
         <v>45792.371527777781</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="4" xml:space="preserve"> F66-IF(OR(B66=1,B66=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G66:G129" si="4" xml:space="preserve"> F66-IF(OR(B66=1,B66=2),$O$2,$O$3)</f>
         <v>2.5381944444452529</v>
       </c>
       <c r="H66">
@@ -10020,7 +11215,7 @@
         <v>-0.7564229999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>17</v>
       </c>
@@ -10053,7 +11248,7 @@
         <v>-1.9629499999999744E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>17</v>
       </c>
@@ -10086,7 +11281,7 @@
         <v>-0.53218149999999964</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>17</v>
       </c>
@@ -10119,7 +11314,7 @@
         <v>-0.40404349999999978</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>18</v>
       </c>
@@ -10149,7 +11344,7 @@
         <v>-0.50014699999999923</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>18</v>
       </c>
@@ -10179,7 +11374,7 @@
         <v>-0.62828499999999954</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>18</v>
       </c>
@@ -10209,7 +11404,7 @@
         <v>-0.27590549999999947</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>18</v>
       </c>
@@ -10235,7 +11430,7 @@
         <v>2.6336805555620231</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>19</v>
       </c>
@@ -10261,7 +11456,7 @@
         <v>2.7461805555576575</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>19</v>
       </c>
@@ -10286,8 +11481,16 @@
         <f t="shared" si="4"/>
         <v>2.7461805555576575</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <f>VLOOKUP(C75,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.9382781593783474</v>
+      </c>
+      <c r="N75">
+        <f>VLOOKUP(C75,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2576.3672238923018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>19</v>
       </c>
@@ -10312,8 +11515,16 @@
         <f t="shared" si="4"/>
         <v>2.7364583333401242</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <f>VLOOKUP(C76,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2827683799728513</v>
+      </c>
+      <c r="N76">
+        <f>VLOOKUP(C76,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2592.6785585315397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>19</v>
       </c>
@@ -10338,8 +11549,16 @@
         <f t="shared" si="4"/>
         <v>2.7364583333401242</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <f>VLOOKUP(C77,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>8.6713298337727949</v>
+      </c>
+      <c r="N77">
+        <f>VLOOKUP(C77,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2590.4606891420672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>20</v>
       </c>
@@ -10369,7 +11588,7 @@
         <v>11.977100000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20</v>
       </c>
@@ -10399,7 +11618,7 @@
         <v>11.296400000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20</v>
       </c>
@@ -10429,7 +11648,7 @@
         <v>2.447300000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20</v>
       </c>
@@ -10459,7 +11678,7 @@
         <v>3.8086999999999982</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21</v>
       </c>
@@ -10494,7 +11713,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21</v>
       </c>
@@ -10529,7 +11748,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>21</v>
       </c>
@@ -10564,7 +11783,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>21</v>
       </c>
@@ -10599,7 +11818,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>22</v>
       </c>
@@ -10625,7 +11844,7 @@
         <v>3.2249999999985448</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>22</v>
       </c>
@@ -10651,7 +11870,7 @@
         <v>3.2249999999985448</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>22</v>
       </c>
@@ -10677,7 +11896,7 @@
         <v>3.2152777777810115</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>22</v>
       </c>
@@ -10703,7 +11922,7 @@
         <v>3.2152777777810115</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>23</v>
       </c>
@@ -10733,7 +11952,7 @@
         <v>0.78506799999999988</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>23</v>
       </c>
@@ -10763,7 +11982,7 @@
         <v>-0.48492999999999942</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>23</v>
       </c>
@@ -10793,7 +12012,7 @@
         <v>-0.28440399999999988</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>23</v>
       </c>
@@ -10823,7 +12042,7 @@
         <v>0.31717400000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>24</v>
       </c>
@@ -10848,8 +12067,16 @@
         <f t="shared" si="4"/>
         <v>3.6739583333328483</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <f>VLOOKUP(C94,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1437933852903228</v>
+      </c>
+      <c r="N94">
+        <f>VLOOKUP(C94,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2579.264317839757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>24</v>
       </c>
@@ -10874,8 +12101,16 @@
         <f t="shared" si="4"/>
         <v>3.6739583333328483</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95">
+        <f>VLOOKUP(C95,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>1.3384508353356321</v>
+      </c>
+      <c r="N95">
+        <f>VLOOKUP(C95,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2571.0062282727386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>24</v>
       </c>
@@ -10900,8 +12135,16 @@
         <f t="shared" si="4"/>
         <v>3.664236111115315</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96">
+        <f>VLOOKUP(C96,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>6.1172594927953012</v>
+      </c>
+      <c r="N96">
+        <f>VLOOKUP(C96,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2578.843073033298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>24</v>
       </c>
@@ -10926,8 +12169,16 @@
         <f t="shared" si="4"/>
         <v>3.664236111115315</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <f>VLOOKUP(C97,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>4.2130159324312775</v>
+      </c>
+      <c r="N97">
+        <f>VLOOKUP(C97,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2594.7136151230188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>25</v>
       </c>
@@ -10956,7 +12207,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>25</v>
       </c>
@@ -10985,7 +12236,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>25</v>
       </c>
@@ -11014,7 +12265,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>25</v>
       </c>
@@ -11043,7 +12294,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>26</v>
       </c>
@@ -11073,7 +12324,7 @@
         <v>18.103399999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>26</v>
       </c>
@@ -11103,7 +12354,7 @@
         <v>14.019200000000009</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>26</v>
       </c>
@@ -11133,7 +12384,7 @@
         <v>-0.95619999999999905</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>26</v>
       </c>
@@ -11163,7 +12414,7 @@
         <v>-7.7631999999999977</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>27</v>
       </c>
@@ -11189,7 +12440,7 @@
         <v>3.8552083333270275</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>27</v>
       </c>
@@ -11215,7 +12466,7 @@
         <v>3.8552083333270275</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>27</v>
       </c>
@@ -11241,7 +12492,7 @@
         <v>3.8454861111094942</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>27</v>
       </c>
@@ -11267,7 +12518,7 @@
         <v>3.8454861111094942</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>28</v>
       </c>
@@ -11299,8 +12550,12 @@
         <f>VLOOKUP(sampling!C110,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f>VLOOKUP(C110,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2593.2480460453808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>28</v>
       </c>
@@ -11332,8 +12587,16 @@
         <f>VLOOKUP(sampling!C111,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <f>VLOOKUP(C111,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>6.5354310175909793</v>
+      </c>
+      <c r="N111">
+        <f>VLOOKUP(C111,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2594.7403504593958</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>28</v>
       </c>
@@ -11365,8 +12628,16 @@
         <f>VLOOKUP(sampling!C112,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>5.931902</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <f>VLOOKUP(C112,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>20.622910071281936</v>
+      </c>
+      <c r="N112">
+        <f>VLOOKUP(C112,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2607.3650277317256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>28</v>
       </c>
@@ -11398,8 +12669,16 @@
         <f>VLOOKUP(sampling!C113,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>4.9961140000000004</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <f>VLOOKUP(C113,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>24.929854186272102</v>
+      </c>
+      <c r="N113">
+        <f>VLOOKUP(C113,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2628.5593010606649</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>29</v>
       </c>
@@ -11437,8 +12716,16 @@
         <f>VLOOKUP(sampling!C114,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>4.9805999999999795E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <f>VLOOKUP(C114,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.639352256373134</v>
+      </c>
+      <c r="N114">
+        <f>VLOOKUP(C114,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2583.9819599532575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>29</v>
       </c>
@@ -11476,8 +12763,16 @@
         <f>VLOOKUP(sampling!C115,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <f>VLOOKUP(C115,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.9169332871047473</v>
+      </c>
+      <c r="N115">
+        <f>VLOOKUP(C115,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2588.9891723819001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>29</v>
       </c>
@@ -11515,8 +12810,16 @@
         <f>VLOOKUP(sampling!C116,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>24.580819999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <f>VLOOKUP(C116,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>51.970199989424813</v>
+      </c>
+      <c r="N116">
+        <f>VLOOKUP(C116,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2584.9838977418435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>29</v>
       </c>
@@ -11554,8 +12857,16 @@
         <f>VLOOKUP(sampling!C117,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>33.069754000000003</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <f>VLOOKUP(C117,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>34.737341071867782</v>
+      </c>
+      <c r="N117">
+        <f>VLOOKUP(C117,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2589.0814222805957</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>30</v>
       </c>
@@ -11585,7 +12896,7 @@
         <v>20.145500000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>30</v>
       </c>
@@ -11615,7 +12926,7 @@
         <v>28.3139</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>30</v>
       </c>
@@ -11645,7 +12956,7 @@
         <v>-3.6789999999999985</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>30</v>
       </c>
@@ -11675,7 +12986,7 @@
         <v>-5.0403999999999982</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>31</v>
       </c>
@@ -11707,8 +13018,16 @@
         <f>VLOOKUP(sampling!C122,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <f>VLOOKUP(C122,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.7658965935269157</v>
+      </c>
+      <c r="N122">
+        <f>VLOOKUP(C122,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2598.5633214765112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>31</v>
       </c>
@@ -11740,8 +13059,16 @@
         <f>VLOOKUP(sampling!C123,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>1.5203300000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <f>VLOOKUP(C123,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.6207472486137529</v>
+      </c>
+      <c r="N123">
+        <f>VLOOKUP(C123,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2597.23646179048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>31</v>
       </c>
@@ -11773,8 +13100,16 @@
         <f>VLOOKUP(sampling!C124,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>1.5871720000000007</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <f>VLOOKUP(C124,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.630070263247271</v>
+      </c>
+      <c r="N124">
+        <f>VLOOKUP(C124,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2597.0956641831262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>31</v>
       </c>
@@ -11806,8 +13141,16 @@
         <f>VLOOKUP(sampling!C125,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>1.119278</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <f>VLOOKUP(C125,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.3836072595231341</v>
+      </c>
+      <c r="N125">
+        <f>VLOOKUP(C125,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2588.5239088152916</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>32</v>
       </c>
@@ -11839,8 +13182,16 @@
         <f>VLOOKUP(sampling!C126,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <f>VLOOKUP(C126,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.4163554091154325</v>
+      </c>
+      <c r="N126">
+        <f>VLOOKUP(C126,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2583.4337361537696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>32</v>
       </c>
@@ -11872,8 +13223,16 @@
         <f>VLOOKUP(sampling!C127,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127">
+        <f>VLOOKUP(C127,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2426840939554</v>
+      </c>
+      <c r="N127">
+        <f>VLOOKUP(C127,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2574.4761329767607</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>32</v>
       </c>
@@ -11905,8 +13264,16 @@
         <f>VLOOKUP(sampling!C128,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.28440399999999988</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128">
+        <f>VLOOKUP(C128,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1558218602326824</v>
+      </c>
+      <c r="N128">
+        <f>VLOOKUP(C128,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2581.6290022179855</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>32</v>
       </c>
@@ -11938,8 +13305,16 @@
         <f>VLOOKUP(sampling!C129,standard_curve_plate_3!$C$2:$G$80,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <f>VLOOKUP(C129,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.5205241807487933</v>
+      </c>
+      <c r="N129">
+        <f>VLOOKUP(C129,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2606.100822021363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>33</v>
       </c>
@@ -11961,7 +13336,7 @@
         <v>45795.591666666667</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G193" si="7" xml:space="preserve"> F130-IF(OR(B130=1,B130=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G130:G193" si="7" xml:space="preserve"> F130-IF(OR(B130=1,B130=2),$O$2,$O$3)</f>
         <v>5.7583333333313931</v>
       </c>
       <c r="H130">
@@ -11977,8 +13352,16 @@
         <f>VLOOKUP(sampling!C130,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <f>VLOOKUP(C130,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.2573821037131854</v>
+      </c>
+      <c r="N130">
+        <f>VLOOKUP(C130,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2588.6166054319201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>33</v>
       </c>
@@ -12016,8 +13399,16 @@
         <f>VLOOKUP(sampling!C131,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131">
+        <f>VLOOKUP(C131,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.597966471875484</v>
+      </c>
+      <c r="N131">
+        <f>VLOOKUP(C131,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2603.8605238164114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>33</v>
       </c>
@@ -12052,8 +13443,16 @@
         <f>VLOOKUP(sampling!C132,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132">
+        <f>VLOOKUP(C132,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1197354163913746</v>
+      </c>
+      <c r="N132">
+        <f>VLOOKUP(C132,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2585.0128679936697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>33</v>
       </c>
@@ -12091,8 +13490,16 @@
         <f>VLOOKUP(sampling!C133,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <f>VLOOKUP(C133,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.4991583075564319</v>
+      </c>
+      <c r="N133">
+        <f>VLOOKUP(C133,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2582.79145800471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>34</v>
       </c>
@@ -12123,8 +13530,16 @@
       <c r="J134">
         <v>914</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <f>VLOOKUP(C134,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.512512104105884</v>
+      </c>
+      <c r="N134">
+        <f>VLOOKUP(C134,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2593.7159288437751</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>34</v>
       </c>
@@ -12155,8 +13570,16 @@
       <c r="J135">
         <v>927</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <f>VLOOKUP(C135,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.3816268156605358</v>
+      </c>
+      <c r="N135">
+        <f>VLOOKUP(C135,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2605.2366135319248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>34</v>
       </c>
@@ -12187,8 +13610,16 @@
       <c r="J136">
         <v>944</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <f>VLOOKUP(C136,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>4.8150792030783478</v>
+      </c>
+      <c r="N136">
+        <f>VLOOKUP(C136,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2597.2658688237598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>34</v>
       </c>
@@ -12219,8 +13650,16 @@
       <c r="J137">
         <v>1046</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <f>VLOOKUP(C137,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.7978493895303229</v>
+      </c>
+      <c r="N137">
+        <f>VLOOKUP(C137,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2577.5008552970689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>35</v>
       </c>
@@ -12250,7 +13689,7 @@
         <v>22.187600000000007</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>35</v>
       </c>
@@ -12280,7 +13719,7 @@
         <v>37.163000000000011</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>35</v>
       </c>
@@ -12310,7 +13749,7 @@
         <v>19.4648</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>35</v>
       </c>
@@ -12340,7 +13779,7 @@
         <v>2.7876500000000028</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>36</v>
       </c>
@@ -12372,8 +13811,16 @@
         <f>VLOOKUP(sampling!C142,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <f>VLOOKUP(C142,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.639352256373134</v>
+      </c>
+      <c r="N142">
+        <f>VLOOKUP(C142,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2607.3436461459037</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>36</v>
       </c>
@@ -12405,8 +13852,16 @@
         <f>VLOOKUP(sampling!C143,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143">
+        <f>VLOOKUP(C143,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.9115969012973784</v>
+      </c>
+      <c r="N143">
+        <f>VLOOKUP(C143,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2598.2211402059411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>36</v>
       </c>
@@ -12438,8 +13893,16 @@
         <f>VLOOKUP(sampling!C144,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144">
+        <f>VLOOKUP(C144,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>5.5435786301314005</v>
+      </c>
+      <c r="N144">
+        <f>VLOOKUP(C144,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2600.5325896522331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>36</v>
       </c>
@@ -12471,8 +13934,16 @@
         <f>VLOOKUP(sampling!C145,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.28440399999999988</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <f>VLOOKUP(C145,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.0143105423299876</v>
+      </c>
+      <c r="N145">
+        <f>VLOOKUP(C145,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2597.8419750232874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>37</v>
       </c>
@@ -12497,8 +13968,16 @@
         <f t="shared" si="7"/>
         <v>7.2520833333328483</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <f>VLOOKUP(C146,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.1985870202197795</v>
+      </c>
+      <c r="N146">
+        <f>VLOOKUP(C146,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2607.9316356318664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>37</v>
       </c>
@@ -12523,8 +14002,16 @@
         <f t="shared" si="7"/>
         <v>7.2520833333328483</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147">
+        <f>VLOOKUP(C147,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>6.7668331872256964</v>
+      </c>
+      <c r="N147">
+        <f>VLOOKUP(C147,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2591.2802053875248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>37</v>
       </c>
@@ -12549,8 +14036,16 @@
         <f t="shared" si="7"/>
         <v>7.242361111115315</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <f>VLOOKUP(C148,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.0023063350227854</v>
+      </c>
+      <c r="N148">
+        <f>VLOOKUP(C148,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2590.4704931322599</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>37</v>
       </c>
@@ -12575,8 +14070,16 @@
         <f t="shared" si="7"/>
         <v>7.242361111115315</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <f>VLOOKUP(C149,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>9.5100051340464518</v>
+      </c>
+      <c r="N149">
+        <f>VLOOKUP(C149,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2570.3971920732042</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>38</v>
       </c>
@@ -12606,7 +14109,7 @@
         <v>17.422699999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>38</v>
       </c>
@@ -12636,7 +14139,7 @@
         <v>37.163000000000011</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>38</v>
       </c>
@@ -12666,7 +14169,7 @@
         <v>20.145500000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>38</v>
       </c>
@@ -12696,7 +14199,7 @@
         <v>8.5736000000000026</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>39</v>
       </c>
@@ -12725,8 +14228,16 @@
         <f>VLOOKUP(sampling!C154,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.15071999999999974</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <f>VLOOKUP(C154,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>7.3295953638102711</v>
+      </c>
+      <c r="N154">
+        <f>VLOOKUP(C154,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2587.2047416226387</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>39</v>
       </c>
@@ -12755,8 +14266,16 @@
         <f>VLOOKUP(sampling!C155,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155">
+        <f>VLOOKUP(C155,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>15.868490403414194</v>
+      </c>
+      <c r="N155">
+        <f>VLOOKUP(C155,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2593.6709232100256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>39</v>
       </c>
@@ -12785,8 +14304,16 @@
         <f>VLOOKUP(sampling!C156,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <f>VLOOKUP(C156,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>4.2741918552027292</v>
+      </c>
+      <c r="N156">
+        <f>VLOOKUP(C156,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2590.908105181903</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>39</v>
       </c>
@@ -12815,8 +14342,16 @@
         <f>VLOOKUP(sampling!C157,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.75229799999999969</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <f>VLOOKUP(C157,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>3.9535846801750436</v>
+      </c>
+      <c r="N157">
+        <f>VLOOKUP(C157,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2582.3372662584306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>40</v>
       </c>
@@ -12851,7 +14386,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>40</v>
       </c>
@@ -12886,7 +14421,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>40</v>
       </c>
@@ -12921,7 +14456,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>40</v>
       </c>
@@ -12956,7 +14491,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>41</v>
       </c>
@@ -12981,8 +14516,16 @@
         <f t="shared" si="7"/>
         <v>8.2156249999970896</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <f>VLOOKUP(C162,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>5.7530036278175993</v>
+      </c>
+      <c r="N162">
+        <f>VLOOKUP(C162,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2598.9816876085488</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>41</v>
       </c>
@@ -13007,8 +14550,16 @@
         <f t="shared" si="7"/>
         <v>8.2156249999970896</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163">
+        <f>VLOOKUP(C163,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.6246674392851608</v>
+      </c>
+      <c r="N163">
+        <f>VLOOKUP(C163,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2584.9932573639335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>41</v>
       </c>
@@ -13033,8 +14584,16 @@
         <f t="shared" si="7"/>
         <v>8.2059027777795563</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164">
+        <f>VLOOKUP(C164,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.320176975154761</v>
+      </c>
+      <c r="N164">
+        <f>VLOOKUP(C164,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2592.1799161623817</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>41</v>
       </c>
@@ -13059,8 +14618,16 @@
         <f t="shared" si="7"/>
         <v>8.2059027777795563</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <f>VLOOKUP(C165,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <v>2.4991583075564319</v>
+      </c>
+      <c r="N165">
+        <f>VLOOKUP(C165,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <v>2592.8394239710155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>42</v>
       </c>
@@ -13086,7 +14653,7 @@
         <v>8.5986111111051287</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>42</v>
       </c>
@@ -13112,7 +14679,7 @@
         <v>8.5986111111051287</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>42</v>
       </c>
@@ -13138,7 +14705,7 @@
         <v>8.5888888888875954</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>42</v>
       </c>
@@ -13164,7 +14731,7 @@
         <v>8.5888888888875954</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>43</v>
       </c>
@@ -13194,7 +14761,7 @@
         <v>29.675300000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>43</v>
       </c>
@@ -13220,7 +14787,7 @@
         <v>8.6979166666642413</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>43</v>
       </c>
@@ -13250,7 +14817,7 @@
         <v>31.717400000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>43</v>
       </c>
@@ -13280,7 +14847,7 @@
         <v>7.8929000000000009</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>44</v>
       </c>
@@ -13310,7 +14877,7 @@
         <v>0.18348999999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>44</v>
       </c>
@@ -13340,7 +14907,7 @@
         <v>-0.48492999999999942</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>44</v>
       </c>
@@ -13902,7 +15469,7 @@
         <v>45800.073611111111</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G229" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$M$2,$M$3)</f>
+        <f t="shared" ref="G194:G245" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$O$2,$O$3)</f>
         <v>10.240277777775191</v>
       </c>
       <c r="H194">
@@ -13921,7 +15488,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C241" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
+        <f t="shared" ref="C195:C245" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
         <v>F2-49</v>
       </c>
       <c r="D195" s="1">
@@ -13931,7 +15498,7 @@
         <v>45800.416666666664</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F229" si="12">(E195-D195)/2+D195</f>
+        <f t="shared" ref="F195:F245" si="12">(E195-D195)/2+D195</f>
         <v>45800.073611111111</v>
       </c>
       <c r="G195">
@@ -14008,7 +15575,7 @@
         <v>31.3</v>
       </c>
       <c r="K197">
-        <f>VLOOKUP(sampling!C197,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C197,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
     </row>
@@ -14166,6 +15733,10 @@
       <c r="J202">
         <v>1042</v>
       </c>
+      <c r="K202">
+        <f>VLOOKUP(sampling!C202,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
@@ -14201,6 +15772,10 @@
       <c r="J203">
         <v>800</v>
       </c>
+      <c r="K203">
+        <f>VLOOKUP(sampling!C203,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.21756200000000003</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
@@ -14236,6 +15811,10 @@
       <c r="J204">
         <v>1048</v>
       </c>
+      <c r="K204">
+        <f>VLOOKUP(sampling!C204,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
@@ -14271,6 +15850,10 @@
       <c r="J205">
         <v>941</v>
       </c>
+      <c r="K205">
+        <f>VLOOKUP(sampling!C205,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
@@ -14303,6 +15886,10 @@
       <c r="J206">
         <v>1029</v>
       </c>
+      <c r="K206">
+        <f>VLOOKUP(sampling!C206,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.15071999999999974</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
@@ -14338,6 +15925,10 @@
       <c r="J207">
         <v>964</v>
       </c>
+      <c r="K207">
+        <f>VLOOKUP(sampling!C207,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.41808800000000002</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
@@ -14370,8 +15961,12 @@
       <c r="J208">
         <v>973</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <f>VLOOKUP(sampling!C208,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.35124600000000017</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>52</v>
       </c>
@@ -14402,8 +15997,12 @@
       <c r="J209">
         <v>956</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <f>VLOOKUP(sampling!C209,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>53</v>
       </c>
@@ -14434,8 +16033,12 @@
       <c r="J210">
         <v>947</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <f>VLOOKUP(sampling!C210,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>53</v>
       </c>
@@ -14466,8 +16069,12 @@
       <c r="J211">
         <v>984</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <f>VLOOKUP(sampling!C211,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>53</v>
       </c>
@@ -14498,8 +16105,12 @@
       <c r="J212">
         <v>900</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <f>VLOOKUP(sampling!C212,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>53</v>
       </c>
@@ -14530,8 +16141,12 @@
       <c r="J213">
         <v>939</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <f>VLOOKUP(sampling!C213,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>54</v>
       </c>
@@ -14556,8 +16171,12 @@
         <f t="shared" si="10"/>
         <v>11.713541666664241</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <f>VLOOKUP(sampling!C214,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>54</v>
       </c>
@@ -14582,8 +16201,12 @@
         <f t="shared" si="10"/>
         <v>11.713541666664241</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <f>VLOOKUP(sampling!C215,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>38.5244</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>54</v>
       </c>
@@ -14608,8 +16231,12 @@
         <f t="shared" si="10"/>
         <v>11.703819444446708</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <f>VLOOKUP(sampling!C216,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>18.784099999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>54</v>
       </c>
@@ -14634,8 +16261,12 @@
         <f t="shared" si="10"/>
         <v>11.703819444446708</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <f>VLOOKUP(sampling!C217,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>4.4893999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>55</v>
       </c>
@@ -14669,8 +16300,12 @@
       <c r="J218">
         <v>1102</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <f>VLOOKUP(sampling!C218,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>55</v>
       </c>
@@ -14704,8 +16339,12 @@
       <c r="J219">
         <v>1018</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <f>VLOOKUP(sampling!C219,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>55</v>
       </c>
@@ -14739,8 +16378,12 @@
       <c r="J220">
         <v>1109</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <f>VLOOKUP(sampling!C220,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.75229799999999969</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>55</v>
       </c>
@@ -14774,8 +16417,12 @@
       <c r="J221">
         <v>1061</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <f>VLOOKUP(sampling!C221,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>56</v>
       </c>
@@ -14800,8 +16447,12 @@
         <f t="shared" si="10"/>
         <v>12.255555555551837</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <f>VLOOKUP(sampling!C222,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.21756200000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>56</v>
       </c>
@@ -14826,8 +16477,12 @@
         <f t="shared" si="10"/>
         <v>12.255555555551837</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <f>VLOOKUP(sampling!C223,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>56</v>
       </c>
@@ -14852,8 +16507,12 @@
         <f t="shared" si="10"/>
         <v>12.245833333334303</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <f>VLOOKUP(sampling!C224,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>56</v>
       </c>
@@ -14878,8 +16537,12 @@
         <f t="shared" si="10"/>
         <v>12.245833333334303</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <f>VLOOKUP(sampling!C225,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.68545599999999984</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>57</v>
       </c>
@@ -14913,8 +16576,12 @@
       <c r="J226">
         <v>1060</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <f>VLOOKUP(sampling!C226,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>57</v>
       </c>
@@ -14948,8 +16615,12 @@
       <c r="J227">
         <v>1047</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <f>VLOOKUP(sampling!C227,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>57</v>
       </c>
@@ -14983,8 +16654,12 @@
       <c r="J228">
         <v>1075</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <f>VLOOKUP(sampling!C228,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>57</v>
       </c>
@@ -15010,7 +16685,7 @@
         <v>12.621180555557657</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>58</v>
       </c>
@@ -15024,9 +16699,23 @@
       <c r="D230" s="1">
         <v>45802.542361111111</v>
       </c>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E230" s="1">
+        <v>45802.570138888892</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.556250000001</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="10"/>
+        <v>12.722916666665697</v>
+      </c>
+      <c r="L230">
+        <f>VLOOKUP(sampling!C230,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>58</v>
       </c>
@@ -15040,9 +16729,23 @@
       <c r="D231" s="1">
         <v>45802.542361111111</v>
       </c>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E231" s="1">
+        <v>45802.570138888892</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.556250000001</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="10"/>
+        <v>12.722916666665697</v>
+      </c>
+      <c r="L231">
+        <f>VLOOKUP(sampling!C231,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>53.499800000000008</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>58</v>
       </c>
@@ -15056,9 +16759,23 @@
       <c r="D232" s="1">
         <v>45802.542361111111</v>
       </c>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E232" s="1">
+        <v>45802.570138888892</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.556250000001</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="10"/>
+        <v>12.713194444448163</v>
+      </c>
+      <c r="L232">
+        <f>VLOOKUP(sampling!C232,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>22.868300000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>58</v>
       </c>
@@ -15072,9 +16789,23 @@
       <c r="D233" s="1">
         <v>45802.542361111111</v>
       </c>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E233" s="1">
+        <v>45802.570138888892</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.556250000001</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="10"/>
+        <v>12.713194444448163</v>
+      </c>
+      <c r="L233">
+        <f>VLOOKUP(sampling!C233,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>3.8086999999999982</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>59</v>
       </c>
@@ -15085,9 +16816,26 @@
         <f t="shared" si="11"/>
         <v>F1-59</v>
       </c>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D234" s="1">
+        <v>45802.571527777778</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45802.806944444441</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.689236111109</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="10"/>
+        <v>12.855902777773736</v>
+      </c>
+      <c r="K234">
+        <f>VLOOKUP(sampling!C234,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>59</v>
       </c>
@@ -15098,9 +16846,26 @@
         <f t="shared" si="11"/>
         <v>F2-59</v>
       </c>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D235" s="1">
+        <v>45802.571527777778</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45802.806944444441</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.689236111109</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="10"/>
+        <v>12.855902777773736</v>
+      </c>
+      <c r="K235">
+        <f>VLOOKUP(sampling!C235,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>59</v>
       </c>
@@ -15111,9 +16876,26 @@
         <f t="shared" si="11"/>
         <v>F3-59</v>
       </c>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D236" s="1">
+        <v>45802.571527777778</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45802.806944444441</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.689236111109</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="10"/>
+        <v>12.846180555556202</v>
+      </c>
+      <c r="K236">
+        <f>VLOOKUP(sampling!C236,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.35124600000000017</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>59</v>
       </c>
@@ -15124,9 +16906,26 @@
         <f t="shared" si="11"/>
         <v>F4-59</v>
       </c>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D237" s="1">
+        <v>45802.571527777778</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45802.806944444441</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="12"/>
+        <v>45802.689236111109</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="10"/>
+        <v>12.846180555556202</v>
+      </c>
+      <c r="K237">
+        <f>VLOOKUP(sampling!C237,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>60</v>
       </c>
@@ -15137,9 +16936,22 @@
         <f t="shared" si="11"/>
         <v>F1-60</v>
       </c>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D238" s="3">
+        <v>45802.808333333334</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45803.413888888892</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.111111111109</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="10"/>
+        <v>13.277777777773736</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>60</v>
       </c>
@@ -15150,9 +16962,22 @@
         <f t="shared" si="11"/>
         <v>F2-60</v>
       </c>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D239" s="3">
+        <v>45802.808333333334</v>
+      </c>
+      <c r="E239" s="1">
+        <v>45803.413888888892</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.111111111109</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="10"/>
+        <v>13.277777777773736</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>60</v>
       </c>
@@ -15163,9 +16988,22 @@
         <f t="shared" si="11"/>
         <v>F3-60</v>
       </c>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D240" s="3">
+        <v>45802.808333333334</v>
+      </c>
+      <c r="E240" s="1">
+        <v>45803.413888888892</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.111111111109</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="10"/>
+        <v>13.268055555556202</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>60</v>
       </c>
@@ -15176,7 +17014,140 @@
         <f t="shared" si="11"/>
         <v>F4-60</v>
       </c>
-      <c r="F241" s="1"/>
+      <c r="D241" s="3">
+        <v>45802.808333333334</v>
+      </c>
+      <c r="E241" s="1">
+        <v>45803.413888888892</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.111111111109</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="10"/>
+        <v>13.268055555556202</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>61</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-61</v>
+      </c>
+      <c r="D242" s="1">
+        <v>45803.415972222225</v>
+      </c>
+      <c r="E242" s="1">
+        <v>45803.46875</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.442361111112</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="10"/>
+        <v>13.609027777776646</v>
+      </c>
+      <c r="L242">
+        <f>VLOOKUP(sampling!C242,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>26.952500000000011</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>61</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-61</v>
+      </c>
+      <c r="D243" s="1">
+        <v>45803.415972222225</v>
+      </c>
+      <c r="E243" s="1">
+        <v>45803.46875</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.442361111112</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="10"/>
+        <v>13.609027777776646</v>
+      </c>
+      <c r="L243">
+        <f>VLOOKUP(sampling!C243,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>48.054200000000009</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>61</v>
+      </c>
+      <c r="B244" s="2">
+        <v>3</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-61</v>
+      </c>
+      <c r="D244" s="1">
+        <v>45803.415972222225</v>
+      </c>
+      <c r="E244" s="1">
+        <v>45803.46875</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.442361111112</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="10"/>
+        <v>13.599305555559113</v>
+      </c>
+      <c r="L244">
+        <f>VLOOKUP(sampling!C244,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>61</v>
+      </c>
+      <c r="B245" s="2">
+        <v>4</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-61</v>
+      </c>
+      <c r="D245" s="1">
+        <v>45803.415972222225</v>
+      </c>
+      <c r="E245" s="1">
+        <v>45803.46875</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="12"/>
+        <v>45803.442361111112</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="10"/>
+        <v>13.599305555559113</v>
+      </c>
+      <c r="L245">
+        <f>VLOOKUP(sampling!C245,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>4.4893999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15184,6 +17155,1331 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EE10AC-039B-7246-BB19-795F61BBEE1F}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>MID(A3,5,5)</f>
+        <v>F1-1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13.135259331746639</v>
+      </c>
+      <c r="D3" s="7">
+        <v>241.57941663183894</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.14136596512264921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:B67" si="0">MID(A4,5,5)</f>
+        <v>F2-1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13.458614866954148</v>
+      </c>
+      <c r="D4" s="7">
+        <v>251.61516083086835</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.15047651471169121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>13.079179238369294</v>
+      </c>
+      <c r="D5" s="7">
+        <v>249.60147186220578</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.14194582109756632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13.437787995802124</v>
+      </c>
+      <c r="D6" s="7">
+        <v>252.45991191806115</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.16363983989513431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13.140062235158364</v>
+      </c>
+      <c r="D7" s="7">
+        <v>250.01256435931589</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.14037189666902999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>13.116511180862393</v>
+      </c>
+      <c r="D8" s="7">
+        <v>248.74612984804514</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.12247226237715481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.72820346551849</v>
+      </c>
+      <c r="D9" s="7">
+        <v>242.20279814841794</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.13705806476175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12.931756327330772</v>
+      </c>
+      <c r="D10" s="7">
+        <v>245.02009763217455</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.1310092491799367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.311733146204241</v>
+      </c>
+      <c r="D11" s="7">
+        <v>153.22832495400874</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.16860542424741032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8.4540679091767874</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157.48310399686176</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.77708401226963431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.1669886301931776</v>
+      </c>
+      <c r="D13" s="7">
+        <v>147.27194235923506</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.64866157469469088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.2852154704320844</v>
+      </c>
+      <c r="D14" s="7">
+        <v>137.08326979191665</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.57137606880862091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13.236809980108537</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250.9858056514563</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.65142323307072014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>13.021008288887812</v>
+      </c>
+      <c r="D16" s="7">
+        <v>248.01207761386982</v>
+      </c>
+      <c r="E16" s="8">
+        <v>6.6300996454161378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13.026640050946307</v>
+      </c>
+      <c r="D17" s="7">
+        <v>247.62700514754133</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.9925045811512727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>13.10104198150511</v>
+      </c>
+      <c r="D18" s="7">
+        <v>248.60739062530925</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.49025552046065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12.838054642556441</v>
+      </c>
+      <c r="D19" s="7">
+        <v>243.7361850136692</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.0138041888270108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>13.065663800214665</v>
+      </c>
+      <c r="D20" s="7">
+        <v>248.30944603599386</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7.1189967344639227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>13.051783746340559</v>
+      </c>
+      <c r="D21" s="7">
+        <v>248.38748542805229</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.2574680511515768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>13.116478056546342</v>
+      </c>
+      <c r="D22" s="7">
+        <v>250.81204269722662</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.5248123606429176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-10</v>
+      </c>
+      <c r="C23" s="6">
+        <v>13.077191687728117</v>
+      </c>
+      <c r="D23" s="7">
+        <v>249.43260851265208</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.11932199790282079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>13.001429336625998</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246.65814302506968</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.13299805375536231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>13.128468972628562</v>
+      </c>
+      <c r="D25" s="7">
+        <v>248.60670611484417</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.2837670732354574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>12.939210922725708</v>
+      </c>
+      <c r="D26" s="7">
+        <v>246.54411314158361</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2.8042327133297928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-19</v>
+      </c>
+      <c r="C27" s="6">
+        <v>13.032569923845438</v>
+      </c>
+      <c r="D27" s="7">
+        <v>247.33125349366099</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.18217324588145753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-19</v>
+      </c>
+      <c r="C28" s="6">
+        <v>13.006067370411838</v>
+      </c>
+      <c r="D28" s="7">
+        <v>248.89714161902779</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.1415316395583168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-19</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12.991656252091484</v>
+      </c>
+      <c r="D29" s="7">
+        <v>248.68422615763845</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.53762244969391326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>13.293243718594738</v>
+      </c>
+      <c r="D30" s="7">
+        <v>247.60937451261668</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.13291518988800002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-24</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12.926190185820435</v>
+      </c>
+      <c r="D31" s="7">
+        <v>246.81659791418289</v>
+      </c>
+      <c r="E31" s="8">
+        <v>8.2983951790809196E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-24</v>
+      </c>
+      <c r="C32" s="6">
+        <v>12.934141805134322</v>
+      </c>
+      <c r="D32" s="7">
+        <v>247.5689350111966</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.37927008855330868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-24</v>
+      </c>
+      <c r="C33" s="6">
+        <v>13.058839745434204</v>
+      </c>
+      <c r="D33" s="7">
+        <v>249.0925070518098</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.2612069878107392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-28</v>
+      </c>
+      <c r="C34" s="6">
+        <v>13.112072510738239</v>
+      </c>
+      <c r="D34" s="7">
+        <v>248.95181242035656</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.41774048055521285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-28</v>
+      </c>
+      <c r="C35" s="6">
+        <v>13.171528846183964</v>
+      </c>
+      <c r="D35" s="7">
+        <v>249.095073644102</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.4051967230906407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-28</v>
+      </c>
+      <c r="C36" s="6">
+        <v>13.153940813734309</v>
+      </c>
+      <c r="D36" s="7">
+        <v>250.30704266224564</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1.2786204244194801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-28</v>
+      </c>
+      <c r="C37" s="6">
+        <v>13.478745908530392</v>
+      </c>
+      <c r="D37" s="7">
+        <v>252.34169290182382</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1.5456509595488703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-29</v>
+      </c>
+      <c r="C38" s="6">
+        <v>13.038069097751738</v>
+      </c>
+      <c r="D38" s="7">
+        <v>248.0622681555127</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.16363983989513431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-29</v>
+      </c>
+      <c r="C39" s="6">
+        <v>13.091071317004218</v>
+      </c>
+      <c r="D39" s="7">
+        <v>248.54296054866239</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.18084986380049431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-29</v>
+      </c>
+      <c r="C40" s="6">
+        <v>13.002290687715673</v>
+      </c>
+      <c r="D40" s="7">
+        <v>248.15845418321697</v>
+      </c>
+      <c r="E40" s="8">
+        <v>3.2221523993443384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-29</v>
+      </c>
+      <c r="C41" s="6">
+        <v>13.024022942738764</v>
+      </c>
+      <c r="D41" s="7">
+        <v>248.55181653893717</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2.1537151464558022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-31</v>
+      </c>
+      <c r="C42" s="6">
+        <v>13.316723527740482</v>
+      </c>
+      <c r="D42" s="7">
+        <v>249.46207886174506</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.23348558879866879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-31</v>
+      </c>
+      <c r="C43" s="6">
+        <v>13.211340681041797</v>
+      </c>
+      <c r="D43" s="7">
+        <v>249.3347003318861</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.22448632941405269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-31</v>
+      </c>
+      <c r="C44" s="6">
+        <v>13.160201003577269</v>
+      </c>
+      <c r="D44" s="7">
+        <v>249.3211837615801</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.22506435632133082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-31</v>
+      </c>
+      <c r="C45" s="6">
+        <v>13.031046049935258</v>
+      </c>
+      <c r="D45" s="7">
+        <v>248.49829524626801</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.20978365009043431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-32</v>
+      </c>
+      <c r="C46" s="6">
+        <v>13.107269445446484</v>
+      </c>
+      <c r="D46" s="7">
+        <v>248.00963867076189</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.14981403536515681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-32</v>
+      </c>
+      <c r="C47" s="6">
+        <v>13.071162755021085</v>
+      </c>
+      <c r="D47" s="7">
+        <v>247.14970876576905</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.1390464138252348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-32</v>
+      </c>
+      <c r="C48" s="6">
+        <v>13.06129111137119</v>
+      </c>
+      <c r="D48" s="7">
+        <v>247.83638421292662</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.13366095533442632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-32</v>
+      </c>
+      <c r="C49" s="6">
+        <v>13.200344591339682</v>
+      </c>
+      <c r="D49" s="7">
+        <v>250.18567891405087</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.15627249920642519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-33</v>
+      </c>
+      <c r="C50" s="6">
+        <v>13.157816174916276</v>
+      </c>
+      <c r="D50" s="7">
+        <v>248.50719412146432</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.1399576904302175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-33</v>
+      </c>
+      <c r="C51" s="6">
+        <v>13.135789308658998</v>
+      </c>
+      <c r="D51" s="7">
+        <v>249.97061028637546</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.16107392125628001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-33</v>
+      </c>
+      <c r="C52" s="6">
+        <v>13.012262418002182</v>
+      </c>
+      <c r="D52" s="7">
+        <v>248.16123532739229</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.13142359581626523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-33</v>
+      </c>
+      <c r="C53" s="6">
+        <v>13.093257585911449</v>
+      </c>
+      <c r="D53" s="7">
+        <v>247.94797996845216</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.15494781506849878</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-34</v>
+      </c>
+      <c r="C54" s="6">
+        <v>13.232371952996569</v>
+      </c>
+      <c r="D54" s="7">
+        <v>248.99672916900244</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.15577575045456479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-34</v>
+      </c>
+      <c r="C55" s="6">
+        <v>13.205345842963878</v>
+      </c>
+      <c r="D55" s="7">
+        <v>250.10271489906478</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.14766086257095321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-34</v>
+      </c>
+      <c r="C56" s="6">
+        <v>13.21478520930749</v>
+      </c>
+      <c r="D56" s="7">
+        <v>249.33752340708094</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.29853491059085752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-34</v>
+      </c>
+      <c r="C57" s="6">
+        <v>13.033663136015342</v>
+      </c>
+      <c r="D57" s="7">
+        <v>247.4400821085186</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.23546666215088002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-36</v>
+      </c>
+      <c r="C58" s="6">
+        <v>14.089464202360503</v>
+      </c>
+      <c r="D58" s="7">
+        <v>250.30499003000676</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.16363983989513431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-36</v>
+      </c>
+      <c r="C59" s="6">
+        <v>13.380635581534339</v>
+      </c>
+      <c r="D59" s="7">
+        <v>249.42922945977037</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.18051900788043748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-36</v>
+      </c>
+      <c r="C60" s="6">
+        <v>13.165268741740729</v>
+      </c>
+      <c r="D60" s="7">
+        <v>249.65112860661438</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.34370187506814681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-36</v>
+      </c>
+      <c r="C61" s="6">
+        <v>13.617861893417402</v>
+      </c>
+      <c r="D61" s="7">
+        <v>249.39282960223557</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.18688725362445921</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-37</v>
+      </c>
+      <c r="C62" s="6">
+        <v>13.272975704704558</v>
+      </c>
+      <c r="D62" s="7">
+        <v>250.3614370206592</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.13631239525362632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-37</v>
+      </c>
+      <c r="C63" s="6">
+        <v>13.077257939492785</v>
+      </c>
+      <c r="D63" s="7">
+        <v>248.7628997172024</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.41954365760799317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F3-37</v>
+      </c>
+      <c r="C64" s="6">
+        <v>13.062947435611269</v>
+      </c>
+      <c r="D64" s="7">
+        <v>248.68516734069695</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.18614299277141269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F1-39</v>
+      </c>
+      <c r="C65" s="6">
+        <v>13.280195413451446</v>
+      </c>
+      <c r="D65" s="7">
+        <v>248.37165519577331</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.4544349125562368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4-37</v>
+      </c>
+      <c r="C66" s="6">
+        <v>13.092131326890092</v>
+      </c>
+      <c r="D66" s="7">
+        <v>246.75813043902761</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.58962031831088002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F2-39</v>
+      </c>
+      <c r="C67" s="6">
+        <v>14.017632500156829</v>
+      </c>
+      <c r="D67" s="7">
+        <v>248.99240862816245</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.98384640501167997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" ref="B68:B73" si="1">MID(A68,5,5)</f>
+        <v>F3-39</v>
+      </c>
+      <c r="C68" s="6">
+        <v>13.13691550847474</v>
+      </c>
+      <c r="D68" s="7">
+        <v>248.72717809746268</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0.26499989502256921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-39</v>
+      </c>
+      <c r="C69" s="6">
+        <v>13.061092352240419</v>
+      </c>
+      <c r="D69" s="7">
+        <v>247.90437756080934</v>
+      </c>
+      <c r="E69" s="8">
+        <v>0.24512225017085271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-41</v>
+      </c>
+      <c r="C70" s="6">
+        <v>13.272147752440622</v>
+      </c>
+      <c r="D70" s="7">
+        <v>249.5022420104207</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0.35668622492469115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-41</v>
+      </c>
+      <c r="C71" s="6">
+        <v>13.14314270341451</v>
+      </c>
+      <c r="D71" s="7">
+        <v>248.15935270693763</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0.16272938123567998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-41</v>
+      </c>
+      <c r="C72" s="6">
+        <v>13.166825491698949</v>
+      </c>
+      <c r="D72" s="7">
+        <v>248.84927195158863</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0.14385097245959519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-41</v>
+      </c>
+      <c r="C73" s="6">
+        <v>13.152284670961048</v>
+      </c>
+      <c r="D73" s="7">
+        <v>248.91258470121753</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0.15494781506849878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C7900E-9887-B243-BF49-26E84C1A4CE3}">
   <dimension ref="A1:E25"/>
   <sheetViews>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0F934-B514-4740-83E4-633ED8501B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D587E-AF07-3D42-81DE-489A9611AD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -5867,10 +5867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F067866-145E-4840-B852-3EC052744DCC}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7436,7 +7436,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C84" si="7">_xlfn.CONCAT("F",B67,"-",A67)</f>
+        <f t="shared" ref="C67:C104" si="7">_xlfn.CONCAT("F",B67,"-",A67)</f>
         <v>F2-53</v>
       </c>
       <c r="D67">
@@ -7481,7 +7481,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G84" si="8">(66.842*AVERAGE(D69:E69)-2.8244)</f>
+        <f t="shared" ref="G69:G104" si="8">(66.842*AVERAGE(D69:E69)-2.8244)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -7768,6 +7768,386 @@
       <c r="G84">
         <f t="shared" si="8"/>
         <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-70</v>
+      </c>
+      <c r="D85">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>4.9805999999999795E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>70</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-70</v>
+      </c>
+      <c r="D86">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>-0.28440399999999988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>70</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-70</v>
+      </c>
+      <c r="D87">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>70</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-70</v>
+      </c>
+      <c r="D88">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>73</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-73</v>
+      </c>
+      <c r="D89">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>73</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-73</v>
+      </c>
+      <c r="D90">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>73</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-73</v>
+      </c>
+      <c r="D91">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>73</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-73</v>
+      </c>
+      <c r="D92">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>76</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-76</v>
+      </c>
+      <c r="D93">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>76</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-76</v>
+      </c>
+      <c r="D94">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>76</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-76</v>
+      </c>
+      <c r="D95">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>76</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-76</v>
+      </c>
+      <c r="D96">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>77</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-77</v>
+      </c>
+      <c r="D97">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>77</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-77</v>
+      </c>
+      <c r="D98">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-77</v>
+      </c>
+      <c r="D99">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-77</v>
+      </c>
+      <c r="D100">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>79</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-79</v>
+      </c>
+      <c r="D101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>79</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-79</v>
+      </c>
+      <c r="D102">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>79</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-79</v>
+      </c>
+      <c r="D103">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>-1.7035999999999607E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>79</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="7"/>
+        <v>F4-79</v>
+      </c>
+      <c r="D104">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>-0.48492999999999942</v>
       </c>
     </row>
   </sheetData>
@@ -7790,10 +8170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40BEACF-0DE4-5246-AC39-8A2F27C18FD3}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7882,14 +8262,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C53" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C77" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>F1-15</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G53" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
+        <f t="shared" ref="G3:G77" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
         <v>3.1280000000000037</v>
       </c>
       <c r="I3">
@@ -8947,6 +9327,465 @@
       <c r="G53">
         <f t="shared" si="2"/>
         <v>4.4893999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-64</v>
+      </c>
+      <c r="D54">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>39.205100000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-64</v>
+      </c>
+      <c r="D55">
+        <v>0.129</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>56.903300000000016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-64</v>
+      </c>
+      <c r="D56">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>26.952500000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-64</v>
+      </c>
+      <c r="D57">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>12.657800000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-68</v>
+      </c>
+      <c r="D58">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>34.440200000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-68</v>
+      </c>
+      <c r="D59">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>59.626100000000008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-68</v>
+      </c>
+      <c r="D60">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>33.759500000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-68</v>
+      </c>
+      <c r="D61">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>18.784099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-74</v>
+      </c>
+      <c r="D62">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>37.843700000000013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-74</v>
+      </c>
+      <c r="D63">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>65.752399999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-74</v>
+      </c>
+      <c r="D64">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>34.440200000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-74</v>
+      </c>
+      <c r="D65">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-75</v>
+      </c>
+      <c r="D66">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>38.5244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-75</v>
+      </c>
+      <c r="D67">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>80.727800000000016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-75</v>
+      </c>
+      <c r="D68">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-75</v>
+      </c>
+      <c r="D69">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>20.145500000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-80</v>
+      </c>
+      <c r="D70">
+        <v>0.113</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>46.012100000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>80</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-80</v>
+      </c>
+      <c r="D71">
+        <v>0.15</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>71.198000000000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-80</v>
+      </c>
+      <c r="D72">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>37.843700000000013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-80</v>
+      </c>
+      <c r="D73">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>25.591100000000008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-82</v>
+      </c>
+      <c r="D74">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>32.398099999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-82</v>
+      </c>
+      <c r="D75">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E75">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>29.334950000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-82</v>
+      </c>
+      <c r="D76">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-82</v>
+      </c>
+      <c r="D77">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
       </c>
     </row>
   </sheetData>
@@ -8957,10 +9796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
-  <dimension ref="A1:P245"/>
+  <dimension ref="A1:P329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166:N245"/>
+    <sheetView tabSelected="1" topLeftCell="B308" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K277" sqref="K238:K277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15469,7 +16308,7 @@
         <v>45800.073611111111</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G245" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$O$2,$O$3)</f>
+        <f t="shared" ref="G194:G257" si="10" xml:space="preserve"> F194-IF(OR(B194=1,B194=2),$O$2,$O$3)</f>
         <v>10.240277777775191</v>
       </c>
       <c r="H194">
@@ -15488,7 +16327,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C245" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
+        <f t="shared" ref="C195:C258" si="11">_xlfn.CONCAT("F",B195,"-",A195)</f>
         <v>F2-49</v>
       </c>
       <c r="D195" s="1">
@@ -15498,7 +16337,7 @@
         <v>45800.416666666664</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F245" si="12">(E195-D195)/2+D195</f>
+        <f t="shared" ref="F195:F258" si="12">(E195-D195)/2+D195</f>
         <v>45800.073611111111</v>
       </c>
       <c r="G195">
@@ -17147,6 +17986,2576 @@
       <c r="L245">
         <f>VLOOKUP(sampling!C245,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>4.4893999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>62</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-62</v>
+      </c>
+      <c r="D246" s="1">
+        <v>45803.769444444442</v>
+      </c>
+      <c r="E246" s="1">
+        <v>45804.386805555558</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.078125</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="10"/>
+        <v>14.244791666664241</v>
+      </c>
+      <c r="H246">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>62</v>
+      </c>
+      <c r="B247" s="2">
+        <v>2</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-62</v>
+      </c>
+      <c r="D247" s="1">
+        <v>45803.769444444442</v>
+      </c>
+      <c r="E247" s="1">
+        <v>45804.386805555558</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.078125</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="10"/>
+        <v>14.244791666664241</v>
+      </c>
+      <c r="H247">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>62</v>
+      </c>
+      <c r="B248" s="2">
+        <v>3</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-62</v>
+      </c>
+      <c r="D248" s="1">
+        <v>45803.769444444442</v>
+      </c>
+      <c r="E248" s="1">
+        <v>45804.386805555558</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.078125</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="10"/>
+        <v>14.235069444446708</v>
+      </c>
+      <c r="H248">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>62</v>
+      </c>
+      <c r="B249" s="2">
+        <v>4</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-62</v>
+      </c>
+      <c r="D249" s="1">
+        <v>45803.769444444442</v>
+      </c>
+      <c r="E249" s="1">
+        <v>45804.386805555558</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.078125</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="10"/>
+        <v>14.235069444446708</v>
+      </c>
+      <c r="H249">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>63</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-63</v>
+      </c>
+      <c r="D250" s="1">
+        <v>45804.388888888891</v>
+      </c>
+      <c r="E250" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.460763888885</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="10"/>
+        <v>14.627430555548926</v>
+      </c>
+      <c r="H250">
+        <v>32.17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>63</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-63</v>
+      </c>
+      <c r="D251" s="1">
+        <v>45804.388888888891</v>
+      </c>
+      <c r="E251" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.460763888885</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="10"/>
+        <v>14.627430555548926</v>
+      </c>
+      <c r="H251">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>63</v>
+      </c>
+      <c r="B252" s="2">
+        <v>3</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-63</v>
+      </c>
+      <c r="D252" s="1">
+        <v>45804.388888888891</v>
+      </c>
+      <c r="E252" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.460763888885</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="10"/>
+        <v>14.617708333331393</v>
+      </c>
+      <c r="H252">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>63</v>
+      </c>
+      <c r="B253" s="2">
+        <v>4</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-63</v>
+      </c>
+      <c r="D253" s="1">
+        <v>45804.388888888891</v>
+      </c>
+      <c r="E253" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.460763888885</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="10"/>
+        <v>14.617708333331393</v>
+      </c>
+      <c r="H253">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>64</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-64</v>
+      </c>
+      <c r="D254" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="E254" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.551736111112</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="10"/>
+        <v>14.718402777776646</v>
+      </c>
+      <c r="L254">
+        <f>VLOOKUP(sampling!C254,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>39.205100000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>64</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="11"/>
+        <v>F2-64</v>
+      </c>
+      <c r="D255" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="E255" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.551736111112</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="10"/>
+        <v>14.718402777776646</v>
+      </c>
+      <c r="L255">
+        <f>VLOOKUP(sampling!C255,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>56.903300000000016</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>64</v>
+      </c>
+      <c r="B256" s="2">
+        <v>3</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="11"/>
+        <v>F3-64</v>
+      </c>
+      <c r="D256" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="E256" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.551736111112</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="10"/>
+        <v>14.708680555559113</v>
+      </c>
+      <c r="L256">
+        <f>VLOOKUP(sampling!C256,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>26.952500000000011</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>64</v>
+      </c>
+      <c r="B257" s="2">
+        <v>4</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="11"/>
+        <v>F4-64</v>
+      </c>
+      <c r="D257" s="1">
+        <v>45804.532638888886</v>
+      </c>
+      <c r="E257" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.551736111112</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="10"/>
+        <v>14.708680555559113</v>
+      </c>
+      <c r="L257">
+        <f>VLOOKUP(sampling!C257,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>12.657800000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>65</v>
+      </c>
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="11"/>
+        <v>F1-65</v>
+      </c>
+      <c r="D258" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="E258" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" si="12"/>
+        <v>45804.610069444447</v>
+      </c>
+      <c r="G258">
+        <f t="shared" ref="G258:G323" si="13" xml:space="preserve"> F258-IF(OR(B258=1,B258=2),$O$2,$O$3)</f>
+        <v>14.776736111110949</v>
+      </c>
+      <c r="H258">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>65</v>
+      </c>
+      <c r="B259" s="2">
+        <v>2</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C329" si="14">_xlfn.CONCAT("F",B259,"-",A259)</f>
+        <v>F2-65</v>
+      </c>
+      <c r="D259" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="E259" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" ref="F259:F323" si="15">(E259-D259)/2+D259</f>
+        <v>45804.610069444447</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="13"/>
+        <v>14.776736111110949</v>
+      </c>
+      <c r="H259">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>65</v>
+      </c>
+      <c r="B260" s="2">
+        <v>3</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-65</v>
+      </c>
+      <c r="D260" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="E260" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="15"/>
+        <v>45804.610069444447</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="13"/>
+        <v>14.767013888893416</v>
+      </c>
+      <c r="H260">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>65</v>
+      </c>
+      <c r="B261" s="2">
+        <v>4</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-65</v>
+      </c>
+      <c r="D261" s="1">
+        <v>45804.570833333331</v>
+      </c>
+      <c r="E261" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="15"/>
+        <v>45804.610069444447</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="13"/>
+        <v>14.767013888893416</v>
+      </c>
+      <c r="H261">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>66</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-66</v>
+      </c>
+      <c r="D262" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="E262" s="1">
+        <v>45805.46597222222</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.057638888888</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="13"/>
+        <v>15.224305555551837</v>
+      </c>
+      <c r="H262">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>66</v>
+      </c>
+      <c r="B263" s="2">
+        <v>2</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-66</v>
+      </c>
+      <c r="D263" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="E263" s="1">
+        <v>45805.46597222222</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.057638888888</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="13"/>
+        <v>15.224305555551837</v>
+      </c>
+      <c r="H263">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>66</v>
+      </c>
+      <c r="B264" s="2">
+        <v>3</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-66</v>
+      </c>
+      <c r="D264" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="E264" s="1">
+        <v>45805.46597222222</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.057638888888</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="13"/>
+        <v>15.214583333334303</v>
+      </c>
+      <c r="H264">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>66</v>
+      </c>
+      <c r="B265" s="2">
+        <v>4</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-66</v>
+      </c>
+      <c r="D265" s="1">
+        <v>45804.649305555555</v>
+      </c>
+      <c r="E265" s="1">
+        <v>45805.46597222222</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.057638888888</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="13"/>
+        <v>15.214583333334303</v>
+      </c>
+      <c r="H265">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>67</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-67</v>
+      </c>
+      <c r="D266" s="1">
+        <v>45805.467361111114</v>
+      </c>
+      <c r="E266" s="1">
+        <v>45805.574305555558</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.520833333336</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="13"/>
+        <v>15.6875</v>
+      </c>
+      <c r="H266">
+        <v>30.2</v>
+      </c>
+      <c r="I266">
+        <v>7.51</v>
+      </c>
+      <c r="J266">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>67</v>
+      </c>
+      <c r="B267" s="2">
+        <v>2</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-67</v>
+      </c>
+      <c r="D267" s="1">
+        <v>45805.467361111114</v>
+      </c>
+      <c r="E267" s="1">
+        <v>45805.574305555558</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.520833333336</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="13"/>
+        <v>15.6875</v>
+      </c>
+      <c r="H267">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I267">
+        <v>7.48</v>
+      </c>
+      <c r="J267">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>67</v>
+      </c>
+      <c r="B268" s="2">
+        <v>3</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-67</v>
+      </c>
+      <c r="D268" s="1">
+        <v>45805.467361111114</v>
+      </c>
+      <c r="E268" s="1">
+        <v>45805.574305555558</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.520833333336</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="13"/>
+        <v>15.677777777782467</v>
+      </c>
+      <c r="H268">
+        <v>30.7</v>
+      </c>
+      <c r="I268">
+        <v>7.47</v>
+      </c>
+      <c r="J268">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>67</v>
+      </c>
+      <c r="B269" s="2">
+        <v>4</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-67</v>
+      </c>
+      <c r="D269" s="1">
+        <v>45805.467361111114</v>
+      </c>
+      <c r="E269" s="1">
+        <v>45805.574305555558</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.520833333336</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="13"/>
+        <v>15.677777777782467</v>
+      </c>
+      <c r="H269">
+        <v>29.8</v>
+      </c>
+      <c r="I269">
+        <v>7.45</v>
+      </c>
+      <c r="J269">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>68</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-68</v>
+      </c>
+      <c r="D270" s="1">
+        <v>45805.576388888891</v>
+      </c>
+      <c r="E270" s="1">
+        <v>45805.59652777778</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.586458333331</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="13"/>
+        <v>15.753124999995634</v>
+      </c>
+      <c r="L270">
+        <f>VLOOKUP(sampling!C270,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>34.440200000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>68</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-68</v>
+      </c>
+      <c r="D271" s="1">
+        <v>45805.576388888891</v>
+      </c>
+      <c r="E271" s="1">
+        <v>45805.59652777778</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.586458333331</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="13"/>
+        <v>15.753124999995634</v>
+      </c>
+      <c r="L271">
+        <f>VLOOKUP(sampling!C271,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>59.626100000000008</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>68</v>
+      </c>
+      <c r="B272" s="2">
+        <v>3</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-68</v>
+      </c>
+      <c r="D272" s="1">
+        <v>45805.576388888891</v>
+      </c>
+      <c r="E272" s="1">
+        <v>45805.59652777778</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.586458333331</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="13"/>
+        <v>15.743402777778101</v>
+      </c>
+      <c r="L272">
+        <f>VLOOKUP(sampling!C272,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>33.759500000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>68</v>
+      </c>
+      <c r="B273" s="2">
+        <v>4</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-68</v>
+      </c>
+      <c r="D273" s="1">
+        <v>45805.576388888891</v>
+      </c>
+      <c r="E273" s="1">
+        <v>45805.59652777778</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="15"/>
+        <v>45805.586458333331</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="13"/>
+        <v>15.743402777778101</v>
+      </c>
+      <c r="L273">
+        <f>VLOOKUP(sampling!C273,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>18.784099999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>69</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-69</v>
+      </c>
+      <c r="D274" s="1">
+        <v>45805.805555555555</v>
+      </c>
+      <c r="E274" s="1">
+        <v>45806.364583333336</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.085069444445</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="13"/>
+        <v>16.251736111109494</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>69</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-69</v>
+      </c>
+      <c r="D275" s="1">
+        <v>45805.805555555555</v>
+      </c>
+      <c r="E275" s="1">
+        <v>45806.364583333336</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.085069444445</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="13"/>
+        <v>16.251736111109494</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>69</v>
+      </c>
+      <c r="B276" s="2">
+        <v>3</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-69</v>
+      </c>
+      <c r="D276" s="1">
+        <v>45805.805555555555</v>
+      </c>
+      <c r="E276" s="1">
+        <v>45806.364583333336</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.085069444445</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="13"/>
+        <v>16.242013888891961</v>
+      </c>
+      <c r="H276">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>69</v>
+      </c>
+      <c r="B277" s="2">
+        <v>4</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-69</v>
+      </c>
+      <c r="D277" s="1">
+        <v>45805.805555555555</v>
+      </c>
+      <c r="E277" s="1">
+        <v>45806.364583333336</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.085069444445</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="13"/>
+        <v>16.242013888891961</v>
+      </c>
+      <c r="H277">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>70</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-70</v>
+      </c>
+      <c r="D278" s="1">
+        <v>45806.377083333333</v>
+      </c>
+      <c r="E278" s="1">
+        <v>45806.409722222219</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.393402777772</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="13"/>
+        <v>16.560069444436522</v>
+      </c>
+      <c r="H278">
+        <v>47.44</v>
+      </c>
+      <c r="I278">
+        <v>7.45</v>
+      </c>
+      <c r="J278">
+        <v>1056</v>
+      </c>
+      <c r="K278">
+        <f>VLOOKUP(sampling!C278,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>4.9805999999999795E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>70</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-70</v>
+      </c>
+      <c r="D279" s="1">
+        <v>45806.377083333333</v>
+      </c>
+      <c r="E279" s="1">
+        <v>45806.409722222219</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.393402777772</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="13"/>
+        <v>16.560069444436522</v>
+      </c>
+      <c r="H279">
+        <v>42.34</v>
+      </c>
+      <c r="I279">
+        <v>7.53</v>
+      </c>
+      <c r="J279">
+        <v>1048</v>
+      </c>
+      <c r="K279">
+        <f>VLOOKUP(sampling!C279,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.28440399999999988</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>70</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-70</v>
+      </c>
+      <c r="D280" s="1">
+        <v>45806.377083333333</v>
+      </c>
+      <c r="E280" s="1">
+        <v>45806.409722222219</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.393402777772</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="13"/>
+        <v>16.550347222218988</v>
+      </c>
+      <c r="H280">
+        <v>35.74</v>
+      </c>
+      <c r="I280">
+        <v>7.53</v>
+      </c>
+      <c r="J280">
+        <v>1049</v>
+      </c>
+      <c r="K280">
+        <f>VLOOKUP(sampling!C280,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>70</v>
+      </c>
+      <c r="B281" s="2">
+        <v>4</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-70</v>
+      </c>
+      <c r="D281" s="1">
+        <v>45806.377083333333</v>
+      </c>
+      <c r="E281" s="1">
+        <v>45806.409722222219</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.393402777772</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="13"/>
+        <v>16.550347222218988</v>
+      </c>
+      <c r="H281">
+        <v>39.15</v>
+      </c>
+      <c r="I281">
+        <v>7.49</v>
+      </c>
+      <c r="J281">
+        <v>1055</v>
+      </c>
+      <c r="K281">
+        <f>VLOOKUP(sampling!C281,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>71</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-71</v>
+      </c>
+      <c r="D282" s="1">
+        <v>45806.411111111112</v>
+      </c>
+      <c r="E282" s="1">
+        <v>45806.761111111111</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.586111111115</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="13"/>
+        <v>16.752777777779556</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>71</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-71</v>
+      </c>
+      <c r="D283" s="1">
+        <v>45806.411111111112</v>
+      </c>
+      <c r="E283" s="1">
+        <v>45806.761111111111</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.586111111115</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="13"/>
+        <v>16.752777777779556</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>71</v>
+      </c>
+      <c r="B284" s="2">
+        <v>3</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-71</v>
+      </c>
+      <c r="D284" s="1">
+        <v>45806.411111111112</v>
+      </c>
+      <c r="E284" s="1">
+        <v>45806.761111111111</v>
+      </c>
+      <c r="F284" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.586111111115</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="13"/>
+        <v>16.743055555562023</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>71</v>
+      </c>
+      <c r="B285" s="2">
+        <v>4</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-71</v>
+      </c>
+      <c r="D285" s="1">
+        <v>45806.411111111112</v>
+      </c>
+      <c r="E285" s="1">
+        <v>45806.761111111111</v>
+      </c>
+      <c r="F285" s="1">
+        <f t="shared" si="15"/>
+        <v>45806.586111111115</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="13"/>
+        <v>16.743055555562023</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>72</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-72</v>
+      </c>
+      <c r="D286" s="1">
+        <v>45806.763194444444</v>
+      </c>
+      <c r="E286" s="1">
+        <v>45807.379166666666</v>
+      </c>
+      <c r="F286" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.071180555555</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="13"/>
+        <v>17.237847222218988</v>
+      </c>
+      <c r="H286">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>72</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-72</v>
+      </c>
+      <c r="D287" s="1">
+        <v>45806.763194444444</v>
+      </c>
+      <c r="E287" s="1">
+        <v>45807.379166666666</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.071180555555</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="13"/>
+        <v>17.237847222218988</v>
+      </c>
+      <c r="H287">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>72</v>
+      </c>
+      <c r="B288" s="2">
+        <v>3</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-72</v>
+      </c>
+      <c r="D288" s="1">
+        <v>45806.763194444444</v>
+      </c>
+      <c r="E288" s="1">
+        <v>45807.379166666666</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.071180555555</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="13"/>
+        <v>17.228125000001455</v>
+      </c>
+      <c r="H288">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>72</v>
+      </c>
+      <c r="B289" s="2">
+        <v>4</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-72</v>
+      </c>
+      <c r="D289" s="1">
+        <v>45806.763194444444</v>
+      </c>
+      <c r="E289" s="1">
+        <v>45807.379166666666</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.071180555555</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="13"/>
+        <v>17.228125000001455</v>
+      </c>
+      <c r="H289">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>73</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-73</v>
+      </c>
+      <c r="D290" s="1">
+        <v>45807.381249999999</v>
+      </c>
+      <c r="E290" s="1">
+        <v>45807.451388888891</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.416319444441</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="13"/>
+        <v>17.582986111105129</v>
+      </c>
+      <c r="H290">
+        <v>30.2</v>
+      </c>
+      <c r="K290">
+        <f>VLOOKUP(sampling!C290,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>73</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-73</v>
+      </c>
+      <c r="D291" s="1">
+        <v>45807.381249999999</v>
+      </c>
+      <c r="E291" s="1">
+        <v>45807.451388888891</v>
+      </c>
+      <c r="F291" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.416319444441</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="13"/>
+        <v>17.582986111105129</v>
+      </c>
+      <c r="H291">
+        <v>35.4</v>
+      </c>
+      <c r="K291">
+        <f>VLOOKUP(sampling!C291,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>73</v>
+      </c>
+      <c r="B292" s="2">
+        <v>3</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-73</v>
+      </c>
+      <c r="D292" s="1">
+        <v>45807.381249999999</v>
+      </c>
+      <c r="E292" s="1">
+        <v>45807.451388888891</v>
+      </c>
+      <c r="F292" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.416319444441</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="13"/>
+        <v>17.573263888887595</v>
+      </c>
+      <c r="H292">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K292">
+        <f>VLOOKUP(sampling!C292,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>73</v>
+      </c>
+      <c r="B293" s="2">
+        <v>4</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-73</v>
+      </c>
+      <c r="D293" s="1">
+        <v>45807.381249999999</v>
+      </c>
+      <c r="E293" s="1">
+        <v>45807.451388888891</v>
+      </c>
+      <c r="F293" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.416319444441</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="13"/>
+        <v>17.573263888887595</v>
+      </c>
+      <c r="H293">
+        <v>34.4</v>
+      </c>
+      <c r="K293">
+        <f>VLOOKUP(sampling!C293,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>74</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-74</v>
+      </c>
+      <c r="D294" s="1">
+        <v>45807.452777777777</v>
+      </c>
+      <c r="E294" s="1">
+        <v>45807.478472222225</v>
+      </c>
+      <c r="F294" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.465624999997</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="13"/>
+        <v>17.632291666661331</v>
+      </c>
+      <c r="L294">
+        <f>VLOOKUP(sampling!C294,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>37.843700000000013</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>74</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-74</v>
+      </c>
+      <c r="D295" s="1">
+        <v>45807.452777777777</v>
+      </c>
+      <c r="E295" s="1">
+        <v>45807.478472222225</v>
+      </c>
+      <c r="F295" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.465624999997</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="13"/>
+        <v>17.632291666661331</v>
+      </c>
+      <c r="L295">
+        <f>VLOOKUP(sampling!C295,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>65.752399999999994</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>74</v>
+      </c>
+      <c r="B296" s="2">
+        <v>3</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-74</v>
+      </c>
+      <c r="D296" s="1">
+        <v>45807.452777777777</v>
+      </c>
+      <c r="E296" s="1">
+        <v>45807.478472222225</v>
+      </c>
+      <c r="F296" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.465624999997</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="13"/>
+        <v>17.622569444443798</v>
+      </c>
+      <c r="L296">
+        <f>VLOOKUP(sampling!C296,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>34.440200000000004</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>74</v>
+      </c>
+      <c r="B297" s="2">
+        <v>4</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-74</v>
+      </c>
+      <c r="D297" s="1">
+        <v>45807.452777777777</v>
+      </c>
+      <c r="E297" s="1">
+        <v>45807.478472222225</v>
+      </c>
+      <c r="F297" s="1">
+        <f t="shared" si="15"/>
+        <v>45807.465624999997</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="13"/>
+        <v>17.622569444443798</v>
+      </c>
+      <c r="L297">
+        <f>VLOOKUP(sampling!C297,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>75</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-75</v>
+      </c>
+      <c r="D298" s="1">
+        <v>45808.375</v>
+      </c>
+      <c r="E298" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="F298" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.387152777781</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="13"/>
+        <v>18.553819444445253</v>
+      </c>
+      <c r="L298">
+        <f>VLOOKUP(sampling!C298,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>38.5244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>75</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-75</v>
+      </c>
+      <c r="D299" s="1">
+        <v>45808.375</v>
+      </c>
+      <c r="E299" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="F299" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.387152777781</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="13"/>
+        <v>18.553819444445253</v>
+      </c>
+      <c r="L299">
+        <f>VLOOKUP(sampling!C299,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>80.727800000000016</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>75</v>
+      </c>
+      <c r="B300" s="2">
+        <v>3</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-75</v>
+      </c>
+      <c r="D300" s="1">
+        <v>45808.375</v>
+      </c>
+      <c r="E300" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="F300" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.387152777781</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="13"/>
+        <v>18.54409722222772</v>
+      </c>
+      <c r="L300">
+        <f>VLOOKUP(sampling!C300,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>75</v>
+      </c>
+      <c r="B301" s="2">
+        <v>4</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-75</v>
+      </c>
+      <c r="D301" s="1">
+        <v>45808.375</v>
+      </c>
+      <c r="E301" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="F301" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.387152777781</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="13"/>
+        <v>18.54409722222772</v>
+      </c>
+      <c r="L301">
+        <f>VLOOKUP(sampling!C301,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>20.145500000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>76</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-76</v>
+      </c>
+      <c r="D302" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="E302" s="1">
+        <v>45808.520833333336</v>
+      </c>
+      <c r="F302" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.460069444445</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="13"/>
+        <v>18.626736111109494</v>
+      </c>
+      <c r="H302">
+        <v>31.6</v>
+      </c>
+      <c r="I302">
+        <v>7.39</v>
+      </c>
+      <c r="J302">
+        <v>834</v>
+      </c>
+      <c r="K302">
+        <f>VLOOKUP(sampling!C302,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>76</v>
+      </c>
+      <c r="B303" s="2">
+        <v>2</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-76</v>
+      </c>
+      <c r="D303" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="E303" s="1">
+        <v>45808.520833333336</v>
+      </c>
+      <c r="F303" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.460069444445</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="13"/>
+        <v>18.626736111109494</v>
+      </c>
+      <c r="H303">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I303">
+        <v>7.56</v>
+      </c>
+      <c r="J303">
+        <v>814</v>
+      </c>
+      <c r="K303">
+        <f>VLOOKUP(sampling!C303,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>76</v>
+      </c>
+      <c r="B304" s="2">
+        <v>3</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-76</v>
+      </c>
+      <c r="D304" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="E304" s="1">
+        <v>45808.520833333336</v>
+      </c>
+      <c r="F304" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.460069444445</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="13"/>
+        <v>18.617013888891961</v>
+      </c>
+      <c r="H304">
+        <v>28</v>
+      </c>
+      <c r="I304">
+        <v>7.54</v>
+      </c>
+      <c r="J304">
+        <v>858</v>
+      </c>
+      <c r="K304">
+        <f>VLOOKUP(sampling!C304,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>76</v>
+      </c>
+      <c r="B305" s="2">
+        <v>4</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-76</v>
+      </c>
+      <c r="D305" s="1">
+        <v>45808.399305555555</v>
+      </c>
+      <c r="E305" s="1">
+        <v>45808.520833333336</v>
+      </c>
+      <c r="F305" s="1">
+        <f t="shared" si="15"/>
+        <v>45808.460069444445</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="13"/>
+        <v>18.617013888891961</v>
+      </c>
+      <c r="H305">
+        <v>27.7</v>
+      </c>
+      <c r="I305">
+        <v>7.55</v>
+      </c>
+      <c r="J305">
+        <v>934</v>
+      </c>
+      <c r="K305">
+        <f>VLOOKUP(sampling!C305,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>77</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-77</v>
+      </c>
+      <c r="D306" s="1">
+        <v>45809.727083333331</v>
+      </c>
+      <c r="E306" s="1">
+        <v>45809.827777777777</v>
+      </c>
+      <c r="F306" s="1">
+        <f t="shared" si="15"/>
+        <v>45809.77743055555</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="13"/>
+        <v>19.944097222214623</v>
+      </c>
+      <c r="H306">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K306">
+        <f>VLOOKUP(sampling!C306,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>77</v>
+      </c>
+      <c r="B307" s="2">
+        <v>2</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-77</v>
+      </c>
+      <c r="D307" s="1">
+        <v>45809.727083333331</v>
+      </c>
+      <c r="E307" s="1">
+        <v>45809.827777777777</v>
+      </c>
+      <c r="F307" s="1">
+        <f t="shared" si="15"/>
+        <v>45809.77743055555</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="13"/>
+        <v>19.944097222214623</v>
+      </c>
+      <c r="H307">
+        <v>31.3</v>
+      </c>
+      <c r="K307">
+        <f>VLOOKUP(sampling!C307,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>77</v>
+      </c>
+      <c r="B308" s="2">
+        <v>3</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-77</v>
+      </c>
+      <c r="D308" s="1">
+        <v>45809.727083333331</v>
+      </c>
+      <c r="E308" s="1">
+        <v>45809.827777777777</v>
+      </c>
+      <c r="F308" s="1">
+        <f t="shared" si="15"/>
+        <v>45809.77743055555</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="13"/>
+        <v>19.93437499999709</v>
+      </c>
+      <c r="H308">
+        <v>35.5</v>
+      </c>
+      <c r="K308">
+        <f>VLOOKUP(sampling!C308,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>77</v>
+      </c>
+      <c r="B309" s="2">
+        <v>4</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-77</v>
+      </c>
+      <c r="D309" s="1">
+        <v>45809.727083333331</v>
+      </c>
+      <c r="E309" s="1">
+        <v>45809.827777777777</v>
+      </c>
+      <c r="F309" s="1">
+        <f t="shared" si="15"/>
+        <v>45809.77743055555</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="13"/>
+        <v>19.93437499999709</v>
+      </c>
+      <c r="H309">
+        <v>28.3</v>
+      </c>
+      <c r="K309">
+        <f>VLOOKUP(sampling!C309,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>78</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-78</v>
+      </c>
+      <c r="D310" s="1">
+        <v>45809.831250000003</v>
+      </c>
+      <c r="E310" s="1">
+        <v>45810.393750000003</v>
+      </c>
+      <c r="F310" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.112500000003</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="13"/>
+        <v>20.279166666667152</v>
+      </c>
+      <c r="H310">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>78</v>
+      </c>
+      <c r="B311" s="2">
+        <v>2</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-78</v>
+      </c>
+      <c r="D311" s="1">
+        <v>45809.831250000003</v>
+      </c>
+      <c r="E311" s="1">
+        <v>45810.393750000003</v>
+      </c>
+      <c r="F311" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.112500000003</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="13"/>
+        <v>20.279166666667152</v>
+      </c>
+      <c r="H311">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>78</v>
+      </c>
+      <c r="B312" s="2">
+        <v>3</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-78</v>
+      </c>
+      <c r="D312" s="1">
+        <v>45809.831250000003</v>
+      </c>
+      <c r="E312" s="1">
+        <v>45810.393750000003</v>
+      </c>
+      <c r="F312" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.112500000003</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="13"/>
+        <v>20.269444444449618</v>
+      </c>
+      <c r="H312">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>78</v>
+      </c>
+      <c r="B313" s="2">
+        <v>4</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-78</v>
+      </c>
+      <c r="D313" s="1">
+        <v>45809.831250000003</v>
+      </c>
+      <c r="E313" s="1">
+        <v>45810.393750000003</v>
+      </c>
+      <c r="F313" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.112500000003</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="13"/>
+        <v>20.269444444449618</v>
+      </c>
+      <c r="H313">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>79</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-79</v>
+      </c>
+      <c r="D314" s="1">
+        <v>45810.395138888889</v>
+      </c>
+      <c r="E314" s="1">
+        <v>45810.568749999999</v>
+      </c>
+      <c r="F314" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.481944444444</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="13"/>
+        <v>20.648611111108039</v>
+      </c>
+      <c r="K314">
+        <f>VLOOKUP(sampling!C314,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.61861399999999955</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>79</v>
+      </c>
+      <c r="B315" s="2">
+        <v>2</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-79</v>
+      </c>
+      <c r="D315" s="1">
+        <v>45810.395138888889</v>
+      </c>
+      <c r="E315" s="1">
+        <v>45810.568749999999</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.481944444444</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="13"/>
+        <v>20.648611111108039</v>
+      </c>
+      <c r="K315">
+        <f>VLOOKUP(sampling!C315,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.55177199999999971</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>79</v>
+      </c>
+      <c r="B316" s="2">
+        <v>3</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-79</v>
+      </c>
+      <c r="D316" s="1">
+        <v>45810.395138888889</v>
+      </c>
+      <c r="E316" s="1">
+        <v>45810.568749999999</v>
+      </c>
+      <c r="F316" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.481944444444</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="13"/>
+        <v>20.638888888890506</v>
+      </c>
+      <c r="K316">
+        <f>VLOOKUP(sampling!C316,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-1.7035999999999607E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>79</v>
+      </c>
+      <c r="B317" s="2">
+        <v>4</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-79</v>
+      </c>
+      <c r="D317" s="1">
+        <v>45810.395138888889</v>
+      </c>
+      <c r="E317" s="1">
+        <v>45810.568749999999</v>
+      </c>
+      <c r="F317" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.481944444444</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="13"/>
+        <v>20.638888888890506</v>
+      </c>
+      <c r="K317">
+        <f>VLOOKUP(sampling!C317,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>80</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-80</v>
+      </c>
+      <c r="D318" s="1">
+        <v>45810.570833333331</v>
+      </c>
+      <c r="E318" s="1">
+        <v>45810.604861111111</v>
+      </c>
+      <c r="F318" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.587847222225</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="13"/>
+        <v>20.754513888889051</v>
+      </c>
+      <c r="L318">
+        <f>VLOOKUP(sampling!C318,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>46.012100000000004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>80</v>
+      </c>
+      <c r="B319" s="2">
+        <v>2</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-80</v>
+      </c>
+      <c r="D319" s="1">
+        <v>45810.570833333331</v>
+      </c>
+      <c r="E319" s="1">
+        <v>45810.604861111111</v>
+      </c>
+      <c r="F319" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.587847222225</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="13"/>
+        <v>20.754513888889051</v>
+      </c>
+      <c r="L319">
+        <f>VLOOKUP(sampling!C319,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>71.198000000000008</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>80</v>
+      </c>
+      <c r="B320" s="2">
+        <v>3</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-80</v>
+      </c>
+      <c r="D320" s="1">
+        <v>45810.570833333331</v>
+      </c>
+      <c r="E320" s="1">
+        <v>45810.604861111111</v>
+      </c>
+      <c r="F320" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.587847222225</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="13"/>
+        <v>20.744791666671517</v>
+      </c>
+      <c r="L320">
+        <f>VLOOKUP(sampling!C320,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>37.843700000000013</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>80</v>
+      </c>
+      <c r="B321" s="2">
+        <v>4</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-80</v>
+      </c>
+      <c r="D321" s="1">
+        <v>45810.570833333331</v>
+      </c>
+      <c r="E321" s="1">
+        <v>45810.604861111111</v>
+      </c>
+      <c r="F321" s="1">
+        <f t="shared" si="15"/>
+        <v>45810.587847222225</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="13"/>
+        <v>20.744791666671517</v>
+      </c>
+      <c r="L321">
+        <f>VLOOKUP(sampling!C321,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>25.591100000000008</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>81</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-81</v>
+      </c>
+      <c r="D322" s="1">
+        <v>45811.396527777775</v>
+      </c>
+      <c r="E322" s="1">
+        <v>45811.46597222222</v>
+      </c>
+      <c r="F322" s="1">
+        <f t="shared" si="15"/>
+        <v>45811.431249999994</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="13"/>
+        <v>21.597916666658421</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>81</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-81</v>
+      </c>
+      <c r="D323" s="1">
+        <v>45811.396527777775</v>
+      </c>
+      <c r="E323" s="1">
+        <v>45811.46597222222</v>
+      </c>
+      <c r="F323" s="1">
+        <f t="shared" si="15"/>
+        <v>45811.431249999994</v>
+      </c>
+      <c r="G323">
+        <f t="shared" si="13"/>
+        <v>21.597916666658421</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>81</v>
+      </c>
+      <c r="B324" s="2">
+        <v>3</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-81</v>
+      </c>
+      <c r="D324" s="1">
+        <v>45811.396527777775</v>
+      </c>
+      <c r="E324" s="1">
+        <v>45811.46597222222</v>
+      </c>
+      <c r="F324" s="1">
+        <f t="shared" ref="F324:F329" si="16">(E324-D324)/2+D324</f>
+        <v>45811.431249999994</v>
+      </c>
+      <c r="G324">
+        <f t="shared" ref="G324:G329" si="17" xml:space="preserve"> F324-IF(OR(B324=1,B324=2),$O$2,$O$3)</f>
+        <v>21.588194444440887</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>81</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-81</v>
+      </c>
+      <c r="D325" s="1">
+        <v>45811.396527777775</v>
+      </c>
+      <c r="E325" s="1">
+        <v>45811.46597222222</v>
+      </c>
+      <c r="F325" s="1">
+        <f t="shared" si="16"/>
+        <v>45811.431249999994</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="17"/>
+        <v>21.588194444440887</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>82</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-82</v>
+      </c>
+      <c r="D326" s="1">
+        <v>45811.552777777775</v>
+      </c>
+      <c r="E326" s="1">
+        <v>45811.56527777778</v>
+      </c>
+      <c r="F326" s="1">
+        <f t="shared" si="16"/>
+        <v>45811.559027777781</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="17"/>
+        <v>21.725694444445253</v>
+      </c>
+      <c r="L326">
+        <f>VLOOKUP(sampling!C326,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>32.398099999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>82</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-82</v>
+      </c>
+      <c r="D327" s="1">
+        <v>45811.552777777775</v>
+      </c>
+      <c r="E327" s="1">
+        <v>45811.56527777778</v>
+      </c>
+      <c r="F327" s="1">
+        <f t="shared" si="16"/>
+        <v>45811.559027777781</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="17"/>
+        <v>21.725694444445253</v>
+      </c>
+      <c r="L327">
+        <f>VLOOKUP(sampling!C327,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>29.334950000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>82</v>
+      </c>
+      <c r="B328" s="2">
+        <v>3</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="14"/>
+        <v>F3-82</v>
+      </c>
+      <c r="D328" s="1">
+        <v>45811.552777777775</v>
+      </c>
+      <c r="E328" s="1">
+        <v>45811.56527777778</v>
+      </c>
+      <c r="F328" s="1">
+        <f t="shared" si="16"/>
+        <v>45811.559027777781</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="17"/>
+        <v>21.71597222222772</v>
+      </c>
+      <c r="L328">
+        <f>VLOOKUP(sampling!C328,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>82</v>
+      </c>
+      <c r="B329" s="2">
+        <v>4</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="14"/>
+        <v>F4-82</v>
+      </c>
+      <c r="D329" s="1">
+        <v>45811.552777777775</v>
+      </c>
+      <c r="E329" s="1">
+        <v>45811.56527777778</v>
+      </c>
+      <c r="F329" s="1">
+        <f t="shared" si="16"/>
+        <v>45811.559027777781</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="17"/>
+        <v>21.71597222222772</v>
+      </c>
+      <c r="L329">
+        <f>VLOOKUP(sampling!C329,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <v>19.4648</v>
       </c>
     </row>
   </sheetData>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D587E-AF07-3D42-81DE-489A9611AD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC939C-D5CD-F349-97AA-794737BA0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" firstSheet="1" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="standard_curve_plate_3" sheetId="7" r:id="rId3"/>
     <sheet name="standard_curve_plate 4" sheetId="8" r:id="rId4"/>
     <sheet name="fe_plate_1" sheetId="6" r:id="rId5"/>
-    <sheet name="sampling" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
-    <sheet name="data" sheetId="2" r:id="rId8"/>
+    <sheet name="br_standard_curve" sheetId="10" r:id="rId6"/>
+    <sheet name="sampling" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="data" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Standard</t>
   </si>
@@ -385,6 +386,9 @@
   </si>
   <si>
     <t>SO4-2</t>
+  </si>
+  <si>
+    <t>br</t>
   </si>
 </sst>
 </file>
@@ -2288,6 +2292,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7630470609778428E-3"/>
+                  <c:y val="-0.14354609210826139"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>br_standard_curve!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>br_standard_curve!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-146.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-129.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-87.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-68.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9736-8A4E-8BE4-DDD0F27A4D7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1081534080"/>
+        <c:axId val="1081535808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1081534080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081535808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1081535808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081534080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2409,6 +2780,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4512,6 +4923,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4662,6 +5589,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B16CD2C-59EE-0E54-B566-1181D0149A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9896E0-4FCB-B8A4-4EF0-97CB38DE12E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5869,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F067866-145E-4840-B852-3EC052744DCC}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8170,10 +9138,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40BEACF-0DE4-5246-AC39-8A2F27C18FD3}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8262,14 +9230,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C77" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C101" si="1">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>F1-15</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G77" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
+        <f t="shared" ref="G3:G121" si="2">AVERAGE(D3:E3)*680.7 - 30.907</f>
         <v>3.1280000000000037</v>
       </c>
       <c r="I3">
@@ -9786,6 +10754,842 @@
       <c r="G77">
         <f t="shared" si="2"/>
         <v>19.4648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>85</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-85</v>
+      </c>
+      <c r="D78">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>13.338500000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-88</v>
+      </c>
+      <c r="D79">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>9.2542999999999971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-90</v>
+      </c>
+      <c r="D80">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-93</v>
+      </c>
+      <c r="D81">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>96</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-96</v>
+      </c>
+      <c r="D82">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>99</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-99</v>
+      </c>
+      <c r="D83">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>11.296400000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-102</v>
+      </c>
+      <c r="D84">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>35.801600000000008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>105</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-105</v>
+      </c>
+      <c r="D85">
+        <v>0.09</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>30.356000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-108</v>
+      </c>
+      <c r="D86">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>32.398099999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>111</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-111</v>
+      </c>
+      <c r="D87">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>114</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-114</v>
+      </c>
+      <c r="D88">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>33.078800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-85</v>
+      </c>
+      <c r="D89">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>7.2122000000000064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-88</v>
+      </c>
+      <c r="D90">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>11.977100000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-90</v>
+      </c>
+      <c r="D91">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>28.3139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-93</v>
+      </c>
+      <c r="D92">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-96</v>
+      </c>
+      <c r="D93">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-99</v>
+      </c>
+      <c r="D94">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-102</v>
+      </c>
+      <c r="D95">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>33.078800000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-105</v>
+      </c>
+      <c r="D96">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>35.801600000000008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-108</v>
+      </c>
+      <c r="D97">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>31.0367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>111</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-111</v>
+      </c>
+      <c r="D98">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>35.120900000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>114</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-114</v>
+      </c>
+      <c r="D99">
+        <v>0.109</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>43.289300000000011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>85</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-85</v>
+      </c>
+      <c r="D100">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>10.6157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>88</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-88</v>
+      </c>
+      <c r="D101">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>11.296400000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ref="C102:C121" si="3">_xlfn.CONCAT("F",B102,"-",A102)</f>
+        <v>F3-90</v>
+      </c>
+      <c r="D102">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>14.019200000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>93</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-93</v>
+      </c>
+      <c r="D103">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>36.482300000000009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-96</v>
+      </c>
+      <c r="D104">
+        <v>0.1</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>37.163000000000011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-99</v>
+      </c>
+      <c r="D105">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>16.061300000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-102</v>
+      </c>
+      <c r="D106">
+        <v>0.107</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>41.927900000000008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-105</v>
+      </c>
+      <c r="D107">
+        <v>0.12</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>50.777000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-108</v>
+      </c>
+      <c r="D108">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-111</v>
+      </c>
+      <c r="D109">
+        <v>0.158</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>76.643600000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>F3-114</v>
+      </c>
+      <c r="D110">
+        <v>0.09</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>30.356000000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>85</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-85</v>
+      </c>
+      <c r="D111">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>7.8929000000000009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-88</v>
+      </c>
+      <c r="D112">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>9.2542999999999971</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>90</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-90</v>
+      </c>
+      <c r="D113">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>93</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-93</v>
+      </c>
+      <c r="D114">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>96</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-96</v>
+      </c>
+      <c r="D115">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>21.506900000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>99</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-99</v>
+      </c>
+      <c r="D116">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>102</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-102</v>
+      </c>
+      <c r="D117">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>105</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-105</v>
+      </c>
+      <c r="D118">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>22.187600000000007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>108</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-108</v>
+      </c>
+      <c r="D119">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>21.506900000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>111</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-111</v>
+      </c>
+      <c r="D120">
+        <v>0.08</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>23.549000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>114</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>F4-114</v>
+      </c>
+      <c r="D121">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>22.187600000000007</v>
       </c>
     </row>
   </sheetData>
@@ -9795,11 +11599,78 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B5322D-F179-FD4D-9E1F-BDEBA476BE1B}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>-146.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>-129.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>-68.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
+        <v>-42.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
-  <dimension ref="A1:P329"/>
+  <dimension ref="A1:P465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B308" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K277" sqref="K238:K277"/>
+    <sheetView topLeftCell="A278" zoomScale="110" workbookViewId="0">
+      <selection activeCell="L337" sqref="L330:L337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18377,7 +20248,7 @@
         <v>2</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" ref="C259:C329" si="14">_xlfn.CONCAT("F",B259,"-",A259)</f>
+        <f t="shared" ref="C259:C331" si="14">_xlfn.CONCAT("F",B259,"-",A259)</f>
         <v>F2-65</v>
       </c>
       <c r="D259" s="1">
@@ -20404,11 +22275,11 @@
         <v>45811.46597222222</v>
       </c>
       <c r="F324" s="1">
-        <f t="shared" ref="F324:F329" si="16">(E324-D324)/2+D324</f>
+        <f t="shared" ref="F324:F387" si="16">(E324-D324)/2+D324</f>
         <v>45811.431249999994</v>
       </c>
       <c r="G324">
-        <f t="shared" ref="G324:G329" si="17" xml:space="preserve"> F324-IF(OR(B324=1,B324=2),$O$2,$O$3)</f>
+        <f t="shared" ref="G324:G387" si="17" xml:space="preserve"> F324-IF(OR(B324=1,B324=2),$O$2,$O$3)</f>
         <v>21.588194444440887</v>
       </c>
     </row>
@@ -20554,8 +22425,3720 @@
         <v>21.71597222222772</v>
       </c>
       <c r="L329">
-        <f>VLOOKUP(sampling!C329,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C329,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>19.4648</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>83</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="14"/>
+        <v>F1-83</v>
+      </c>
+      <c r="D330" s="1">
+        <v>45811.775000000001</v>
+      </c>
+      <c r="E330" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="F330" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.077430555553</v>
+      </c>
+      <c r="G330">
+        <f t="shared" si="17"/>
+        <v>22.244097222217533</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>83</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="14"/>
+        <v>F2-83</v>
+      </c>
+      <c r="D331" s="1">
+        <v>45811.775000000001</v>
+      </c>
+      <c r="E331" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="F331" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.077430555553</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="17"/>
+        <v>22.244097222217533</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>83</v>
+      </c>
+      <c r="B332" s="2">
+        <v>3</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" ref="C332:C395" si="18">_xlfn.CONCAT("F",B332,"-",A332)</f>
+        <v>F3-83</v>
+      </c>
+      <c r="D332" s="1">
+        <v>45811.775000000001</v>
+      </c>
+      <c r="E332" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="F332" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.077430555553</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="17"/>
+        <v>22.234375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>83</v>
+      </c>
+      <c r="B333" s="2">
+        <v>4</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-83</v>
+      </c>
+      <c r="D333" s="1">
+        <v>45811.775000000001</v>
+      </c>
+      <c r="E333" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="F333" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.077430555553</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="17"/>
+        <v>22.234375</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>84</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-84</v>
+      </c>
+      <c r="D334" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="E334" s="1">
+        <v>45812.488888888889</v>
+      </c>
+      <c r="F334" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.434374999997</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="17"/>
+        <v>22.601041666661331</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>84</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-84</v>
+      </c>
+      <c r="D335" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="E335" s="1">
+        <v>45812.488888888889</v>
+      </c>
+      <c r="F335" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.434374999997</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="17"/>
+        <v>22.601041666661331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>84</v>
+      </c>
+      <c r="B336" s="2">
+        <v>3</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-84</v>
+      </c>
+      <c r="D336" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="E336" s="1">
+        <v>45812.488888888889</v>
+      </c>
+      <c r="F336" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.434374999997</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="17"/>
+        <v>22.591319444443798</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>84</v>
+      </c>
+      <c r="B337" s="2">
+        <v>4</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-84</v>
+      </c>
+      <c r="D337" s="1">
+        <v>45812.379861111112</v>
+      </c>
+      <c r="E337" s="1">
+        <v>45812.488888888889</v>
+      </c>
+      <c r="F337" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.434374999997</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="17"/>
+        <v>22.591319444443798</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>85</v>
+      </c>
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-85</v>
+      </c>
+      <c r="D338" s="1">
+        <v>45812.545138888891</v>
+      </c>
+      <c r="E338" s="1">
+        <v>45812.59652777778</v>
+      </c>
+      <c r="F338" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.570833333331</v>
+      </c>
+      <c r="G338">
+        <f t="shared" si="17"/>
+        <v>22.737499999995634</v>
+      </c>
+      <c r="L338">
+        <f>VLOOKUP(sampling!C338,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>13.338500000000007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>85</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-85</v>
+      </c>
+      <c r="D339" s="1">
+        <v>45812.545138888891</v>
+      </c>
+      <c r="E339" s="1">
+        <v>45812.59652777778</v>
+      </c>
+      <c r="F339" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.570833333331</v>
+      </c>
+      <c r="G339">
+        <f t="shared" si="17"/>
+        <v>22.737499999995634</v>
+      </c>
+      <c r="L339">
+        <f>VLOOKUP(sampling!C339,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>7.2122000000000064</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>85</v>
+      </c>
+      <c r="B340" s="2">
+        <v>3</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-85</v>
+      </c>
+      <c r="D340" s="1">
+        <v>45812.545138888891</v>
+      </c>
+      <c r="E340" s="1">
+        <v>45812.59652777778</v>
+      </c>
+      <c r="F340" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.570833333331</v>
+      </c>
+      <c r="G340">
+        <f t="shared" si="17"/>
+        <v>22.727777777778101</v>
+      </c>
+      <c r="L340">
+        <f>VLOOKUP(sampling!C340,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>10.6157</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>85</v>
+      </c>
+      <c r="B341" s="2">
+        <v>4</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-85</v>
+      </c>
+      <c r="D341" s="1">
+        <v>45812.545138888891</v>
+      </c>
+      <c r="E341" s="1">
+        <v>45812.59652777778</v>
+      </c>
+      <c r="F341" s="1">
+        <f t="shared" si="16"/>
+        <v>45812.570833333331</v>
+      </c>
+      <c r="G341">
+        <f t="shared" si="17"/>
+        <v>22.727777777778101</v>
+      </c>
+      <c r="L341">
+        <f>VLOOKUP(sampling!C341,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>7.8929000000000009</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>86</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-86</v>
+      </c>
+      <c r="D342" s="1">
+        <v>45812.786805555559</v>
+      </c>
+      <c r="E342" s="1">
+        <v>45813.384027777778</v>
+      </c>
+      <c r="F342" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.085416666669</v>
+      </c>
+      <c r="G342">
+        <f t="shared" si="17"/>
+        <v>23.252083333332848</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>86</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-86</v>
+      </c>
+      <c r="D343" s="1">
+        <v>45812.786805555559</v>
+      </c>
+      <c r="E343" s="1">
+        <v>45813.384027777778</v>
+      </c>
+      <c r="F343" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.085416666669</v>
+      </c>
+      <c r="G343">
+        <f t="shared" si="17"/>
+        <v>23.252083333332848</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>86</v>
+      </c>
+      <c r="B344" s="2">
+        <v>3</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-86</v>
+      </c>
+      <c r="D344" s="1">
+        <v>45812.786805555559</v>
+      </c>
+      <c r="E344" s="1">
+        <v>45813.384027777778</v>
+      </c>
+      <c r="F344" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.085416666669</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="17"/>
+        <v>23.242361111115315</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>86</v>
+      </c>
+      <c r="B345" s="2">
+        <v>4</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-86</v>
+      </c>
+      <c r="D345" s="1">
+        <v>45812.786805555559</v>
+      </c>
+      <c r="E345" s="1">
+        <v>45813.384027777778</v>
+      </c>
+      <c r="F345" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.085416666669</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="17"/>
+        <v>23.242361111115315</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>87</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-87</v>
+      </c>
+      <c r="D346" s="1">
+        <v>45813.386111111111</v>
+      </c>
+      <c r="E346" s="1">
+        <v>45813.482638888891</v>
+      </c>
+      <c r="F346" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.434374999997</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="17"/>
+        <v>23.601041666661331</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>87</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-87</v>
+      </c>
+      <c r="D347" s="1">
+        <v>45813.386111111111</v>
+      </c>
+      <c r="E347" s="1">
+        <v>45813.482638888891</v>
+      </c>
+      <c r="F347" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.434374999997</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="17"/>
+        <v>23.601041666661331</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>87</v>
+      </c>
+      <c r="B348" s="2">
+        <v>3</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-87</v>
+      </c>
+      <c r="D348" s="1">
+        <v>45813.386111111111</v>
+      </c>
+      <c r="E348" s="1">
+        <v>45813.482638888891</v>
+      </c>
+      <c r="F348" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.434374999997</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="17"/>
+        <v>23.591319444443798</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>87</v>
+      </c>
+      <c r="B349" s="2">
+        <v>4</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-87</v>
+      </c>
+      <c r="D349" s="1">
+        <v>45813.386111111111</v>
+      </c>
+      <c r="E349" s="1">
+        <v>45813.482638888891</v>
+      </c>
+      <c r="F349" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.434374999997</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="17"/>
+        <v>23.591319444443798</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>88</v>
+      </c>
+      <c r="B350" s="2">
+        <v>1</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-88</v>
+      </c>
+      <c r="D350" s="1">
+        <v>45813.554861111108</v>
+      </c>
+      <c r="E350" s="1">
+        <v>45813.598611111112</v>
+      </c>
+      <c r="F350" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.576736111107</v>
+      </c>
+      <c r="G350">
+        <f t="shared" si="17"/>
+        <v>23.743402777770825</v>
+      </c>
+      <c r="L350">
+        <f>VLOOKUP(sampling!C350,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>9.2542999999999971</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>88</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-88</v>
+      </c>
+      <c r="D351" s="1">
+        <v>45813.554861111108</v>
+      </c>
+      <c r="E351" s="1">
+        <v>45813.598611111112</v>
+      </c>
+      <c r="F351" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.576736111107</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="17"/>
+        <v>23.743402777770825</v>
+      </c>
+      <c r="L351">
+        <f>VLOOKUP(sampling!C351,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>11.977100000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>88</v>
+      </c>
+      <c r="B352" s="2">
+        <v>3</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-88</v>
+      </c>
+      <c r="D352" s="1">
+        <v>45813.554861111108</v>
+      </c>
+      <c r="E352" s="1">
+        <v>45813.598611111112</v>
+      </c>
+      <c r="F352" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.576736111107</v>
+      </c>
+      <c r="G352">
+        <f t="shared" si="17"/>
+        <v>23.733680555553292</v>
+      </c>
+      <c r="L352">
+        <f>VLOOKUP(sampling!C352,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>11.296400000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>88</v>
+      </c>
+      <c r="B353" s="2">
+        <v>4</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-88</v>
+      </c>
+      <c r="D353" s="1">
+        <v>45813.554861111108</v>
+      </c>
+      <c r="E353" s="1">
+        <v>45813.598611111112</v>
+      </c>
+      <c r="F353" s="1">
+        <f t="shared" si="16"/>
+        <v>45813.576736111107</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="17"/>
+        <v>23.733680555553292</v>
+      </c>
+      <c r="L353">
+        <f>VLOOKUP(sampling!C353,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>9.2542999999999971</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>89</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-89</v>
+      </c>
+      <c r="D354" s="1">
+        <v>45814.371527777781</v>
+      </c>
+      <c r="E354" s="1">
+        <v>45814.54791666667</v>
+      </c>
+      <c r="F354" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.459722222222</v>
+      </c>
+      <c r="G354">
+        <f t="shared" si="17"/>
+        <v>24.62638888888614</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>89</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-89</v>
+      </c>
+      <c r="D355" s="1">
+        <v>45814.371527777781</v>
+      </c>
+      <c r="E355" s="1">
+        <v>45814.54791666667</v>
+      </c>
+      <c r="F355" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.459722222222</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="17"/>
+        <v>24.62638888888614</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>89</v>
+      </c>
+      <c r="B356" s="2">
+        <v>3</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-89</v>
+      </c>
+      <c r="D356" s="1">
+        <v>45814.371527777781</v>
+      </c>
+      <c r="E356" s="1">
+        <v>45814.54791666667</v>
+      </c>
+      <c r="F356" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.459722222222</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="17"/>
+        <v>24.616666666668607</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>89</v>
+      </c>
+      <c r="B357" s="2">
+        <v>4</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-89</v>
+      </c>
+      <c r="D357" s="1">
+        <v>45814.371527777781</v>
+      </c>
+      <c r="E357" s="1">
+        <v>45814.54791666667</v>
+      </c>
+      <c r="F357" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.459722222222</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="17"/>
+        <v>24.616666666668607</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>90</v>
+      </c>
+      <c r="B358" s="2">
+        <v>1</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-90</v>
+      </c>
+      <c r="D358" s="1">
+        <v>45814.548611111109</v>
+      </c>
+      <c r="E358" s="1">
+        <v>45814.59375</v>
+      </c>
+      <c r="F358" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.571180555555</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="17"/>
+        <v>24.737847222218988</v>
+      </c>
+      <c r="L358">
+        <f>VLOOKUP(sampling!C358,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>90</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-90</v>
+      </c>
+      <c r="D359" s="1">
+        <v>45814.548611111109</v>
+      </c>
+      <c r="E359" s="1">
+        <v>45814.59375</v>
+      </c>
+      <c r="F359" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.571180555555</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="17"/>
+        <v>24.737847222218988</v>
+      </c>
+      <c r="L359">
+        <f>VLOOKUP(sampling!C359,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>28.3139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>90</v>
+      </c>
+      <c r="B360" s="2">
+        <v>3</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-90</v>
+      </c>
+      <c r="D360" s="1">
+        <v>45814.548611111109</v>
+      </c>
+      <c r="E360" s="1">
+        <v>45814.59375</v>
+      </c>
+      <c r="F360" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.571180555555</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="17"/>
+        <v>24.728125000001455</v>
+      </c>
+      <c r="L360">
+        <f>VLOOKUP(sampling!C360,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>14.019200000000009</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>90</v>
+      </c>
+      <c r="B361" s="2">
+        <v>4</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-90</v>
+      </c>
+      <c r="D361" s="1">
+        <v>45814.548611111109</v>
+      </c>
+      <c r="E361" s="1">
+        <v>45814.59375</v>
+      </c>
+      <c r="F361" s="1">
+        <f t="shared" si="16"/>
+        <v>45814.571180555555</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="17"/>
+        <v>24.728125000001455</v>
+      </c>
+      <c r="L361">
+        <f>VLOOKUP(sampling!C361,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>91</v>
+      </c>
+      <c r="B362" s="2">
+        <v>1</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-91</v>
+      </c>
+      <c r="D362" s="1">
+        <v>45814.708333333336</v>
+      </c>
+      <c r="E362" s="1">
+        <v>45815.386111111111</v>
+      </c>
+      <c r="F362" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.047222222223</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="17"/>
+        <v>25.213888888887595</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>91</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-91</v>
+      </c>
+      <c r="D363" s="1">
+        <v>45814.708333333336</v>
+      </c>
+      <c r="E363" s="1">
+        <v>45815.386111111111</v>
+      </c>
+      <c r="F363" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.047222222223</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="17"/>
+        <v>25.213888888887595</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>91</v>
+      </c>
+      <c r="B364" s="2">
+        <v>3</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-91</v>
+      </c>
+      <c r="D364" s="1">
+        <v>45814.708333333336</v>
+      </c>
+      <c r="E364" s="1">
+        <v>45815.386111111111</v>
+      </c>
+      <c r="F364" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.047222222223</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="17"/>
+        <v>25.204166666670062</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>91</v>
+      </c>
+      <c r="B365" s="2">
+        <v>4</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-91</v>
+      </c>
+      <c r="D365" s="1">
+        <v>45814.708333333336</v>
+      </c>
+      <c r="E365" s="1">
+        <v>45815.386111111111</v>
+      </c>
+      <c r="F365" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.047222222223</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="17"/>
+        <v>25.204166666670062</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>92</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-92</v>
+      </c>
+      <c r="D366" s="1">
+        <v>45815.386805555558</v>
+      </c>
+      <c r="E366" s="1">
+        <v>45815.509027777778</v>
+      </c>
+      <c r="F366" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.447916666672</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="17"/>
+        <v>25.614583333335759</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>92</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-92</v>
+      </c>
+      <c r="D367" s="1">
+        <v>45815.386805555558</v>
+      </c>
+      <c r="E367" s="1">
+        <v>45815.509027777778</v>
+      </c>
+      <c r="F367" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.447916666672</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="17"/>
+        <v>25.614583333335759</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>92</v>
+      </c>
+      <c r="B368" s="2">
+        <v>3</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-92</v>
+      </c>
+      <c r="D368" s="1">
+        <v>45815.386805555558</v>
+      </c>
+      <c r="E368" s="1">
+        <v>45815.509027777778</v>
+      </c>
+      <c r="F368" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.447916666672</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="17"/>
+        <v>25.604861111118225</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>92</v>
+      </c>
+      <c r="B369" s="2">
+        <v>4</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-92</v>
+      </c>
+      <c r="D369" s="1">
+        <v>45815.386805555558</v>
+      </c>
+      <c r="E369" s="1">
+        <v>45815.509027777778</v>
+      </c>
+      <c r="F369" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.447916666672</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="17"/>
+        <v>25.604861111118225</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>93</v>
+      </c>
+      <c r="B370" s="2">
+        <v>1</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-93</v>
+      </c>
+      <c r="D370" s="1">
+        <v>45815.510416666664</v>
+      </c>
+      <c r="E370" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="F370" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.536458333328</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="17"/>
+        <v>25.703124999992724</v>
+      </c>
+      <c r="L370">
+        <f>VLOOKUP(sampling!C370,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>93</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-93</v>
+      </c>
+      <c r="D371" s="1">
+        <v>45815.510416666664</v>
+      </c>
+      <c r="E371" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="F371" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.536458333328</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="17"/>
+        <v>25.703124999992724</v>
+      </c>
+      <c r="L371">
+        <f>VLOOKUP(sampling!C371,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>93</v>
+      </c>
+      <c r="B372" s="2">
+        <v>3</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-93</v>
+      </c>
+      <c r="D372" s="1">
+        <v>45815.510416666664</v>
+      </c>
+      <c r="E372" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="F372" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.536458333328</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="17"/>
+        <v>25.693402777775191</v>
+      </c>
+      <c r="L372">
+        <f>VLOOKUP(sampling!C372,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>36.482300000000009</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>93</v>
+      </c>
+      <c r="B373" s="2">
+        <v>4</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-93</v>
+      </c>
+      <c r="D373" s="1">
+        <v>45815.510416666664</v>
+      </c>
+      <c r="E373" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="F373" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.536458333328</v>
+      </c>
+      <c r="G373">
+        <f t="shared" si="17"/>
+        <v>25.693402777775191</v>
+      </c>
+      <c r="L373">
+        <f>VLOOKUP(sampling!C373,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>94</v>
+      </c>
+      <c r="B374" s="2">
+        <v>1</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-94</v>
+      </c>
+      <c r="D374" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="E374" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="F374" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.986111111109</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="17"/>
+        <v>26.152777777773736</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>94</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-94</v>
+      </c>
+      <c r="D375" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="E375" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="F375" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.986111111109</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="17"/>
+        <v>26.152777777773736</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>94</v>
+      </c>
+      <c r="B376" s="2">
+        <v>3</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-94</v>
+      </c>
+      <c r="D376" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="E376" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="F376" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.986111111109</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="17"/>
+        <v>26.143055555556202</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>94</v>
+      </c>
+      <c r="B377" s="2">
+        <v>4</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-94</v>
+      </c>
+      <c r="D377" s="1">
+        <v>45815.5625</v>
+      </c>
+      <c r="E377" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="F377" s="1">
+        <f t="shared" si="16"/>
+        <v>45815.986111111109</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="17"/>
+        <v>26.143055555556202</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>95</v>
+      </c>
+      <c r="B378" s="2">
+        <v>1</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-95</v>
+      </c>
+      <c r="D378" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="E378" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="F378" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.476736111108</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="17"/>
+        <v>26.64340277777228</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>95</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-95</v>
+      </c>
+      <c r="D379" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="E379" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="F379" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.476736111108</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="17"/>
+        <v>26.64340277777228</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>95</v>
+      </c>
+      <c r="B380" s="2">
+        <v>3</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-95</v>
+      </c>
+      <c r="D380" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="E380" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="F380" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.476736111108</v>
+      </c>
+      <c r="G380">
+        <f t="shared" si="17"/>
+        <v>26.633680555554747</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>95</v>
+      </c>
+      <c r="B381" s="2">
+        <v>4</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-95</v>
+      </c>
+      <c r="D381" s="1">
+        <v>45816.409722222219</v>
+      </c>
+      <c r="E381" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="F381" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.476736111108</v>
+      </c>
+      <c r="G381">
+        <f t="shared" si="17"/>
+        <v>26.633680555554747</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>96</v>
+      </c>
+      <c r="B382" s="2">
+        <v>1</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-96</v>
+      </c>
+      <c r="D382" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="E382" s="1">
+        <v>45816.585416666669</v>
+      </c>
+      <c r="F382" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.564583333333</v>
+      </c>
+      <c r="G382">
+        <f t="shared" si="17"/>
+        <v>26.73124999999709</v>
+      </c>
+      <c r="L382">
+        <f>VLOOKUP(sampling!C382,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>96</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-96</v>
+      </c>
+      <c r="D383" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="E383" s="1">
+        <v>45816.585416666669</v>
+      </c>
+      <c r="F383" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.564583333333</v>
+      </c>
+      <c r="G383">
+        <f t="shared" si="17"/>
+        <v>26.73124999999709</v>
+      </c>
+      <c r="L383">
+        <f>VLOOKUP(sampling!C383,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>18.103399999999997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>96</v>
+      </c>
+      <c r="B384" s="2">
+        <v>3</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-96</v>
+      </c>
+      <c r="D384" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="E384" s="1">
+        <v>45816.585416666669</v>
+      </c>
+      <c r="F384" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.564583333333</v>
+      </c>
+      <c r="G384">
+        <f t="shared" si="17"/>
+        <v>26.721527777779556</v>
+      </c>
+      <c r="L384">
+        <f>VLOOKUP(sampling!C384,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>37.163000000000011</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>96</v>
+      </c>
+      <c r="B385" s="2">
+        <v>4</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-96</v>
+      </c>
+      <c r="D385" s="1">
+        <v>45816.543749999997</v>
+      </c>
+      <c r="E385" s="1">
+        <v>45816.585416666669</v>
+      </c>
+      <c r="F385" s="1">
+        <f t="shared" si="16"/>
+        <v>45816.564583333333</v>
+      </c>
+      <c r="G385">
+        <f t="shared" si="17"/>
+        <v>26.721527777779556</v>
+      </c>
+      <c r="L385">
+        <f>VLOOKUP(sampling!C385,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>21.506900000000005</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>97</v>
+      </c>
+      <c r="B386" s="2">
+        <v>1</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-97</v>
+      </c>
+      <c r="D386" s="1">
+        <v>45816.590277777781</v>
+      </c>
+      <c r="E386" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="F386" s="1">
+        <f t="shared" si="16"/>
+        <v>45817.013888888891</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="17"/>
+        <v>27.180555555554747</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>97</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-97</v>
+      </c>
+      <c r="D387" s="1">
+        <v>45816.590277777781</v>
+      </c>
+      <c r="E387" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="F387" s="1">
+        <f t="shared" si="16"/>
+        <v>45817.013888888891</v>
+      </c>
+      <c r="G387">
+        <f t="shared" si="17"/>
+        <v>27.180555555554747</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>97</v>
+      </c>
+      <c r="B388" s="2">
+        <v>3</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-97</v>
+      </c>
+      <c r="D388" s="1">
+        <v>45816.590277777781</v>
+      </c>
+      <c r="E388" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="F388" s="1">
+        <f t="shared" ref="F388:F451" si="19">(E388-D388)/2+D388</f>
+        <v>45817.013888888891</v>
+      </c>
+      <c r="G388">
+        <f t="shared" ref="G388:G451" si="20" xml:space="preserve"> F388-IF(OR(B388=1,B388=2),$O$2,$O$3)</f>
+        <v>27.170833333337214</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>97</v>
+      </c>
+      <c r="B389" s="2">
+        <v>4</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-97</v>
+      </c>
+      <c r="D389" s="1">
+        <v>45816.590277777781</v>
+      </c>
+      <c r="E389" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="F389" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.013888888891</v>
+      </c>
+      <c r="G389">
+        <f t="shared" si="20"/>
+        <v>27.170833333337214</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>98</v>
+      </c>
+      <c r="B390" s="2">
+        <v>1</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-98</v>
+      </c>
+      <c r="D390" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="E390" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="F390" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.505208333328</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="20"/>
+        <v>27.671874999992724</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>98</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-98</v>
+      </c>
+      <c r="D391" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="E391" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="F391" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.505208333328</v>
+      </c>
+      <c r="G391">
+        <f t="shared" si="20"/>
+        <v>27.671874999992724</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>98</v>
+      </c>
+      <c r="B392" s="2">
+        <v>3</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="18"/>
+        <v>F3-98</v>
+      </c>
+      <c r="D392" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="E392" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="F392" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.505208333328</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="20"/>
+        <v>27.662152777775191</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>98</v>
+      </c>
+      <c r="B393" s="2">
+        <v>4</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="18"/>
+        <v>F4-98</v>
+      </c>
+      <c r="D393" s="1">
+        <v>45817.4375</v>
+      </c>
+      <c r="E393" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="F393" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.505208333328</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="20"/>
+        <v>27.662152777775191</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>99</v>
+      </c>
+      <c r="B394" s="2">
+        <v>1</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="18"/>
+        <v>F1-99</v>
+      </c>
+      <c r="D394" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="E394" s="1">
+        <v>45817.614583333336</v>
+      </c>
+      <c r="F394" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.59375</v>
+      </c>
+      <c r="G394">
+        <f t="shared" si="20"/>
+        <v>27.760416666664241</v>
+      </c>
+      <c r="L394">
+        <f>VLOOKUP(sampling!C394,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>11.296400000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>99</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="18"/>
+        <v>F2-99</v>
+      </c>
+      <c r="D395" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="E395" s="1">
+        <v>45817.614583333336</v>
+      </c>
+      <c r="F395" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.59375</v>
+      </c>
+      <c r="G395">
+        <f t="shared" si="20"/>
+        <v>27.760416666664241</v>
+      </c>
+      <c r="L395">
+        <f>VLOOKUP(sampling!C395,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>99</v>
+      </c>
+      <c r="B396" s="2">
+        <v>3</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" ref="C396:C459" si="21">_xlfn.CONCAT("F",B396,"-",A396)</f>
+        <v>F3-99</v>
+      </c>
+      <c r="D396" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="E396" s="1">
+        <v>45817.614583333336</v>
+      </c>
+      <c r="F396" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.59375</v>
+      </c>
+      <c r="G396">
+        <f t="shared" si="20"/>
+        <v>27.750694444446708</v>
+      </c>
+      <c r="L396">
+        <f>VLOOKUP(sampling!C396,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>16.061300000000006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>99</v>
+      </c>
+      <c r="B397" s="2">
+        <v>4</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-99</v>
+      </c>
+      <c r="D397" s="1">
+        <v>45817.572916666664</v>
+      </c>
+      <c r="E397" s="1">
+        <v>45817.614583333336</v>
+      </c>
+      <c r="F397" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.59375</v>
+      </c>
+      <c r="G397">
+        <f t="shared" si="20"/>
+        <v>27.750694444446708</v>
+      </c>
+      <c r="L397">
+        <f>VLOOKUP(sampling!C397,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>100</v>
+      </c>
+      <c r="B398" s="2">
+        <v>1</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-100</v>
+      </c>
+      <c r="D398" s="1">
+        <v>45817.625</v>
+      </c>
+      <c r="E398" s="1">
+        <v>45818.340277777781</v>
+      </c>
+      <c r="F398" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.982638888891</v>
+      </c>
+      <c r="G398">
+        <f t="shared" si="20"/>
+        <v>28.149305555554747</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>100</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-100</v>
+      </c>
+      <c r="D399" s="1">
+        <v>45817.625</v>
+      </c>
+      <c r="E399" s="1">
+        <v>45818.340277777781</v>
+      </c>
+      <c r="F399" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.982638888891</v>
+      </c>
+      <c r="G399">
+        <f t="shared" si="20"/>
+        <v>28.149305555554747</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>100</v>
+      </c>
+      <c r="B400" s="2">
+        <v>3</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-100</v>
+      </c>
+      <c r="D400" s="1">
+        <v>45817.625</v>
+      </c>
+      <c r="E400" s="1">
+        <v>45818.340277777781</v>
+      </c>
+      <c r="F400" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.982638888891</v>
+      </c>
+      <c r="G400">
+        <f t="shared" si="20"/>
+        <v>28.139583333337214</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>100</v>
+      </c>
+      <c r="B401" s="2">
+        <v>4</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-100</v>
+      </c>
+      <c r="D401" s="1">
+        <v>45817.625</v>
+      </c>
+      <c r="E401" s="1">
+        <v>45818.340277777781</v>
+      </c>
+      <c r="F401" s="1">
+        <f t="shared" si="19"/>
+        <v>45817.982638888891</v>
+      </c>
+      <c r="G401">
+        <f t="shared" si="20"/>
+        <v>28.139583333337214</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>101</v>
+      </c>
+      <c r="B402" s="2">
+        <v>1</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-101</v>
+      </c>
+      <c r="D402" s="1">
+        <v>45818.395833333336</v>
+      </c>
+      <c r="E402" s="1">
+        <v>45818.59375</v>
+      </c>
+      <c r="F402" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.494791666672</v>
+      </c>
+      <c r="G402">
+        <f t="shared" si="20"/>
+        <v>28.661458333335759</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>101</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-101</v>
+      </c>
+      <c r="D403" s="1">
+        <v>45818.395833333336</v>
+      </c>
+      <c r="E403" s="1">
+        <v>45818.59375</v>
+      </c>
+      <c r="F403" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.494791666672</v>
+      </c>
+      <c r="G403">
+        <f t="shared" si="20"/>
+        <v>28.661458333335759</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>101</v>
+      </c>
+      <c r="B404" s="2">
+        <v>3</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-101</v>
+      </c>
+      <c r="D404" s="1">
+        <v>45818.395833333336</v>
+      </c>
+      <c r="E404" s="1">
+        <v>45818.59375</v>
+      </c>
+      <c r="F404" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.494791666672</v>
+      </c>
+      <c r="G404">
+        <f t="shared" si="20"/>
+        <v>28.651736111118225</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>101</v>
+      </c>
+      <c r="B405" s="2">
+        <v>4</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-101</v>
+      </c>
+      <c r="D405" s="1">
+        <v>45818.395833333336</v>
+      </c>
+      <c r="E405" s="1">
+        <v>45818.59375</v>
+      </c>
+      <c r="F405" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.494791666672</v>
+      </c>
+      <c r="G405">
+        <f t="shared" si="20"/>
+        <v>28.651736111118225</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>102</v>
+      </c>
+      <c r="B406" s="2">
+        <v>1</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-102</v>
+      </c>
+      <c r="D406" s="1">
+        <v>45818.595833333333</v>
+      </c>
+      <c r="E406" s="3">
+        <v>45818.63958333333</v>
+      </c>
+      <c r="F406" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.617708333331</v>
+      </c>
+      <c r="G406">
+        <f t="shared" si="20"/>
+        <v>28.784374999995634</v>
+      </c>
+      <c r="L406">
+        <f>VLOOKUP(sampling!C406,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>35.801600000000008</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>102</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-102</v>
+      </c>
+      <c r="D407" s="1">
+        <v>45818.595833333333</v>
+      </c>
+      <c r="E407" s="3">
+        <v>45818.63958333333</v>
+      </c>
+      <c r="F407" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.617708333331</v>
+      </c>
+      <c r="G407">
+        <f t="shared" si="20"/>
+        <v>28.784374999995634</v>
+      </c>
+      <c r="L407">
+        <f>VLOOKUP(sampling!C407,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>33.078800000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>102</v>
+      </c>
+      <c r="B408" s="2">
+        <v>3</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-102</v>
+      </c>
+      <c r="D408" s="1">
+        <v>45818.595833333333</v>
+      </c>
+      <c r="E408" s="3">
+        <v>45818.63958333333</v>
+      </c>
+      <c r="F408" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.617708333331</v>
+      </c>
+      <c r="G408">
+        <f t="shared" si="20"/>
+        <v>28.774652777778101</v>
+      </c>
+      <c r="L408">
+        <f>VLOOKUP(sampling!C408,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>41.927900000000008</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>102</v>
+      </c>
+      <c r="B409" s="2">
+        <v>4</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-102</v>
+      </c>
+      <c r="D409" s="1">
+        <v>45818.595833333333</v>
+      </c>
+      <c r="E409" s="3">
+        <v>45818.63958333333</v>
+      </c>
+      <c r="F409" s="1">
+        <f t="shared" si="19"/>
+        <v>45818.617708333331</v>
+      </c>
+      <c r="G409">
+        <f t="shared" si="20"/>
+        <v>28.774652777778101</v>
+      </c>
+      <c r="L409">
+        <f>VLOOKUP(sampling!C409,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>19.4648</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>103</v>
+      </c>
+      <c r="B410" s="2">
+        <v>1</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-103</v>
+      </c>
+      <c r="D410" s="1">
+        <v>45818.709027777775</v>
+      </c>
+      <c r="E410" s="3">
+        <v>45819.404166666667</v>
+      </c>
+      <c r="F410" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.056597222225</v>
+      </c>
+      <c r="G410">
+        <f t="shared" si="20"/>
+        <v>29.223263888889051</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>103</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-103</v>
+      </c>
+      <c r="D411" s="1">
+        <v>45818.709027777775</v>
+      </c>
+      <c r="E411" s="3">
+        <v>45819.404166666667</v>
+      </c>
+      <c r="F411" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.056597222225</v>
+      </c>
+      <c r="G411">
+        <f t="shared" si="20"/>
+        <v>29.223263888889051</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>103</v>
+      </c>
+      <c r="B412" s="2">
+        <v>3</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-103</v>
+      </c>
+      <c r="D412" s="1">
+        <v>45818.709027777775</v>
+      </c>
+      <c r="E412" s="3">
+        <v>45819.404166666667</v>
+      </c>
+      <c r="F412" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.056597222225</v>
+      </c>
+      <c r="G412">
+        <f t="shared" si="20"/>
+        <v>29.213541666671517</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>103</v>
+      </c>
+      <c r="B413" s="2">
+        <v>4</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-103</v>
+      </c>
+      <c r="D413" s="1">
+        <v>45818.709027777775</v>
+      </c>
+      <c r="E413" s="3">
+        <v>45819.404166666667</v>
+      </c>
+      <c r="F413" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.056597222225</v>
+      </c>
+      <c r="G413">
+        <f t="shared" si="20"/>
+        <v>29.213541666671517</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>104</v>
+      </c>
+      <c r="B414" s="2">
+        <v>1</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-104</v>
+      </c>
+      <c r="D414" s="3">
+        <v>45819.406944444447</v>
+      </c>
+      <c r="E414" s="1">
+        <v>45819.534722222219</v>
+      </c>
+      <c r="F414" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.470833333333</v>
+      </c>
+      <c r="G414">
+        <f t="shared" si="20"/>
+        <v>29.63749999999709</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>104</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-104</v>
+      </c>
+      <c r="D415" s="3">
+        <v>45819.406944444447</v>
+      </c>
+      <c r="E415" s="1">
+        <v>45819.534722222219</v>
+      </c>
+      <c r="F415" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.470833333333</v>
+      </c>
+      <c r="G415">
+        <f t="shared" si="20"/>
+        <v>29.63749999999709</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>104</v>
+      </c>
+      <c r="B416" s="2">
+        <v>3</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-104</v>
+      </c>
+      <c r="D416" s="3">
+        <v>45819.406944444447</v>
+      </c>
+      <c r="E416" s="1">
+        <v>45819.534722222219</v>
+      </c>
+      <c r="F416" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.470833333333</v>
+      </c>
+      <c r="G416">
+        <f t="shared" si="20"/>
+        <v>29.627777777779556</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>104</v>
+      </c>
+      <c r="B417" s="2">
+        <v>4</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-104</v>
+      </c>
+      <c r="D417" s="3">
+        <v>45819.406944444447</v>
+      </c>
+      <c r="E417" s="1">
+        <v>45819.534722222219</v>
+      </c>
+      <c r="F417" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.470833333333</v>
+      </c>
+      <c r="G417">
+        <f t="shared" si="20"/>
+        <v>29.627777777779556</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>105</v>
+      </c>
+      <c r="B418" s="2">
+        <v>1</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-105</v>
+      </c>
+      <c r="D418" s="1">
+        <v>45819.536805555559</v>
+      </c>
+      <c r="E418" s="1">
+        <v>45819.575694444444</v>
+      </c>
+      <c r="F418" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.556250000001</v>
+      </c>
+      <c r="G418">
+        <f t="shared" si="20"/>
+        <v>29.722916666665697</v>
+      </c>
+      <c r="L418">
+        <f>VLOOKUP(sampling!C418,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>30.356000000000005</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>105</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-105</v>
+      </c>
+      <c r="D419" s="1">
+        <v>45819.536805555559</v>
+      </c>
+      <c r="E419" s="1">
+        <v>45819.575694444444</v>
+      </c>
+      <c r="F419" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.556250000001</v>
+      </c>
+      <c r="G419">
+        <f t="shared" si="20"/>
+        <v>29.722916666665697</v>
+      </c>
+      <c r="L419">
+        <f>VLOOKUP(sampling!C419,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>35.801600000000008</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>105</v>
+      </c>
+      <c r="B420" s="2">
+        <v>3</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-105</v>
+      </c>
+      <c r="D420" s="1">
+        <v>45819.536805555559</v>
+      </c>
+      <c r="E420" s="1">
+        <v>45819.575694444444</v>
+      </c>
+      <c r="F420" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.556250000001</v>
+      </c>
+      <c r="G420">
+        <f t="shared" si="20"/>
+        <v>29.713194444448163</v>
+      </c>
+      <c r="L420">
+        <f>VLOOKUP(sampling!C420,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>50.777000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>105</v>
+      </c>
+      <c r="B421" s="2">
+        <v>4</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-105</v>
+      </c>
+      <c r="D421" s="1">
+        <v>45819.536805555559</v>
+      </c>
+      <c r="E421" s="1">
+        <v>45819.575694444444</v>
+      </c>
+      <c r="F421" s="1">
+        <f t="shared" si="19"/>
+        <v>45819.556250000001</v>
+      </c>
+      <c r="G421">
+        <f t="shared" si="20"/>
+        <v>29.713194444448163</v>
+      </c>
+      <c r="L421">
+        <f>VLOOKUP(sampling!C421,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>22.187600000000007</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>106</v>
+      </c>
+      <c r="B422" s="2">
+        <v>1</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-106</v>
+      </c>
+      <c r="D422" s="1">
+        <v>45819.752083333333</v>
+      </c>
+      <c r="E422" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="F422" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.047916666663</v>
+      </c>
+      <c r="G422">
+        <f t="shared" si="20"/>
+        <v>30.214583333327028</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>106</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-106</v>
+      </c>
+      <c r="D423" s="1">
+        <v>45819.752083333333</v>
+      </c>
+      <c r="E423" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="F423" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.047916666663</v>
+      </c>
+      <c r="G423">
+        <f t="shared" si="20"/>
+        <v>30.214583333327028</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>106</v>
+      </c>
+      <c r="B424" s="2">
+        <v>3</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-106</v>
+      </c>
+      <c r="D424" s="1">
+        <v>45819.752083333333</v>
+      </c>
+      <c r="E424" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="F424" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.047916666663</v>
+      </c>
+      <c r="G424">
+        <f t="shared" si="20"/>
+        <v>30.204861111109494</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>106</v>
+      </c>
+      <c r="B425" s="2">
+        <v>4</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-106</v>
+      </c>
+      <c r="D425" s="1">
+        <v>45819.752083333333</v>
+      </c>
+      <c r="E425" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="F425" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.047916666663</v>
+      </c>
+      <c r="G425">
+        <f t="shared" si="20"/>
+        <v>30.204861111109494</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>107</v>
+      </c>
+      <c r="B426" s="2">
+        <v>1</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-107</v>
+      </c>
+      <c r="D426" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="E426" s="1">
+        <v>45820.449305555558</v>
+      </c>
+      <c r="F426" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.396527777775</v>
+      </c>
+      <c r="G426">
+        <f t="shared" si="20"/>
+        <v>30.563194444439432</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>107</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-107</v>
+      </c>
+      <c r="D427" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="E427" s="1">
+        <v>45820.449305555558</v>
+      </c>
+      <c r="F427" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.396527777775</v>
+      </c>
+      <c r="G427">
+        <f t="shared" si="20"/>
+        <v>30.563194444439432</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>107</v>
+      </c>
+      <c r="B428" s="2">
+        <v>3</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-107</v>
+      </c>
+      <c r="D428" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="E428" s="1">
+        <v>45820.449305555558</v>
+      </c>
+      <c r="F428" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.396527777775</v>
+      </c>
+      <c r="G428">
+        <f t="shared" si="20"/>
+        <v>30.553472222221899</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>107</v>
+      </c>
+      <c r="B429" s="2">
+        <v>4</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-107</v>
+      </c>
+      <c r="D429" s="1">
+        <v>45820.34375</v>
+      </c>
+      <c r="E429" s="1">
+        <v>45820.449305555558</v>
+      </c>
+      <c r="F429" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.396527777775</v>
+      </c>
+      <c r="G429">
+        <f t="shared" si="20"/>
+        <v>30.553472222221899</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>108</v>
+      </c>
+      <c r="B430" s="2">
+        <v>1</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-108</v>
+      </c>
+      <c r="D430" s="1">
+        <v>45820.493055555555</v>
+      </c>
+      <c r="E430" s="1">
+        <v>45820.567361111112</v>
+      </c>
+      <c r="F430" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.530208333337</v>
+      </c>
+      <c r="G430">
+        <f t="shared" si="20"/>
+        <v>30.696875000001455</v>
+      </c>
+      <c r="L430">
+        <f>VLOOKUP(sampling!C430,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>32.398099999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>108</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-108</v>
+      </c>
+      <c r="D431" s="1">
+        <v>45820.493055555555</v>
+      </c>
+      <c r="E431" s="1">
+        <v>45820.567361111112</v>
+      </c>
+      <c r="F431" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.530208333337</v>
+      </c>
+      <c r="G431">
+        <f t="shared" si="20"/>
+        <v>30.696875000001455</v>
+      </c>
+      <c r="L431">
+        <f>VLOOKUP(sampling!C431,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>31.0367</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>108</v>
+      </c>
+      <c r="B432" s="2">
+        <v>3</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-108</v>
+      </c>
+      <c r="D432" s="1">
+        <v>45820.493055555555</v>
+      </c>
+      <c r="E432" s="1">
+        <v>45820.567361111112</v>
+      </c>
+      <c r="F432" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.530208333337</v>
+      </c>
+      <c r="G432">
+        <f t="shared" si="20"/>
+        <v>30.687152777783922</v>
+      </c>
+      <c r="L432">
+        <f>VLOOKUP(sampling!C432,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>26.27180000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>108</v>
+      </c>
+      <c r="B433" s="2">
+        <v>4</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-108</v>
+      </c>
+      <c r="D433" s="1">
+        <v>45820.493055555555</v>
+      </c>
+      <c r="E433" s="1">
+        <v>45820.567361111112</v>
+      </c>
+      <c r="F433" s="1">
+        <f t="shared" si="19"/>
+        <v>45820.530208333337</v>
+      </c>
+      <c r="G433">
+        <f t="shared" si="20"/>
+        <v>30.687152777783922</v>
+      </c>
+      <c r="L433">
+        <f>VLOOKUP(sampling!C433,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>21.506900000000005</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>109</v>
+      </c>
+      <c r="B434" s="2">
+        <v>1</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-109</v>
+      </c>
+      <c r="D434" s="1">
+        <v>45820.704861111109</v>
+      </c>
+      <c r="E434" s="1">
+        <v>45821.340277777781</v>
+      </c>
+      <c r="F434" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.022569444445</v>
+      </c>
+      <c r="G434">
+        <f t="shared" si="20"/>
+        <v>31.189236111109494</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>109</v>
+      </c>
+      <c r="B435" s="2">
+        <v>2</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-109</v>
+      </c>
+      <c r="D435" s="1">
+        <v>45820.704861111109</v>
+      </c>
+      <c r="E435" s="1">
+        <v>45821.340277777781</v>
+      </c>
+      <c r="F435" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.022569444445</v>
+      </c>
+      <c r="G435">
+        <f t="shared" si="20"/>
+        <v>31.189236111109494</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>109</v>
+      </c>
+      <c r="B436" s="2">
+        <v>3</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-109</v>
+      </c>
+      <c r="D436" s="1">
+        <v>45820.704861111109</v>
+      </c>
+      <c r="E436" s="1">
+        <v>45821.340277777781</v>
+      </c>
+      <c r="F436" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.022569444445</v>
+      </c>
+      <c r="G436">
+        <f t="shared" si="20"/>
+        <v>31.179513888891961</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>109</v>
+      </c>
+      <c r="B437" s="2">
+        <v>4</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-109</v>
+      </c>
+      <c r="D437" s="1">
+        <v>45820.704861111109</v>
+      </c>
+      <c r="E437" s="1">
+        <v>45821.340277777781</v>
+      </c>
+      <c r="F437" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.022569444445</v>
+      </c>
+      <c r="G437">
+        <f t="shared" si="20"/>
+        <v>31.179513888891961</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>110</v>
+      </c>
+      <c r="B438" s="2">
+        <v>1</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-110</v>
+      </c>
+      <c r="D438" s="1">
+        <v>45821.342361111114</v>
+      </c>
+      <c r="E438" s="3">
+        <v>45821.50277777778</v>
+      </c>
+      <c r="F438" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.422569444447</v>
+      </c>
+      <c r="G438">
+        <f t="shared" si="20"/>
+        <v>31.589236111110949</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>110</v>
+      </c>
+      <c r="B439" s="2">
+        <v>2</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-110</v>
+      </c>
+      <c r="D439" s="1">
+        <v>45821.342361111114</v>
+      </c>
+      <c r="E439" s="3">
+        <v>45821.50277777778</v>
+      </c>
+      <c r="F439" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.422569444447</v>
+      </c>
+      <c r="G439">
+        <f t="shared" si="20"/>
+        <v>31.589236111110949</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>110</v>
+      </c>
+      <c r="B440" s="2">
+        <v>3</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-110</v>
+      </c>
+      <c r="D440" s="1">
+        <v>45821.342361111114</v>
+      </c>
+      <c r="E440" s="3">
+        <v>45821.50277777778</v>
+      </c>
+      <c r="F440" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.422569444447</v>
+      </c>
+      <c r="G440">
+        <f t="shared" si="20"/>
+        <v>31.579513888893416</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>110</v>
+      </c>
+      <c r="B441" s="2">
+        <v>4</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-110</v>
+      </c>
+      <c r="D441" s="1">
+        <v>45821.342361111114</v>
+      </c>
+      <c r="E441" s="3">
+        <v>45821.50277777778</v>
+      </c>
+      <c r="F441" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.422569444447</v>
+      </c>
+      <c r="G441">
+        <f t="shared" si="20"/>
+        <v>31.579513888893416</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>111</v>
+      </c>
+      <c r="B442" s="2">
+        <v>1</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-111</v>
+      </c>
+      <c r="D442" s="3">
+        <v>45821.504861111112</v>
+      </c>
+      <c r="E442" s="3">
+        <v>45821.55</v>
+      </c>
+      <c r="F442" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.527430555558</v>
+      </c>
+      <c r="G442">
+        <f t="shared" si="20"/>
+        <v>31.694097222221899</v>
+      </c>
+      <c r="L442">
+        <f>VLOOKUP(sampling!C442,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>31.717400000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>111</v>
+      </c>
+      <c r="B443" s="2">
+        <v>2</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-111</v>
+      </c>
+      <c r="D443" s="3">
+        <v>45821.504861111112</v>
+      </c>
+      <c r="E443" s="3">
+        <v>45821.55</v>
+      </c>
+      <c r="F443" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.527430555558</v>
+      </c>
+      <c r="G443">
+        <f t="shared" si="20"/>
+        <v>31.694097222221899</v>
+      </c>
+      <c r="L443">
+        <f>VLOOKUP(sampling!C443,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>35.120900000000006</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>111</v>
+      </c>
+      <c r="B444" s="2">
+        <v>3</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-111</v>
+      </c>
+      <c r="D444" s="3">
+        <v>45821.504861111112</v>
+      </c>
+      <c r="E444" s="3">
+        <v>45821.55</v>
+      </c>
+      <c r="F444" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.527430555558</v>
+      </c>
+      <c r="G444">
+        <f t="shared" si="20"/>
+        <v>31.684375000004366</v>
+      </c>
+      <c r="L444">
+        <f>VLOOKUP(sampling!C444,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>76.643600000000006</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>111</v>
+      </c>
+      <c r="B445" s="2">
+        <v>4</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-111</v>
+      </c>
+      <c r="D445" s="3">
+        <v>45821.504861111112</v>
+      </c>
+      <c r="E445" s="3">
+        <v>45821.55</v>
+      </c>
+      <c r="F445" s="1">
+        <f t="shared" si="19"/>
+        <v>45821.527430555558</v>
+      </c>
+      <c r="G445">
+        <f t="shared" si="20"/>
+        <v>31.684375000004366</v>
+      </c>
+      <c r="L445">
+        <f>VLOOKUP(sampling!C445,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>23.549000000000003</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>112</v>
+      </c>
+      <c r="B446" s="2">
+        <v>1</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-112</v>
+      </c>
+      <c r="D446" s="3">
+        <v>45821.659722222219</v>
+      </c>
+      <c r="E446" s="3">
+        <v>45822.46875</v>
+      </c>
+      <c r="F446" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.064236111109</v>
+      </c>
+      <c r="G446">
+        <f t="shared" si="20"/>
+        <v>32.230902777773736</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>112</v>
+      </c>
+      <c r="B447" s="2">
+        <v>2</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-112</v>
+      </c>
+      <c r="D447" s="3">
+        <v>45821.659722222219</v>
+      </c>
+      <c r="E447" s="3">
+        <v>45822.46875</v>
+      </c>
+      <c r="F447" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.064236111109</v>
+      </c>
+      <c r="G447">
+        <f t="shared" si="20"/>
+        <v>32.230902777773736</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>112</v>
+      </c>
+      <c r="B448" s="2">
+        <v>3</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-112</v>
+      </c>
+      <c r="D448" s="3">
+        <v>45821.659722222219</v>
+      </c>
+      <c r="E448" s="3">
+        <v>45822.46875</v>
+      </c>
+      <c r="F448" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.064236111109</v>
+      </c>
+      <c r="G448">
+        <f t="shared" si="20"/>
+        <v>32.221180555556202</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>112</v>
+      </c>
+      <c r="B449" s="2">
+        <v>4</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-112</v>
+      </c>
+      <c r="D449" s="3">
+        <v>45821.659722222219</v>
+      </c>
+      <c r="E449" s="3">
+        <v>45822.46875</v>
+      </c>
+      <c r="F449" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.064236111109</v>
+      </c>
+      <c r="G449">
+        <f t="shared" si="20"/>
+        <v>32.221180555556202</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>113</v>
+      </c>
+      <c r="B450" s="2">
+        <v>1</v>
+      </c>
+      <c r="C450" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-113</v>
+      </c>
+      <c r="D450" s="3">
+        <v>45822.470833333333</v>
+      </c>
+      <c r="E450" s="3">
+        <v>45822.614583333336</v>
+      </c>
+      <c r="F450" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.542708333334</v>
+      </c>
+      <c r="G450">
+        <f t="shared" si="20"/>
+        <v>32.709374999998545</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>113</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2</v>
+      </c>
+      <c r="C451" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-113</v>
+      </c>
+      <c r="D451" s="3">
+        <v>45822.470833333333</v>
+      </c>
+      <c r="E451" s="3">
+        <v>45822.614583333336</v>
+      </c>
+      <c r="F451" s="1">
+        <f t="shared" si="19"/>
+        <v>45822.542708333334</v>
+      </c>
+      <c r="G451">
+        <f t="shared" si="20"/>
+        <v>32.709374999998545</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>113</v>
+      </c>
+      <c r="B452" s="2">
+        <v>3</v>
+      </c>
+      <c r="C452" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-113</v>
+      </c>
+      <c r="D452" s="3">
+        <v>45822.470833333333</v>
+      </c>
+      <c r="E452" s="3">
+        <v>45822.614583333336</v>
+      </c>
+      <c r="F452" s="1">
+        <f t="shared" ref="F452:F465" si="22">(E452-D452)/2+D452</f>
+        <v>45822.542708333334</v>
+      </c>
+      <c r="G452">
+        <f t="shared" ref="G452:G465" si="23" xml:space="preserve"> F452-IF(OR(B452=1,B452=2),$O$2,$O$3)</f>
+        <v>32.699652777781012</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>113</v>
+      </c>
+      <c r="B453" s="2">
+        <v>4</v>
+      </c>
+      <c r="C453" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-113</v>
+      </c>
+      <c r="D453" s="3">
+        <v>45822.470833333333</v>
+      </c>
+      <c r="E453" s="3">
+        <v>45822.614583333336</v>
+      </c>
+      <c r="F453" s="1">
+        <f t="shared" si="22"/>
+        <v>45822.542708333334</v>
+      </c>
+      <c r="G453">
+        <f t="shared" si="23"/>
+        <v>32.699652777781012</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>114</v>
+      </c>
+      <c r="B454" s="2">
+        <v>1</v>
+      </c>
+      <c r="C454" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-114</v>
+      </c>
+      <c r="D454" s="3">
+        <v>45822.616666666669</v>
+      </c>
+      <c r="E454" s="3">
+        <v>45822.661805555559</v>
+      </c>
+      <c r="F454" s="1">
+        <f t="shared" si="22"/>
+        <v>45822.639236111114</v>
+      </c>
+      <c r="G454">
+        <f t="shared" si="23"/>
+        <v>32.805902777778101</v>
+      </c>
+      <c r="L454">
+        <f>VLOOKUP(sampling!C454,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>33.078800000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>114</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2</v>
+      </c>
+      <c r="C455" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-114</v>
+      </c>
+      <c r="D455" s="3">
+        <v>45822.616666666669</v>
+      </c>
+      <c r="E455" s="3">
+        <v>45822.661805555559</v>
+      </c>
+      <c r="F455" s="1">
+        <f t="shared" si="22"/>
+        <v>45822.639236111114</v>
+      </c>
+      <c r="G455">
+        <f t="shared" si="23"/>
+        <v>32.805902777778101</v>
+      </c>
+      <c r="L455">
+        <f>VLOOKUP(sampling!C455,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>43.289300000000011</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>114</v>
+      </c>
+      <c r="B456" s="2">
+        <v>3</v>
+      </c>
+      <c r="C456" t="str">
+        <f t="shared" si="21"/>
+        <v>F3-114</v>
+      </c>
+      <c r="D456" s="3">
+        <v>45822.616666666669</v>
+      </c>
+      <c r="E456" s="3">
+        <v>45822.661805555559</v>
+      </c>
+      <c r="F456" s="1">
+        <f t="shared" si="22"/>
+        <v>45822.639236111114</v>
+      </c>
+      <c r="G456">
+        <f t="shared" si="23"/>
+        <v>32.796180555560568</v>
+      </c>
+      <c r="L456">
+        <f>VLOOKUP(sampling!C456,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>30.356000000000005</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>114</v>
+      </c>
+      <c r="B457" s="2">
+        <v>4</v>
+      </c>
+      <c r="C457" t="str">
+        <f t="shared" si="21"/>
+        <v>F4-114</v>
+      </c>
+      <c r="D457" s="3">
+        <v>45822.616666666669</v>
+      </c>
+      <c r="E457" s="3">
+        <v>45822.661805555559</v>
+      </c>
+      <c r="F457" s="1">
+        <f t="shared" si="22"/>
+        <v>45822.639236111114</v>
+      </c>
+      <c r="G457">
+        <f t="shared" si="23"/>
+        <v>32.796180555560568</v>
+      </c>
+      <c r="L457">
+        <f>VLOOKUP(sampling!C457,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
+        <v>22.187600000000007</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>115</v>
+      </c>
+      <c r="B458" s="2">
+        <v>1</v>
+      </c>
+      <c r="C458" t="str">
+        <f t="shared" si="21"/>
+        <v>F1-115</v>
+      </c>
+      <c r="D458" s="3">
+        <v>45822.67083333333</v>
+      </c>
+      <c r="E458" s="1">
+        <v>45823.497916666667</v>
+      </c>
+      <c r="F458" s="1">
+        <f t="shared" si="22"/>
+        <v>45823.084374999999</v>
+      </c>
+      <c r="G458">
+        <f t="shared" si="23"/>
+        <v>33.251041666662786</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>115</v>
+      </c>
+      <c r="B459" s="2">
+        <v>2</v>
+      </c>
+      <c r="C459" t="str">
+        <f t="shared" si="21"/>
+        <v>F2-115</v>
+      </c>
+      <c r="D459" s="3">
+        <v>45822.67083333333</v>
+      </c>
+      <c r="E459" s="1">
+        <v>45823.497916666667</v>
+      </c>
+      <c r="F459" s="1">
+        <f t="shared" si="22"/>
+        <v>45823.084374999999</v>
+      </c>
+      <c r="G459">
+        <f t="shared" si="23"/>
+        <v>33.251041666662786</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>115</v>
+      </c>
+      <c r="B460" s="2">
+        <v>3</v>
+      </c>
+      <c r="C460" t="str">
+        <f t="shared" ref="C460:C465" si="24">_xlfn.CONCAT("F",B460,"-",A460)</f>
+        <v>F3-115</v>
+      </c>
+      <c r="D460" s="3">
+        <v>45822.67083333333</v>
+      </c>
+      <c r="E460" s="1">
+        <v>45823.497916666667</v>
+      </c>
+      <c r="F460" s="1">
+        <f t="shared" si="22"/>
+        <v>45823.084374999999</v>
+      </c>
+      <c r="G460">
+        <f t="shared" si="23"/>
+        <v>33.241319444445253</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>115</v>
+      </c>
+      <c r="B461" s="2">
+        <v>4</v>
+      </c>
+      <c r="C461" t="str">
+        <f t="shared" si="24"/>
+        <v>F4-115</v>
+      </c>
+      <c r="D461" s="3">
+        <v>45822.67083333333</v>
+      </c>
+      <c r="E461" s="1">
+        <v>45823.497916666667</v>
+      </c>
+      <c r="F461" s="1">
+        <f t="shared" si="22"/>
+        <v>45823.084374999999</v>
+      </c>
+      <c r="G461">
+        <f t="shared" si="23"/>
+        <v>33.241319444445253</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>116</v>
+      </c>
+      <c r="B462" s="2">
+        <v>1</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" si="24"/>
+        <v>F1-116</v>
+      </c>
+      <c r="D462" s="1">
+        <v>45823.513888888891</v>
+      </c>
+      <c r="E462" s="1">
+        <v>45824.574305555558</v>
+      </c>
+      <c r="F462" s="1">
+        <f t="shared" si="22"/>
+        <v>45824.044097222228</v>
+      </c>
+      <c r="G462">
+        <f t="shared" si="23"/>
+        <v>34.210763888891961</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>116</v>
+      </c>
+      <c r="B463" s="2">
+        <v>2</v>
+      </c>
+      <c r="C463" t="str">
+        <f t="shared" si="24"/>
+        <v>F2-116</v>
+      </c>
+      <c r="D463" s="1">
+        <v>45823.513888888891</v>
+      </c>
+      <c r="E463" s="1">
+        <v>45824.574305555558</v>
+      </c>
+      <c r="F463" s="1">
+        <f t="shared" si="22"/>
+        <v>45824.044097222228</v>
+      </c>
+      <c r="G463">
+        <f t="shared" si="23"/>
+        <v>34.210763888891961</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>116</v>
+      </c>
+      <c r="B464" s="2">
+        <v>3</v>
+      </c>
+      <c r="C464" t="str">
+        <f t="shared" si="24"/>
+        <v>F3-116</v>
+      </c>
+      <c r="D464" s="1">
+        <v>45823.513888888891</v>
+      </c>
+      <c r="E464" s="1">
+        <v>45824.574305555558</v>
+      </c>
+      <c r="F464" s="1">
+        <f t="shared" si="22"/>
+        <v>45824.044097222228</v>
+      </c>
+      <c r="G464">
+        <f t="shared" si="23"/>
+        <v>34.201041666674428</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>116</v>
+      </c>
+      <c r="B465" s="2">
+        <v>4</v>
+      </c>
+      <c r="C465" t="str">
+        <f t="shared" si="24"/>
+        <v>F4-116</v>
+      </c>
+      <c r="D465" s="1">
+        <v>45823.513888888891</v>
+      </c>
+      <c r="E465" s="1">
+        <v>45824.574305555558</v>
+      </c>
+      <c r="F465" s="1">
+        <f t="shared" si="22"/>
+        <v>45824.044097222228</v>
+      </c>
+      <c r="G465">
+        <f t="shared" si="23"/>
+        <v>34.201041666674428</v>
       </c>
     </row>
   </sheetData>
@@ -20563,7 +26146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EE10AC-039B-7246-BB19-795F61BBEE1F}">
   <dimension ref="A1:E73"/>
   <sheetViews>
@@ -21888,7 +27471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C7900E-9887-B243-BF49-26E84C1A4CE3}">
   <dimension ref="A1:E25"/>
   <sheetViews>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC939C-D5CD-F349-97AA-794737BA0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDB4E68-D55B-A14C-9D8C-163CFC3B3D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" firstSheet="1" activeTab="5" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" firstSheet="1" activeTab="6" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
   <si>
     <t>Standard</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>br</t>
+  </si>
+  <si>
+    <t>dil 10x</t>
+  </si>
+  <si>
+    <t>dil 5x</t>
   </si>
 </sst>
 </file>
@@ -6835,10 +6841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F067866-145E-4840-B852-3EC052744DCC}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L8"/>
+    <sheetView topLeftCell="A131" zoomScale="219" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8404,7 +8410,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C104" si="7">_xlfn.CONCAT("F",B67,"-",A67)</f>
+        <f t="shared" ref="C67:C133" si="7">_xlfn.CONCAT("F",B67,"-",A67)</f>
         <v>F2-53</v>
       </c>
       <c r="D67">
@@ -8449,7 +8455,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G104" si="8">(66.842*AVERAGE(D69:E69)-2.8244)</f>
+        <f t="shared" ref="G69:G114" si="8">(66.842*AVERAGE(D69:E69)-2.8244)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -9116,6 +9122,774 @@
       <c r="G104">
         <f t="shared" si="8"/>
         <v>-0.48492999999999942</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>83</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-83</v>
+      </c>
+      <c r="D105">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>34.005542000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>84</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-84</v>
+      </c>
+      <c r="D106">
+        <v>0.377</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106">
+        <f>(66.842*AVERAGE(D106:E106)-2.8244)*4</f>
+        <v>89.500135999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>86</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-86</v>
+      </c>
+      <c r="D107">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107">
+        <f>(66.842*AVERAGE(D107:E107)-2.8244)*4</f>
+        <v>198.31891200000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>89</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-89</v>
+      </c>
+      <c r="D108">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>1.119278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>91</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-91</v>
+      </c>
+      <c r="D109">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>0.18348999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>92</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-92</v>
+      </c>
+      <c r="D110">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>0.38401600000000036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>95</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-95</v>
+      </c>
+      <c r="D111">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>0.38401600000000036</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>98</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-98</v>
+      </c>
+      <c r="D112">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>-1.7035999999999607E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-110</v>
+      </c>
+      <c r="D113">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>1.0524360000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="7"/>
+        <v>F1-113</v>
+      </c>
+      <c r="D114">
+        <v>0.04</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>-0.15071999999999974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>83</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-83</v>
+      </c>
+      <c r="D115">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <f t="shared" ref="G115:G116" si="9">(66.842*AVERAGE(D115:E115)-2.8244)*4</f>
+        <v>70.51700799999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>84</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-84</v>
+      </c>
+      <c r="D116">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="9"/>
+        <v>175.057896</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>86</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-86</v>
+      </c>
+      <c r="D117">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F117" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117">
+        <f>(66.842*AVERAGE(D117:E117)-2.8244)*10</f>
+        <v>373.47642000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>89</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-89</v>
+      </c>
+      <c r="D118">
+        <v>0.05</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:G125" si="10">(66.842*AVERAGE(D118:E118)-2.8244)</f>
+        <v>0.51770000000000049</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>91</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-91</v>
+      </c>
+      <c r="D119">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="10"/>
+        <v>0.18348999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>92</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-92</v>
+      </c>
+      <c r="D120">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="10"/>
+        <v>0.4508580000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>95</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-95</v>
+      </c>
+      <c r="D121">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="10"/>
+        <v>0.25033200000000022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>98</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-98</v>
+      </c>
+      <c r="D122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="10"/>
+        <v>0.18348999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>110</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-110</v>
+      </c>
+      <c r="D123">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="10"/>
+        <v>0.4508580000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>113</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="7"/>
+        <v>F2-113</v>
+      </c>
+      <c r="D124">
+        <v>0.04</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="10"/>
+        <v>-0.15071999999999974</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>83</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-83</v>
+      </c>
+      <c r="D125">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="10"/>
+        <v>31.331861999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>84</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-84</v>
+      </c>
+      <c r="D126">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126">
+        <f>(66.842*AVERAGE(D126:E126)-2.8244)*4</f>
+        <v>145.914784</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>86</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-86</v>
+      </c>
+      <c r="D127">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F127" t="s">
+        <v>116</v>
+      </c>
+      <c r="G127">
+        <f>(66.842*AVERAGE(D127:E127)-2.8244)*5</f>
+        <v>254.91705000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>89</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-89</v>
+      </c>
+      <c r="D128">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ref="G128:G135" si="11">(66.842*AVERAGE(D128:E128)-2.8244)</f>
+        <v>0.78506799999999988</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>91</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-91</v>
+      </c>
+      <c r="D129">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="11"/>
+        <v>0.4508580000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>92</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-92</v>
+      </c>
+      <c r="D130">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="11"/>
+        <v>-8.3877999999999897E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>95</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-95</v>
+      </c>
+      <c r="D131">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="11"/>
+        <v>4.9805999999999795E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>98</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-98</v>
+      </c>
+      <c r="D132">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="11"/>
+        <v>4.9805999999999795E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>110</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="7"/>
+        <v>F3-110</v>
+      </c>
+      <c r="D133">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="11"/>
+        <v>-0.28440399999999988</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>113</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ref="C134:C143" si="12">_xlfn.CONCAT("F",B134,"-",A134)</f>
+        <v>F3-113</v>
+      </c>
+      <c r="D134">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="11"/>
+        <v>-0.21756200000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>83</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-83</v>
+      </c>
+      <c r="D135">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="11"/>
+        <v>34.339752000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>84</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-84</v>
+      </c>
+      <c r="D136">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136">
+        <f>(66.842*AVERAGE(D136:E136)-2.8244)*4</f>
+        <v>187.08945600000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>86</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-86</v>
+      </c>
+      <c r="D137">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137">
+        <f>(66.842*AVERAGE(D137:E137)-2.8244)*4</f>
+        <v>142.43899999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>89</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-89</v>
+      </c>
+      <c r="D138">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ref="G138:G143" si="13">(66.842*AVERAGE(D138:E138)-2.8244)</f>
+        <v>-0.41808800000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>91</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-91</v>
+      </c>
+      <c r="D139">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="13"/>
+        <v>0.65138400000000019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>92</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-92</v>
+      </c>
+      <c r="D140">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="13"/>
+        <v>0.11664800000000008</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>95</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-95</v>
+      </c>
+      <c r="D141">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="13"/>
+        <v>3.3250640000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>110</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-110</v>
+      </c>
+      <c r="D142">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="13"/>
+        <v>-8.3877999999999897E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>113</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="12"/>
+        <v>F4-113</v>
+      </c>
+      <c r="D143">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="13"/>
+        <v>0.91875200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11602,7 +12376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B5322D-F179-FD4D-9E1F-BDEBA476BE1B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -11669,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
   <dimension ref="A1:P465"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" zoomScale="110" workbookViewId="0">
-      <selection activeCell="L337" sqref="L330:L337"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K329" sqref="K318:K329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18285,7 +19059,7 @@
         <v>31.3</v>
       </c>
       <c r="K197">
-        <f>VLOOKUP(sampling!C197,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C197,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
     </row>
@@ -18444,7 +19218,7 @@
         <v>1042</v>
       </c>
       <c r="K202">
-        <f>VLOOKUP(sampling!C202,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C202,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -18483,7 +19257,7 @@
         <v>800</v>
       </c>
       <c r="K203">
-        <f>VLOOKUP(sampling!C203,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C203,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
     </row>
@@ -18522,7 +19296,7 @@
         <v>1048</v>
       </c>
       <c r="K204">
-        <f>VLOOKUP(sampling!C204,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C204,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -18561,7 +19335,7 @@
         <v>941</v>
       </c>
       <c r="K205">
-        <f>VLOOKUP(sampling!C205,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C205,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -18597,7 +19371,7 @@
         <v>1029</v>
       </c>
       <c r="K206">
-        <f>VLOOKUP(sampling!C206,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C206,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.15071999999999974</v>
       </c>
     </row>
@@ -18636,7 +19410,7 @@
         <v>964</v>
       </c>
       <c r="K207">
-        <f>VLOOKUP(sampling!C207,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C207,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -18672,7 +19446,7 @@
         <v>973</v>
       </c>
       <c r="K208">
-        <f>VLOOKUP(sampling!C208,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C208,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
     </row>
@@ -18708,7 +19482,7 @@
         <v>956</v>
       </c>
       <c r="K209">
-        <f>VLOOKUP(sampling!C209,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C209,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -18744,7 +19518,7 @@
         <v>947</v>
       </c>
       <c r="K210">
-        <f>VLOOKUP(sampling!C210,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C210,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -18780,7 +19554,7 @@
         <v>984</v>
       </c>
       <c r="K211">
-        <f>VLOOKUP(sampling!C211,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C211,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -18816,7 +19590,7 @@
         <v>900</v>
       </c>
       <c r="K212">
-        <f>VLOOKUP(sampling!C212,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C212,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -18852,7 +19626,7 @@
         <v>939</v>
       </c>
       <c r="K213">
-        <f>VLOOKUP(sampling!C213,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C213,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
     </row>
@@ -19011,7 +19785,7 @@
         <v>1102</v>
       </c>
       <c r="K218">
-        <f>VLOOKUP(sampling!C218,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C218,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -19050,7 +19824,7 @@
         <v>1018</v>
       </c>
       <c r="K219">
-        <f>VLOOKUP(sampling!C219,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C219,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -19089,7 +19863,7 @@
         <v>1109</v>
       </c>
       <c r="K220">
-        <f>VLOOKUP(sampling!C220,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C220,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.75229799999999969</v>
       </c>
     </row>
@@ -19128,7 +19902,7 @@
         <v>1061</v>
       </c>
       <c r="K221">
-        <f>VLOOKUP(sampling!C221,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C221,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
     </row>
@@ -19158,7 +19932,7 @@
         <v>12.255555555551837</v>
       </c>
       <c r="K222">
-        <f>VLOOKUP(sampling!C222,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C222,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
     </row>
@@ -19188,7 +19962,7 @@
         <v>12.255555555551837</v>
       </c>
       <c r="K223">
-        <f>VLOOKUP(sampling!C223,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C223,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -19218,7 +19992,7 @@
         <v>12.245833333334303</v>
       </c>
       <c r="K224">
-        <f>VLOOKUP(sampling!C224,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C224,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -19248,7 +20022,7 @@
         <v>12.245833333334303</v>
       </c>
       <c r="K225">
-        <f>VLOOKUP(sampling!C225,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C225,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
     </row>
@@ -19287,7 +20061,7 @@
         <v>1060</v>
       </c>
       <c r="K226">
-        <f>VLOOKUP(sampling!C226,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C226,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -19326,7 +20100,7 @@
         <v>1047</v>
       </c>
       <c r="K227">
-        <f>VLOOKUP(sampling!C227,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C227,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -19365,7 +20139,7 @@
         <v>1075</v>
       </c>
       <c r="K228">
-        <f>VLOOKUP(sampling!C228,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C228,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
     </row>
@@ -19541,7 +20315,7 @@
         <v>12.855902777773736</v>
       </c>
       <c r="K234">
-        <f>VLOOKUP(sampling!C234,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C234,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -19571,7 +20345,7 @@
         <v>12.855902777773736</v>
       </c>
       <c r="K235">
-        <f>VLOOKUP(sampling!C235,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C235,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -19601,7 +20375,7 @@
         <v>12.846180555556202</v>
       </c>
       <c r="K236">
-        <f>VLOOKUP(sampling!C236,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C236,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
     </row>
@@ -19631,7 +20405,7 @@
         <v>12.846180555556202</v>
       </c>
       <c r="K237">
-        <f>VLOOKUP(sampling!C237,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C237,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -20848,7 +21622,7 @@
         <v>1056</v>
       </c>
       <c r="K278">
-        <f>VLOOKUP(sampling!C278,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C278,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>4.9805999999999795E-2</v>
       </c>
     </row>
@@ -20887,7 +21661,7 @@
         <v>1048</v>
       </c>
       <c r="K279">
-        <f>VLOOKUP(sampling!C279,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C279,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.28440399999999988</v>
       </c>
     </row>
@@ -20926,7 +21700,7 @@
         <v>1049</v>
       </c>
       <c r="K280">
-        <f>VLOOKUP(sampling!C280,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C280,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -20965,7 +21739,7 @@
         <v>1055</v>
       </c>
       <c r="K281">
-        <f>VLOOKUP(sampling!C281,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C281,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -21218,7 +21992,7 @@
         <v>30.2</v>
       </c>
       <c r="K290">
-        <f>VLOOKUP(sampling!C290,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C290,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21251,7 +22025,7 @@
         <v>35.4</v>
       </c>
       <c r="K291">
-        <f>VLOOKUP(sampling!C291,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C291,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21284,7 +22058,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="K292">
-        <f>VLOOKUP(sampling!C292,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C292,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21317,7 +22091,7 @@
         <v>34.4</v>
       </c>
       <c r="K293">
-        <f>VLOOKUP(sampling!C293,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C293,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -21596,7 +22370,7 @@
         <v>834</v>
       </c>
       <c r="K302">
-        <f>VLOOKUP(sampling!C302,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C302,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -21635,7 +22409,7 @@
         <v>814</v>
       </c>
       <c r="K303">
-        <f>VLOOKUP(sampling!C303,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C303,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -21674,7 +22448,7 @@
         <v>858</v>
       </c>
       <c r="K304">
-        <f>VLOOKUP(sampling!C304,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C304,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -21713,7 +22487,7 @@
         <v>934</v>
       </c>
       <c r="K305">
-        <f>VLOOKUP(sampling!C305,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C305,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -21746,7 +22520,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="K306">
-        <f>VLOOKUP(sampling!C306,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C306,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21779,7 +22553,7 @@
         <v>31.3</v>
       </c>
       <c r="K307">
-        <f>VLOOKUP(sampling!C307,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C307,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21812,7 +22586,7 @@
         <v>35.5</v>
       </c>
       <c r="K308">
-        <f>VLOOKUP(sampling!C308,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C308,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21845,7 +22619,7 @@
         <v>28.3</v>
       </c>
       <c r="K309">
-        <f>VLOOKUP(sampling!C309,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C309,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -21991,7 +22765,7 @@
         <v>20.648611111108039</v>
       </c>
       <c r="K314">
-        <f>VLOOKUP(sampling!C314,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C314,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
     </row>
@@ -22021,7 +22795,7 @@
         <v>20.648611111108039</v>
       </c>
       <c r="K315">
-        <f>VLOOKUP(sampling!C315,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C315,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
     </row>
@@ -22051,7 +22825,7 @@
         <v>20.638888888890506</v>
       </c>
       <c r="K316">
-        <f>VLOOKUP(sampling!C316,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C316,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-1.7035999999999607E-2</v>
       </c>
     </row>
@@ -22081,7 +22855,7 @@
         <v>20.638888888890506</v>
       </c>
       <c r="K317">
-        <f>VLOOKUP(sampling!C317,standard_curve_plate_3!$C$2:$G$200,5,FALSE)</f>
+        <f>VLOOKUP(sampling!C317,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
     </row>
@@ -22454,6 +23228,10 @@
         <f t="shared" si="17"/>
         <v>22.244097222217533</v>
       </c>
+      <c r="K330">
+        <f>VLOOKUP(sampling!C330,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>34.005542000000005</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
@@ -22480,6 +23258,10 @@
         <f t="shared" si="17"/>
         <v>22.244097222217533</v>
       </c>
+      <c r="K331">
+        <f>VLOOKUP(sampling!C331,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>70.51700799999999</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
@@ -22506,6 +23288,10 @@
         <f t="shared" si="17"/>
         <v>22.234375</v>
       </c>
+      <c r="K332">
+        <f>VLOOKUP(sampling!C332,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>31.331861999999997</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
@@ -22532,6 +23318,10 @@
         <f t="shared" si="17"/>
         <v>22.234375</v>
       </c>
+      <c r="K333">
+        <f>VLOOKUP(sampling!C333,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>34.339752000000004</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
@@ -22558,6 +23348,10 @@
         <f t="shared" si="17"/>
         <v>22.601041666661331</v>
       </c>
+      <c r="K334">
+        <f>VLOOKUP(sampling!C334,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>89.500135999999998</v>
+      </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
@@ -22584,6 +23378,10 @@
         <f t="shared" si="17"/>
         <v>22.601041666661331</v>
       </c>
+      <c r="K335">
+        <f>VLOOKUP(sampling!C335,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>175.057896</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
@@ -22610,6 +23408,10 @@
         <f t="shared" si="17"/>
         <v>22.591319444443798</v>
       </c>
+      <c r="K336">
+        <f>VLOOKUP(sampling!C336,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>145.914784</v>
+      </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
@@ -22636,6 +23438,10 @@
         <f t="shared" si="17"/>
         <v>22.591319444443798</v>
       </c>
+      <c r="K337">
+        <f>VLOOKUP(sampling!C337,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>187.08945600000001</v>
+      </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
@@ -22782,6 +23588,10 @@
         <f t="shared" si="17"/>
         <v>23.252083333332848</v>
       </c>
+      <c r="K342">
+        <f>VLOOKUP(sampling!C342,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>198.31891200000001</v>
+      </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
@@ -22808,6 +23618,10 @@
         <f t="shared" si="17"/>
         <v>23.252083333332848</v>
       </c>
+      <c r="K343">
+        <f>VLOOKUP(sampling!C343,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>373.47642000000002</v>
+      </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
@@ -22834,6 +23648,10 @@
         <f t="shared" si="17"/>
         <v>23.242361111115315</v>
       </c>
+      <c r="K344">
+        <f>VLOOKUP(sampling!C344,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>254.91705000000002</v>
+      </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345">
@@ -22860,6 +23678,10 @@
         <f t="shared" si="17"/>
         <v>23.242361111115315</v>
       </c>
+      <c r="K345">
+        <f>VLOOKUP(sampling!C345,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>142.43899999999999</v>
+      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
@@ -23110,6 +23932,10 @@
         <f t="shared" si="17"/>
         <v>24.62638888888614</v>
       </c>
+      <c r="K354">
+        <f>VLOOKUP(sampling!C354,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>1.119278</v>
+      </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
@@ -23136,6 +23962,10 @@
         <f t="shared" si="17"/>
         <v>24.62638888888614</v>
       </c>
+      <c r="K355">
+        <f>VLOOKUP(sampling!C355,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.51770000000000049</v>
+      </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
@@ -23162,6 +23992,10 @@
         <f t="shared" si="17"/>
         <v>24.616666666668607</v>
       </c>
+      <c r="K356">
+        <f>VLOOKUP(sampling!C356,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.78506799999999988</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
@@ -23188,6 +24022,10 @@
         <f t="shared" si="17"/>
         <v>24.616666666668607</v>
       </c>
+      <c r="K357">
+        <f>VLOOKUP(sampling!C357,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-0.41808800000000002</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
@@ -23334,6 +24172,10 @@
         <f t="shared" si="17"/>
         <v>25.213888888887595</v>
       </c>
+      <c r="K362">
+        <f>VLOOKUP(sampling!C362,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.18348999999999993</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
@@ -23360,6 +24202,10 @@
         <f t="shared" si="17"/>
         <v>25.213888888887595</v>
       </c>
+      <c r="K363">
+        <f>VLOOKUP(sampling!C363,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.18348999999999993</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
@@ -23386,6 +24232,10 @@
         <f t="shared" si="17"/>
         <v>25.204166666670062</v>
       </c>
+      <c r="K364">
+        <f>VLOOKUP(sampling!C364,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.4508580000000002</v>
+      </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
@@ -23412,6 +24262,10 @@
         <f t="shared" si="17"/>
         <v>25.204166666670062</v>
       </c>
+      <c r="K365">
+        <f>VLOOKUP(sampling!C365,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.65138400000000019</v>
+      </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
@@ -23438,6 +24292,10 @@
         <f t="shared" si="17"/>
         <v>25.614583333335759</v>
       </c>
+      <c r="K366">
+        <f>VLOOKUP(sampling!C366,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.38401600000000036</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
@@ -23464,6 +24322,10 @@
         <f t="shared" si="17"/>
         <v>25.614583333335759</v>
       </c>
+      <c r="K367">
+        <f>VLOOKUP(sampling!C367,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.4508580000000002</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
@@ -23490,6 +24352,10 @@
         <f t="shared" si="17"/>
         <v>25.604861111118225</v>
       </c>
+      <c r="K368">
+        <f>VLOOKUP(sampling!C368,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-8.3877999999999897E-2</v>
+      </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369">
@@ -23516,6 +24382,10 @@
         <f t="shared" si="17"/>
         <v>25.604861111118225</v>
       </c>
+      <c r="K369">
+        <f>VLOOKUP(sampling!C369,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.11664800000000008</v>
+      </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370">
@@ -23766,6 +24636,10 @@
         <f t="shared" si="17"/>
         <v>26.64340277777228</v>
       </c>
+      <c r="K378">
+        <f>VLOOKUP(sampling!C378,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.38401600000000036</v>
+      </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379">
@@ -23792,6 +24666,10 @@
         <f t="shared" si="17"/>
         <v>26.64340277777228</v>
       </c>
+      <c r="K379">
+        <f>VLOOKUP(sampling!C379,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.25033200000000022</v>
+      </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380">
@@ -23818,6 +24696,10 @@
         <f t="shared" si="17"/>
         <v>26.633680555554747</v>
       </c>
+      <c r="K380">
+        <f>VLOOKUP(sampling!C380,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>4.9805999999999795E-2</v>
+      </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381">
@@ -23844,6 +24726,10 @@
         <f t="shared" si="17"/>
         <v>26.633680555554747</v>
       </c>
+      <c r="K381">
+        <f>VLOOKUP(sampling!C381,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>3.3250640000000002</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382">
@@ -24094,6 +24980,10 @@
         <f t="shared" si="20"/>
         <v>27.671874999992724</v>
       </c>
+      <c r="K390">
+        <f>VLOOKUP(sampling!C390,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-1.7035999999999607E-2</v>
+      </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391">
@@ -24120,6 +25010,10 @@
         <f t="shared" si="20"/>
         <v>27.671874999992724</v>
       </c>
+      <c r="K391">
+        <f>VLOOKUP(sampling!C391,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.18348999999999993</v>
+      </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392">
@@ -24146,6 +25040,10 @@
         <f t="shared" si="20"/>
         <v>27.662152777775191</v>
       </c>
+      <c r="K392">
+        <f>VLOOKUP(sampling!C392,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>4.9805999999999795E-2</v>
+      </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393">
@@ -25406,6 +26304,10 @@
         <f t="shared" si="20"/>
         <v>31.589236111110949</v>
       </c>
+      <c r="K438">
+        <f>VLOOKUP(sampling!C438,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>1.0524360000000001</v>
+      </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
@@ -25432,6 +26334,10 @@
         <f t="shared" si="20"/>
         <v>31.589236111110949</v>
       </c>
+      <c r="K439">
+        <f>VLOOKUP(sampling!C439,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.4508580000000002</v>
+      </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
@@ -25458,6 +26364,10 @@
         <f t="shared" si="20"/>
         <v>31.579513888893416</v>
       </c>
+      <c r="K440">
+        <f>VLOOKUP(sampling!C440,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-0.28440399999999988</v>
+      </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
@@ -25484,6 +26394,10 @@
         <f t="shared" si="20"/>
         <v>31.579513888893416</v>
       </c>
+      <c r="K441">
+        <f>VLOOKUP(sampling!C441,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-8.3877999999999897E-2</v>
+      </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
@@ -25734,6 +26648,10 @@
         <f t="shared" si="20"/>
         <v>32.709374999998545</v>
       </c>
+      <c r="K450">
+        <f>VLOOKUP(sampling!C450,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-0.15071999999999974</v>
+      </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451">
@@ -25760,6 +26678,10 @@
         <f t="shared" si="20"/>
         <v>32.709374999998545</v>
       </c>
+      <c r="K451">
+        <f>VLOOKUP(sampling!C451,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-0.15071999999999974</v>
+      </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452">
@@ -25786,6 +26708,10 @@
         <f t="shared" ref="G452:G465" si="23" xml:space="preserve"> F452-IF(OR(B452=1,B452=2),$O$2,$O$3)</f>
         <v>32.699652777781012</v>
       </c>
+      <c r="K452">
+        <f>VLOOKUP(sampling!C452,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>-0.21756200000000003</v>
+      </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453">
@@ -25811,6 +26737,10 @@
       <c r="G453">
         <f t="shared" si="23"/>
         <v>32.699652777781012</v>
+      </c>
+      <c r="K453">
+        <f>VLOOKUP(sampling!C453,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
+        <v>0.91875200000000001</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDB4E68-D55B-A14C-9D8C-163CFC3B3D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B30E0-6C4D-4F4E-9E6E-67D9C2B682D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" firstSheet="1" activeTab="6" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>Standard</t>
   </si>
@@ -395,6 +395,147 @@
   </si>
   <si>
     <t>dil 5x</t>
+  </si>
+  <si>
+    <t>008-F1-62</t>
+  </si>
+  <si>
+    <t>009-F2-62</t>
+  </si>
+  <si>
+    <t>010-F3-62</t>
+  </si>
+  <si>
+    <t>011-F4-62</t>
+  </si>
+  <si>
+    <t>012-F1-59</t>
+  </si>
+  <si>
+    <t>013-F2-59</t>
+  </si>
+  <si>
+    <t>014-F3-59</t>
+  </si>
+  <si>
+    <t>015-F4-59</t>
+  </si>
+  <si>
+    <t>016-F1-57</t>
+  </si>
+  <si>
+    <t>017-F2-57</t>
+  </si>
+  <si>
+    <t>018-F3-57</t>
+  </si>
+  <si>
+    <t>019-F1-56</t>
+  </si>
+  <si>
+    <t>020-F2-56</t>
+  </si>
+  <si>
+    <t>021-F3-56</t>
+  </si>
+  <si>
+    <t>022-F4-56</t>
+  </si>
+  <si>
+    <t>023-F1-55</t>
+  </si>
+  <si>
+    <t>024-F2-55</t>
+  </si>
+  <si>
+    <t>025-F3-55</t>
+  </si>
+  <si>
+    <t>026-F4-55</t>
+  </si>
+  <si>
+    <t>027-F1-53</t>
+  </si>
+  <si>
+    <t>028-F2-53</t>
+  </si>
+  <si>
+    <t>029-F3-53</t>
+  </si>
+  <si>
+    <t>030-F4-53</t>
+  </si>
+  <si>
+    <t>031-F1-49</t>
+  </si>
+  <si>
+    <t>032-F2-49</t>
+  </si>
+  <si>
+    <t>033-F3-49</t>
+  </si>
+  <si>
+    <t>034-F4-49</t>
+  </si>
+  <si>
+    <t>035-F1-51</t>
+  </si>
+  <si>
+    <t>036-F2-51</t>
+  </si>
+  <si>
+    <t>037-F3-51</t>
+  </si>
+  <si>
+    <t>038-F4-51</t>
+  </si>
+  <si>
+    <t>039-F1-52</t>
+  </si>
+  <si>
+    <t>040-F2-52</t>
+  </si>
+  <si>
+    <t>041-F3-52</t>
+  </si>
+  <si>
+    <t>042-F4-52</t>
+  </si>
+  <si>
+    <t>043-F1-48</t>
+  </si>
+  <si>
+    <t>044-F2-48</t>
+  </si>
+  <si>
+    <t>045-F3-48</t>
+  </si>
+  <si>
+    <t>046-F4-48</t>
+  </si>
+  <si>
+    <t>047-F1-45</t>
+  </si>
+  <si>
+    <t>048-F2-45</t>
+  </si>
+  <si>
+    <t>049-F3-45</t>
+  </si>
+  <si>
+    <t>050-F4-45</t>
+  </si>
+  <si>
+    <t>051-F1-44</t>
+  </si>
+  <si>
+    <t>052-F2-44</t>
+  </si>
+  <si>
+    <t>053-F3-44</t>
+  </si>
+  <si>
+    <t>054-F4-44</t>
   </si>
 </sst>
 </file>
@@ -12443,8 +12584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
   <dimension ref="A1:P465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K329" sqref="K318:K329"/>
+    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166:N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18103,11 +18244,11 @@
         <v>8.2059027777795563</v>
       </c>
       <c r="M165">
-        <f>VLOOKUP(C165,Sheet1!$B$3:$E$73,4,FALSE)/62*1000</f>
+        <f>VLOOKUP(C165,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
         <v>2.4991583075564319</v>
       </c>
       <c r="N165">
-        <f>VLOOKUP(C165,Sheet1!$B$3:$E$73,3,FALSE)/96*1000</f>
+        <f>VLOOKUP(C165,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
         <v>2592.8394239710155</v>
       </c>
     </row>
@@ -18360,6 +18501,14 @@
         <f>VLOOKUP(sampling!C174,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>0.18348999999999993</v>
       </c>
+      <c r="M174">
+        <f>VLOOKUP(C174,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2560459419753034</v>
+      </c>
+      <c r="N174">
+        <f>VLOOKUP(C174,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2595.432789510895</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
@@ -18390,6 +18539,14 @@
         <f>VLOOKUP(sampling!C175,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
+      <c r="M175">
+        <f>VLOOKUP(C175,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2132865522086966</v>
+      </c>
+      <c r="N175">
+        <f>VLOOKUP(C175,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2633.7492929260411</v>
+      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
@@ -18420,8 +18577,16 @@
         <f>VLOOKUP(sampling!C176,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-1.7035999999999607E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176">
+        <f>VLOOKUP(C176,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.8269213011753018</v>
+      </c>
+      <c r="N176">
+        <f>VLOOKUP(C176,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2609.8229437625782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>44</v>
       </c>
@@ -18450,8 +18615,16 @@
         <f>VLOOKUP(sampling!C177,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <f>VLOOKUP(C177,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.9132221688910516</v>
+      </c>
+      <c r="N177">
+        <f>VLOOKUP(C177,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2618.0383710692199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>45</v>
       </c>
@@ -18479,8 +18652,16 @@
       <c r="H178">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <f>VLOOKUP(C178,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2199679899192373</v>
+      </c>
+      <c r="N178">
+        <f>VLOOKUP(C178,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2596.0142687393072</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>45</v>
       </c>
@@ -18508,8 +18689,16 @@
       <c r="H179">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179">
+        <f>VLOOKUP(C179,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2159591398733354</v>
+      </c>
+      <c r="N179">
+        <f>VLOOKUP(C179,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2599.7796455056814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>45</v>
       </c>
@@ -18537,8 +18726,16 @@
       <c r="H180">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180">
+        <f>VLOOKUP(C180,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2413478860893017</v>
+      </c>
+      <c r="N180">
+        <f>VLOOKUP(C180,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2606.4727823550188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>45</v>
       </c>
@@ -18566,8 +18763,16 @@
       <c r="H181">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <f>VLOOKUP(C181,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>3.4049286483412509</v>
+      </c>
+      <c r="N181">
+        <f>VLOOKUP(C181,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2629.7920847530577</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>46</v>
       </c>
@@ -18593,7 +18798,7 @@
         <v>9.5930555555532919</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>46</v>
       </c>
@@ -18619,7 +18824,7 @@
         <v>9.5930555555532919</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>46</v>
       </c>
@@ -18645,7 +18850,7 @@
         <v>9.5833333333357587</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>46</v>
       </c>
@@ -18671,7 +18876,7 @@
         <v>9.5833333333357587</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>47</v>
       </c>
@@ -18701,7 +18906,7 @@
         <v>19.4648</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>47</v>
       </c>
@@ -18731,7 +18936,7 @@
         <v>46.692800000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>47</v>
       </c>
@@ -18761,7 +18966,7 @@
         <v>27.633199999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>47</v>
       </c>
@@ -18791,7 +18996,7 @@
         <v>5.8508000000000031</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>48</v>
       </c>
@@ -18825,8 +19030,16 @@
       <c r="J190">
         <v>1032</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <f>VLOOKUP(C190,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9766961129667335</v>
+      </c>
+      <c r="N190">
+        <f>VLOOKUP(C190,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2584.094723764415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>48</v>
       </c>
@@ -18860,8 +19073,16 @@
       <c r="J191">
         <v>1010</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <f>VLOOKUP(C191,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.8844303517213352</v>
+      </c>
+      <c r="N191">
+        <f>VLOOKUP(C191,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2591.0502612336286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>48</v>
       </c>
@@ -18895,8 +19116,16 @@
       <c r="J192">
         <v>1093</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <f>VLOOKUP(C192,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.3535747283905275</v>
+      </c>
+      <c r="N192">
+        <f>VLOOKUP(C192,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2602.4728041359408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>48</v>
       </c>
@@ -18930,8 +19159,16 @@
       <c r="J193">
         <v>888</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <f>VLOOKUP(C193,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.318841010510166</v>
+      </c>
+      <c r="N193">
+        <f>VLOOKUP(C193,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2613.7856731347138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>49</v>
       </c>
@@ -18963,8 +19200,16 @@
         <f>VLOOKUP(sampling!C194,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <f>VLOOKUP(C194,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9967512452617742</v>
+      </c>
+      <c r="N194">
+        <f>VLOOKUP(C194,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2595.1796986205854</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>49</v>
       </c>
@@ -18996,8 +19241,16 @@
         <f>VLOOKUP(sampling!C195,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <f>VLOOKUP(C195,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0903293870529027</v>
+      </c>
+      <c r="N195">
+        <f>VLOOKUP(C195,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2578.7102351368821</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>49</v>
       </c>
@@ -19029,8 +19282,16 @@
         <f>VLOOKUP(sampling!C196,standard_curve_plate_3!$C$2:$G$49,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <f>VLOOKUP(C196,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.7221117355823341</v>
+      </c>
+      <c r="N196">
+        <f>VLOOKUP(C196,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2586.1208531249695</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>49</v>
       </c>
@@ -19062,8 +19323,16 @@
         <f>VLOOKUP(sampling!C197,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <f>VLOOKUP(C197,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9700108591946774</v>
+      </c>
+      <c r="N197">
+        <f>VLOOKUP(C197,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2596.8274344724646</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>50</v>
       </c>
@@ -19093,7 +19362,7 @@
         <v>22.868300000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>50</v>
       </c>
@@ -19123,7 +19392,7 @@
         <v>42.60860000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>50</v>
       </c>
@@ -19153,7 +19422,7 @@
         <v>26.27180000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>50</v>
       </c>
@@ -19183,7 +19452,7 @@
         <v>3.8086999999999982</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>51</v>
       </c>
@@ -19221,8 +19490,16 @@
         <f>VLOOKUP(sampling!C202,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <f>VLOOKUP(C202,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0716154025365614</v>
+      </c>
+      <c r="N202">
+        <f>VLOOKUP(C202,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2493.0237806349987</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>51</v>
       </c>
@@ -19260,8 +19537,16 @@
         <f>VLOOKUP(sampling!C203,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <f>VLOOKUP(C203,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.8255837891387292</v>
+      </c>
+      <c r="N203">
+        <f>VLOOKUP(C203,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2471.862143364423</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>51</v>
       </c>
@@ -19299,8 +19584,16 @@
         <f>VLOOKUP(sampling!C204,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <f>VLOOKUP(C204,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9740220240383339</v>
+      </c>
+      <c r="N204">
+        <f>VLOOKUP(C204,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2503.2731137102851</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>51</v>
       </c>
@@ -19338,8 +19631,16 @@
         <f>VLOOKUP(sampling!C205,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205">
+        <f>VLOOKUP(C205,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.7653914072471724</v>
+      </c>
+      <c r="N205">
+        <f>VLOOKUP(C205,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2512.1116271821638</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>52</v>
       </c>
@@ -19374,8 +19675,16 @@
         <f>VLOOKUP(sampling!C206,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.15071999999999974</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <f>VLOOKUP(C206,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.4070056820513015</v>
+      </c>
+      <c r="N206">
+        <f>VLOOKUP(C206,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2469.9322044324931</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>52</v>
       </c>
@@ -19413,8 +19722,16 @@
         <f>VLOOKUP(sampling!C207,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207">
+        <f>VLOOKUP(C207,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.3322004682497788</v>
+      </c>
+      <c r="N207">
+        <f>VLOOKUP(C207,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2428.6852608151949</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>52</v>
       </c>
@@ -19449,8 +19766,16 @@
         <f>VLOOKUP(sampling!C208,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <f>VLOOKUP(C208,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0127946717549867</v>
+      </c>
+      <c r="N208">
+        <f>VLOOKUP(C208,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2494.9794246095726</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>52</v>
       </c>
@@ -19485,8 +19810,16 @@
         <f>VLOOKUP(sampling!C209,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <f>VLOOKUP(C209,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.3375441339283469</v>
+      </c>
+      <c r="N209">
+        <f>VLOOKUP(C209,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2469.4329440861734</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>53</v>
       </c>
@@ -19521,8 +19854,16 @@
         <f>VLOOKUP(sampling!C210,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <f>VLOOKUP(C210,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.8595636234474324</v>
+      </c>
+      <c r="N210">
+        <f>VLOOKUP(C210,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2407.3204819862449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>53</v>
       </c>
@@ -19557,8 +19898,16 @@
         <f>VLOOKUP(sampling!C211,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211">
+        <f>VLOOKUP(C211,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0796357822583746</v>
+      </c>
+      <c r="N211">
+        <f>VLOOKUP(C211,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2400.6593497141871</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>53</v>
       </c>
@@ -19593,8 +19942,16 @@
         <f>VLOOKUP(sampling!C212,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212">
+        <f>VLOOKUP(C212,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.4964874979248513</v>
+      </c>
+      <c r="N212">
+        <f>VLOOKUP(C212,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2453.4775225025332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>53</v>
       </c>
@@ -19629,8 +19986,16 @@
         <f>VLOOKUP(sampling!C213,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213">
+        <f>VLOOKUP(C213,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.320176975154761</v>
+      </c>
+      <c r="N213">
+        <f>VLOOKUP(C213,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2450.5092759463687</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>54</v>
       </c>
@@ -19660,7 +20025,7 @@
         <v>19.4648</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>54</v>
       </c>
@@ -19690,7 +20055,7 @@
         <v>38.5244</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>54</v>
       </c>
@@ -19720,7 +20085,7 @@
         <v>18.784099999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>54</v>
       </c>
@@ -19750,7 +20115,7 @@
         <v>4.4893999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>55</v>
       </c>
@@ -19788,8 +20153,16 @@
         <f>VLOOKUP(sampling!C218,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.48492999999999942</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218">
+        <f>VLOOKUP(C218,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.9262718008188835</v>
+      </c>
+      <c r="N218">
+        <f>VLOOKUP(C218,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2384.9372021792346</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>55</v>
       </c>
@@ -19827,8 +20200,16 @@
         <f>VLOOKUP(sampling!C219,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <f>VLOOKUP(C219,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0261637325505033</v>
+      </c>
+      <c r="N219">
+        <f>VLOOKUP(C219,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2390.5610430039337</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>55</v>
       </c>
@@ -19866,8 +20247,16 @@
         <f>VLOOKUP(sampling!C220,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.75229799999999969</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220">
+        <f>VLOOKUP(C220,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2213042648809225</v>
+      </c>
+      <c r="N220">
+        <f>VLOOKUP(C220,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2447.8198701930373</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>55</v>
       </c>
@@ -19905,8 +20294,16 @@
         <f>VLOOKUP(sampling!C221,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221">
+        <f>VLOOKUP(C221,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2760879277287471</v>
+      </c>
+      <c r="N221">
+        <f>VLOOKUP(C221,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2441.6309684921703</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>56</v>
       </c>
@@ -19935,8 +20332,16 @@
         <f>VLOOKUP(sampling!C222,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222">
+        <f>VLOOKUP(C222,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>3.5861171095459725</v>
+      </c>
+      <c r="N222">
+        <f>VLOOKUP(C222,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2383.7135323984971</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>56</v>
       </c>
@@ -19965,8 +20370,16 @@
         <f>VLOOKUP(sampling!C223,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223">
+        <f>VLOOKUP(C223,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2239768022238713</v>
+      </c>
+      <c r="N223">
+        <f>VLOOKUP(C223,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2339.0962358815514</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>56</v>
       </c>
@@ -19995,8 +20408,16 @@
         <f>VLOOKUP(sampling!C224,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224">
+        <f>VLOOKUP(C224,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.4337186427971726</v>
+      </c>
+      <c r="N224">
+        <f>VLOOKUP(C224,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2446.2465704267529</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>56</v>
       </c>
@@ -20025,8 +20446,16 @@
         <f>VLOOKUP(sampling!C225,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.68545599999999984</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225">
+        <f>VLOOKUP(C225,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.5352125958376241</v>
+      </c>
+      <c r="N225">
+        <f>VLOOKUP(C225,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2439.221881640131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>57</v>
       </c>
@@ -20064,8 +20493,16 @@
         <f>VLOOKUP(sampling!C226,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226">
+        <f>VLOOKUP(C226,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9593142350987289</v>
+      </c>
+      <c r="N226">
+        <f>VLOOKUP(C226,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2318.6746702610681</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>57</v>
       </c>
@@ -20103,8 +20540,16 @@
         <f>VLOOKUP(sampling!C227,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227">
+        <f>VLOOKUP(C227,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.0154685174618838</v>
+      </c>
+      <c r="N227">
+        <f>VLOOKUP(C227,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2312.1534302737055</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>57</v>
       </c>
@@ -20142,8 +20587,16 @@
         <f>VLOOKUP(sampling!C228,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.41808800000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228">
+        <f>VLOOKUP(C228,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.901815282438553</v>
+      </c>
+      <c r="N228">
+        <f>VLOOKUP(C228,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2419.5001225330752</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>57</v>
       </c>
@@ -20169,7 +20622,7 @@
         <v>12.621180555557657</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>58</v>
       </c>
@@ -20199,7 +20652,7 @@
         <v>26.27180000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>58</v>
       </c>
@@ -20229,7 +20682,7 @@
         <v>53.499800000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>58</v>
       </c>
@@ -20259,7 +20712,7 @@
         <v>22.868300000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>58</v>
       </c>
@@ -20289,7 +20742,7 @@
         <v>3.8086999999999982</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>59</v>
       </c>
@@ -20318,8 +20771,16 @@
         <f>VLOOKUP(sampling!C234,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.55177199999999971</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234">
+        <f>VLOOKUP(C234,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.1544853797907617</v>
+      </c>
+      <c r="N234">
+        <f>VLOOKUP(C234,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2324.097254335531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>59</v>
       </c>
@@ -20348,8 +20809,16 @@
         <f>VLOOKUP(sampling!C235,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235">
+        <f>VLOOKUP(C235,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.6811078063997873</v>
+      </c>
+      <c r="N235">
+        <f>VLOOKUP(C235,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2281.8293894416624</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>59</v>
       </c>
@@ -20378,8 +20847,16 @@
         <f>VLOOKUP(sampling!C236,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.35124600000000017</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236">
+        <f>VLOOKUP(C236,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.8603577392105033</v>
+      </c>
+      <c r="N236">
+        <f>VLOOKUP(C236,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2417.2678486219179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>59</v>
       </c>
@@ -20408,8 +20885,16 @@
         <f>VLOOKUP(sampling!C237,standard_curve_plate_3!$C$2:$G$204,5,FALSE)</f>
         <v>-0.61861399999999955</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237">
+        <f>VLOOKUP(C237,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.7306097160220368</v>
+      </c>
+      <c r="N237">
+        <f>VLOOKUP(C237,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2420.1575191175425</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>60</v>
       </c>
@@ -20435,7 +20920,7 @@
         <v>13.277777777773736</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>60</v>
       </c>
@@ -20461,7 +20946,7 @@
         <v>13.277777777773736</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>60</v>
       </c>
@@ -20487,7 +20972,7 @@
         <v>13.268055555556202</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>60</v>
       </c>
@@ -20513,7 +20998,7 @@
         <v>13.268055555556202</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>61</v>
       </c>
@@ -20543,7 +21028,7 @@
         <v>26.952500000000011</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>61</v>
       </c>
@@ -20573,7 +21058,7 @@
         <v>48.054200000000009</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>61</v>
       </c>
@@ -20603,7 +21088,7 @@
         <v>19.4648</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>61</v>
       </c>
@@ -20633,7 +21118,7 @@
         <v>4.4893999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>62</v>
       </c>
@@ -20661,8 +21146,16 @@
       <c r="H246">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246">
+        <f>VLOOKUP(C246,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.1478029146790432</v>
+      </c>
+      <c r="N246">
+        <f>VLOOKUP(C246,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2315.7333987237294</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>62</v>
       </c>
@@ -20690,8 +21183,16 @@
       <c r="H247">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247">
+        <f>VLOOKUP(C247,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.3562464354255859</v>
+      </c>
+      <c r="N247">
+        <f>VLOOKUP(C247,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2247.1544913048738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>62</v>
       </c>
@@ -20719,8 +21220,16 @@
       <c r="H248">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248">
+        <f>VLOOKUP(C248,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>2.2881126662856004</v>
+      </c>
+      <c r="N248">
+        <f>VLOOKUP(C248,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2396.1979901785112</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>62</v>
       </c>
@@ -20748,8 +21257,16 @@
       <c r="H249">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249">
+        <f>VLOOKUP(C249,Sheet1!$B$3:$E$400,4,FALSE)/62*1000</f>
+        <v>1.9766961129667335</v>
+      </c>
+      <c r="N249">
+        <f>VLOOKUP(C249,Sheet1!$B$3:$E$400,3,FALSE)/96*1000</f>
+        <v>2403.8711907689913</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>63</v>
       </c>
@@ -20778,7 +21295,7 @@
         <v>32.17</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>63</v>
       </c>
@@ -20807,7 +21324,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>63</v>
       </c>
@@ -20836,7 +21353,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>63</v>
       </c>
@@ -20865,7 +21382,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>64</v>
       </c>
@@ -20895,7 +21412,7 @@
         <v>39.205100000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>64</v>
       </c>
@@ -20925,7 +21442,7 @@
         <v>56.903300000000016</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>64</v>
       </c>
@@ -27078,10 +27595,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EE10AC-039B-7246-BB19-795F61BBEE1F}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B73"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28293,7 +28810,7 @@
         <v>105</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" ref="B68:B73" si="1">MID(A68,5,5)</f>
+        <f t="shared" ref="B68:B120" si="1">MID(A68,5,5)</f>
         <v>F3-39</v>
       </c>
       <c r="C68" s="6">
@@ -28394,6 +28911,852 @@
       </c>
       <c r="E73" s="8">
         <v>0.15494781506849878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-62</v>
+      </c>
+      <c r="C74" s="6">
+        <v>14.226351876830869</v>
+      </c>
+      <c r="D74" s="7">
+        <v>222.31040627747802</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0.13316378071010068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-62</v>
+      </c>
+      <c r="C75" s="6">
+        <v>14.191341775350649</v>
+      </c>
+      <c r="D75" s="7">
+        <v>215.72683116526787</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0.14608727899638632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-62</v>
+      </c>
+      <c r="C76" s="6">
+        <v>14.205443592326224</v>
+      </c>
+      <c r="D76" s="7">
+        <v>230.03500705713708</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0.14186298530970723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-62</v>
+      </c>
+      <c r="C77" s="6">
+        <v>14.199060334152474</v>
+      </c>
+      <c r="D77" s="7">
+        <v>230.77163431382317</v>
+      </c>
+      <c r="E77" s="8">
+        <v>0.12255515900393749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-59</v>
+      </c>
+      <c r="C78" s="6">
+        <v>14.83243417635699</v>
+      </c>
+      <c r="D78" s="7">
+        <v>223.11333641621096</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0.13357809354702721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-59</v>
+      </c>
+      <c r="C79" s="6">
+        <v>14.731503774128422</v>
+      </c>
+      <c r="D79" s="7">
+        <v>219.05562138639962</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0.10422868399678681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-59</v>
+      </c>
+      <c r="C80" s="6">
+        <v>14.66241234508437</v>
+      </c>
+      <c r="D80" s="7">
+        <v>232.0577134677041</v>
+      </c>
+      <c r="E80" s="8">
+        <v>0.1153421798310512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-59</v>
+      </c>
+      <c r="C81" s="6">
+        <v>15.438007115511359</v>
+      </c>
+      <c r="D81" s="7">
+        <v>232.33512183528407</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.1072978023933663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-57</v>
+      </c>
+      <c r="C82" s="6">
+        <v>14.206518322564211</v>
+      </c>
+      <c r="D82" s="7">
+        <v>222.59276834506252</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0.12147748257612119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-57</v>
+      </c>
+      <c r="C83" s="6">
+        <v>14.396573646771763</v>
+      </c>
+      <c r="D83" s="7">
+        <v>221.96672930627574</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.1249590480826368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-57</v>
+      </c>
+      <c r="C84" s="6">
+        <v>14.152129733484934</v>
+      </c>
+      <c r="D84" s="7">
+        <v>232.27201176317521</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0.11791254751119029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-56</v>
+      </c>
+      <c r="C85" s="6">
+        <v>14.547797352410246</v>
+      </c>
+      <c r="D85" s="7">
+        <v>228.83649911025572</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.22233926079185029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-56</v>
+      </c>
+      <c r="C86" s="6">
+        <v>14.19029960478913</v>
+      </c>
+      <c r="D86" s="7">
+        <v>224.55323864462892</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0.13788656173788003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-56</v>
+      </c>
+      <c r="C87" s="6">
+        <v>14.371108063794351</v>
+      </c>
+      <c r="D87" s="7">
+        <v>234.83967076096826</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0.1508905558534247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-56</v>
+      </c>
+      <c r="C88" s="6">
+        <v>14.291224787671471</v>
+      </c>
+      <c r="D88" s="7">
+        <v>234.16530063745256</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0.1571831809419327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-55</v>
+      </c>
+      <c r="C89" s="6">
+        <v>15.713144691566701</v>
+      </c>
+      <c r="D89" s="7">
+        <v>228.95397140920653</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0.1814288516507708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-55</v>
+      </c>
+      <c r="C90" s="6">
+        <v>17.439259705141964</v>
+      </c>
+      <c r="D90" s="7">
+        <v>229.49386012837763</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0.12562215141813121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-55</v>
+      </c>
+      <c r="C91" s="6">
+        <v>17.878681867224639</v>
+      </c>
+      <c r="D91" s="7">
+        <v>234.99070753853155</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0.13772086442261722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-55</v>
+      </c>
+      <c r="C92" s="6">
+        <v>18.250014864258027</v>
+      </c>
+      <c r="D92" s="7">
+        <v>234.39657297524838</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.14111745151918231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-53</v>
+      </c>
+      <c r="C93" s="6">
+        <v>14.416437878733555</v>
+      </c>
+      <c r="D93" s="7">
+        <v>231.10276627067952</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0.17729294465374082</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-53</v>
+      </c>
+      <c r="C94" s="6">
+        <v>14.425360436677311</v>
+      </c>
+      <c r="D94" s="7">
+        <v>230.46329757256197</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.12893741850001922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-53</v>
+      </c>
+      <c r="C95" s="6">
+        <v>14.339845523227581</v>
+      </c>
+      <c r="D95" s="7">
+        <v>235.53384216024318</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0.1547822248713408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-53</v>
+      </c>
+      <c r="C96" s="6">
+        <v>14.410413501381923</v>
+      </c>
+      <c r="D96" s="7">
+        <v>235.24889049085141</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0.14385097245959519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-49</v>
+      </c>
+      <c r="C97" s="6">
+        <v>13.214068277703049</v>
+      </c>
+      <c r="D97" s="7">
+        <v>249.13725106757619</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0.12379857720623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-49</v>
+      </c>
+      <c r="C98" s="6">
+        <v>13.220682766992441</v>
+      </c>
+      <c r="D98" s="7">
+        <v>247.55618257314066</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0.12960042199727997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-49</v>
+      </c>
+      <c r="C99" s="6">
+        <v>13.223159121887248</v>
+      </c>
+      <c r="D99" s="7">
+        <v>248.26760189999709</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0.16877092760610471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-49</v>
+      </c>
+      <c r="C100" s="6">
+        <v>13.185329208199558</v>
+      </c>
+      <c r="D100" s="7">
+        <v>249.29543370935659</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0.12214067327007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-51</v>
+      </c>
+      <c r="C101" s="6">
+        <v>14.392600776679016</v>
+      </c>
+      <c r="D101" s="7">
+        <v>239.33028294095988</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0.12844015495726682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-51</v>
+      </c>
+      <c r="C102" s="6">
+        <v>14.47264281585552</v>
+      </c>
+      <c r="D102" s="7">
+        <v>237.29876576298457</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0.1131861949266012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-51</v>
+      </c>
+      <c r="C103" s="6">
+        <v>14.472610252618576</v>
+      </c>
+      <c r="D103" s="7">
+        <v>240.31421891618737</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.12238936549037671</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-51</v>
+      </c>
+      <c r="C104" s="6">
+        <v>14.423634543541228</v>
+      </c>
+      <c r="D104" s="7">
+        <v>241.16271620948774</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0.10945426724932469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-52</v>
+      </c>
+      <c r="C105" s="6">
+        <v>14.47938339447602</v>
+      </c>
+      <c r="D105" s="7">
+        <v>237.11349162551934</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0.14923435228718068</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-52</v>
+      </c>
+      <c r="C106" s="6">
+        <v>14.571469794604063</v>
+      </c>
+      <c r="D106" s="7">
+        <v>233.15378503825872</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.14459642903148628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-52</v>
+      </c>
+      <c r="C107" s="6">
+        <v>14.485179622638841</v>
+      </c>
+      <c r="D107" s="7">
+        <v>239.51802476251896</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.12479326964880919</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-52</v>
+      </c>
+      <c r="C108" s="6">
+        <v>14.445940783331913</v>
+      </c>
+      <c r="D108" s="7">
+        <v>237.06556263227267</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0.14492773630355749</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-48</v>
+      </c>
+      <c r="C109" s="6">
+        <v>13.569395034472938</v>
+      </c>
+      <c r="D109" s="7">
+        <v>248.07309348138384</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.12255515900393749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-48</v>
+      </c>
+      <c r="C110" s="6">
+        <v>13.817981964522671</v>
+      </c>
+      <c r="D110" s="7">
+        <v>248.74082507842834</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0.1168346818067228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-48</v>
+      </c>
+      <c r="C111" s="6">
+        <v>13.741399244920672</v>
+      </c>
+      <c r="D111" s="7">
+        <v>249.8373891970503</v>
+      </c>
+      <c r="E111" s="8">
+        <v>0.1459216331602127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-48</v>
+      </c>
+      <c r="C112" s="6">
+        <v>13.635918114559018</v>
+      </c>
+      <c r="D112" s="7">
+        <v>250.92342462093254</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0.14376814265163029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-45</v>
+      </c>
+      <c r="C113" s="6">
+        <v>12.966612013782999</v>
+      </c>
+      <c r="D113" s="7">
+        <v>249.21736979897349</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0.13763801537499271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-45</v>
+      </c>
+      <c r="C114" s="6">
+        <v>13.024943281946751</v>
+      </c>
+      <c r="D114" s="7">
+        <v>249.57884596854538</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.1373894666721468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-45</v>
+      </c>
+      <c r="C115" s="6">
+        <v>12.970294429048135</v>
+      </c>
+      <c r="D115" s="7">
+        <v>250.22138710608178</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0.1389635689375367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-45</v>
+      </c>
+      <c r="C116" s="6">
+        <v>13.116770848998399</v>
+      </c>
+      <c r="D116" s="7">
+        <v>252.46004013629351</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0.21110557619715753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F1-44</v>
+      </c>
+      <c r="C117" s="6">
+        <v>19.14984585958593</v>
+      </c>
+      <c r="D117" s="7">
+        <v>249.16154779304591</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0.1398748484024688</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F2-44</v>
+      </c>
+      <c r="C118" s="6">
+        <v>53.744562692455446</v>
+      </c>
+      <c r="D118" s="7">
+        <v>252.83993212089996</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0.13722376623693922</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F3-44</v>
+      </c>
+      <c r="C119" s="6">
+        <v>16.289495765805054</v>
+      </c>
+      <c r="D119" s="7">
+        <v>250.54300260120752</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0.11326912067286871</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F4-44</v>
+      </c>
+      <c r="C120" s="6">
+        <v>15.197629372884938</v>
+      </c>
+      <c r="D120" s="7">
+        <v>251.33168362264513</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0.18061977447124519</v>
       </c>
     </row>
   </sheetData>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CE026-617D-E24E-9EAA-356633E87A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37683FF8-4EBD-EC49-BD5D-A62BB2709C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="6" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1080" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="6" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -7412,8 +7412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F829B9D-AC25-3345-89CA-34CFFCBEFC3A}">
   <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="L210" sqref="L210:L213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23721,8 +23721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
   <dimension ref="A1:P465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B366" zoomScale="110" workbookViewId="0">
-      <selection activeCell="M254" sqref="M254:N257"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="110" workbookViewId="0">
+      <selection activeCell="P369" sqref="P369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36614,7 +36614,7 @@
         <v>2436.4166666666665</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>92</v>
       </c>
@@ -36651,8 +36651,12 @@
         <f>VLOOKUP(C369,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2491.5625</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P369">
+        <f>234/96*1000</f>
+        <v>2437.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>93</v>
       </c>
@@ -36683,7 +36687,7 @@
       </c>
       <c r="N370" s="12"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>93</v>
       </c>
@@ -36714,7 +36718,7 @@
       </c>
       <c r="N371" s="12"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>93</v>
       </c>
@@ -36745,7 +36749,7 @@
       </c>
       <c r="N372" s="12"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>93</v>
       </c>
@@ -36776,7 +36780,7 @@
       </c>
       <c r="N373" s="12"/>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>94</v>
       </c>
@@ -36803,7 +36807,7 @@
       </c>
       <c r="N374" s="12"/>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>94</v>
       </c>
@@ -36830,7 +36834,7 @@
       </c>
       <c r="N375" s="12"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>94</v>
       </c>
@@ -36857,7 +36861,7 @@
       </c>
       <c r="N376" s="12"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>94</v>
       </c>
@@ -36884,7 +36888,7 @@
       </c>
       <c r="N377" s="12"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>95</v>
       </c>
@@ -36922,7 +36926,7 @@
         <v>2422.2291666666665</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>95</v>
       </c>
@@ -36960,7 +36964,7 @@
         <v>2383.65625</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>95</v>
       </c>
@@ -36998,7 +37002,7 @@
         <v>2468.4791666666665</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>95</v>
       </c>
@@ -37036,7 +37040,7 @@
         <v>2510.2395833333335</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>96</v>
       </c>
@@ -37067,7 +37071,7 @@
       </c>
       <c r="N382" s="12"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>96</v>
       </c>
@@ -37098,7 +37102,7 @@
       </c>
       <c r="N383" s="12"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>96</v>
       </c>

--- a/data/exp_raw/no2_analyticall_results.xlsx
+++ b/data/exp_raw/no2_analyticall_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37683FF8-4EBD-EC49-BD5D-A62BB2709C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BD3B8-8A76-C443-9FEB-EBAC4153D36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="6" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
+    <workbookView xWindow="1080" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{3CD87C21-EA08-D841-BE93-D5199CA9A403}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_curve_plate_1" sheetId="3" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1366,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1380,8 +1380,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6894,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5F0-D8DF-6146-A719-90B0660FC49C}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22264,7 +22263,7 @@
         <v>45825.369444444441</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E53" si="0">C3+(D3-C3)/2</f>
+        <f t="shared" ref="E3:E5" si="0">C3+(D3-C3)/2</f>
         <v>45825.159722222219</v>
       </c>
       <c r="F3">
@@ -23721,7 +23720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28553D95-A703-174C-8A27-2C251D35502B}">
   <dimension ref="A1:P465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScale="110" workbookViewId="0">
       <selection activeCell="P369" sqref="P369"/>
     </sheetView>
   </sheetViews>
@@ -32436,7 +32435,7 @@
         <f>VLOOKUP(C250,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.6290322580645162</v>
       </c>
-      <c r="N250" s="12">
+      <c r="N250">
         <f>VLOOKUP(C250,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2302.1979166666665</v>
       </c>
@@ -32473,7 +32472,7 @@
         <f>VLOOKUP(C251,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.5806451612903225</v>
       </c>
-      <c r="N251" s="12">
+      <c r="N251">
         <f>VLOOKUP(C251,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2257.4479166666665</v>
       </c>
@@ -32510,7 +32509,7 @@
         <f>VLOOKUP(C252,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.774193548387097</v>
       </c>
-      <c r="N252" s="12">
+      <c r="N252">
         <f>VLOOKUP(C252,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2392.770833333333</v>
       </c>
@@ -32547,7 +32546,7 @@
         <f>VLOOKUP(C253,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.8225806451612903</v>
       </c>
-      <c r="N253" s="12">
+      <c r="N253">
         <f>VLOOKUP(C253,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2390.125</v>
       </c>
@@ -32581,7 +32580,6 @@
         <f>VLOOKUP(sampling!C254,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>39.205100000000002</v>
       </c>
-      <c r="N254" s="12"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
@@ -32612,7 +32610,6 @@
         <f>VLOOKUP(sampling!C255,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>56.903300000000016</v>
       </c>
-      <c r="N255" s="12"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
@@ -32643,7 +32640,6 @@
         <f>VLOOKUP(sampling!C256,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>26.952500000000011</v>
       </c>
-      <c r="N256" s="12"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
@@ -32674,7 +32670,6 @@
         <f>VLOOKUP(sampling!C257,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>12.657800000000005</v>
       </c>
-      <c r="N257" s="12"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
@@ -32708,7 +32703,7 @@
         <f>VLOOKUP(C258,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.5</v>
       </c>
-      <c r="N258" s="12">
+      <c r="N258">
         <f>VLOOKUP(C258,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2341.8125</v>
       </c>
@@ -32745,7 +32740,7 @@
         <f>VLOOKUP(C259,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.7419354838709677</v>
       </c>
-      <c r="N259" s="12">
+      <c r="N259">
         <f>VLOOKUP(C259,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2247.0416666666665</v>
       </c>
@@ -32782,7 +32777,7 @@
         <f>VLOOKUP(C260,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.6290322580645162</v>
       </c>
-      <c r="N260" s="12">
+      <c r="N260">
         <f>VLOOKUP(C260,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2396.34375</v>
       </c>
@@ -32819,7 +32814,7 @@
         <f>VLOOKUP(C261,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.9677419354838708</v>
       </c>
-      <c r="N261" s="12">
+      <c r="N261">
         <f>VLOOKUP(C261,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2422.0937499999995</v>
       </c>
@@ -32852,7 +32847,6 @@
       <c r="H262">
         <v>30.7</v>
       </c>
-      <c r="N262" s="12"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
@@ -32882,7 +32876,6 @@
       <c r="H263">
         <v>31.8</v>
       </c>
-      <c r="N263" s="12"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
@@ -32912,7 +32905,6 @@
       <c r="H264">
         <v>30.5</v>
       </c>
-      <c r="N264" s="12"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
@@ -32942,7 +32934,6 @@
       <c r="H265">
         <v>31.4</v>
       </c>
-      <c r="N265" s="12"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
@@ -32982,7 +32973,7 @@
         <f>VLOOKUP(C266,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.25806451612903225</v>
       </c>
-      <c r="N266" s="12">
+      <c r="N266">
         <f>VLOOKUP(C266,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2274.135416666667</v>
       </c>
@@ -33025,7 +33016,7 @@
         <f>VLOOKUP(C267,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.35483870967741932</v>
       </c>
-      <c r="N267" s="12">
+      <c r="N267">
         <f>VLOOKUP(C267,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2248.0625</v>
       </c>
@@ -33068,7 +33059,7 @@
         <f>VLOOKUP(C268,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.29032258064516125</v>
       </c>
-      <c r="N268" s="12">
+      <c r="N268">
         <f>VLOOKUP(C268,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2313.6041666666665</v>
       </c>
@@ -33111,7 +33102,7 @@
         <f>VLOOKUP(C269,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.54838709677419362</v>
       </c>
-      <c r="N269" s="12">
+      <c r="N269">
         <f>VLOOKUP(C269,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2349.3749999999995</v>
       </c>
@@ -33145,7 +33136,6 @@
         <f>VLOOKUP(sampling!C270,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>34.440200000000004</v>
       </c>
-      <c r="N270" s="12"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
@@ -33176,7 +33166,6 @@
         <f>VLOOKUP(sampling!C271,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>59.626100000000008</v>
       </c>
-      <c r="N271" s="12"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
@@ -33207,7 +33196,6 @@
         <f>VLOOKUP(sampling!C272,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>33.759500000000003</v>
       </c>
-      <c r="N272" s="12"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
@@ -33238,7 +33226,6 @@
         <f>VLOOKUP(sampling!C273,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>18.784099999999999</v>
       </c>
-      <c r="N273" s="12"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
@@ -33265,7 +33252,6 @@
         <f t="shared" si="13"/>
         <v>16.251736111109494</v>
       </c>
-      <c r="N274" s="12"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
@@ -33292,7 +33278,6 @@
         <f t="shared" si="13"/>
         <v>16.251736111109494</v>
       </c>
-      <c r="N275" s="12"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
@@ -33326,7 +33311,7 @@
         <f>VLOOKUP(C276,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N276" s="12">
+      <c r="N276">
         <f>VLOOKUP(C276,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2310.041666666667</v>
       </c>
@@ -33363,7 +33348,7 @@
         <f>VLOOKUP(C277,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N277" s="12">
+      <c r="N277">
         <f>VLOOKUP(C277,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2367.6666666666665</v>
       </c>
@@ -33410,7 +33395,7 @@
         <f>VLOOKUP(C278,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.22580645161290325</v>
       </c>
-      <c r="N278" s="12">
+      <c r="N278">
         <f>VLOOKUP(C278,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2263.708333333333</v>
       </c>
@@ -33457,7 +33442,7 @@
         <f>VLOOKUP(C279,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N279" s="12">
+      <c r="N279">
         <f>VLOOKUP(C279,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2214.21875</v>
       </c>
@@ -33504,7 +33489,7 @@
         <f>VLOOKUP(C280,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N280" s="12">
+      <c r="N280">
         <f>VLOOKUP(C280,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2320.1666666666665</v>
       </c>
@@ -33551,7 +33536,7 @@
         <f>VLOOKUP(C281,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N281" s="12">
+      <c r="N281">
         <f>VLOOKUP(C281,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2310.28125</v>
       </c>
@@ -33581,7 +33566,6 @@
         <f t="shared" si="13"/>
         <v>16.752777777779556</v>
       </c>
-      <c r="N282" s="12"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
@@ -33608,7 +33592,6 @@
         <f t="shared" si="13"/>
         <v>16.752777777779556</v>
       </c>
-      <c r="N283" s="12"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
@@ -33635,7 +33618,6 @@
         <f t="shared" si="13"/>
         <v>16.743055555562023</v>
       </c>
-      <c r="N284" s="12"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
@@ -33662,7 +33644,6 @@
         <f t="shared" si="13"/>
         <v>16.743055555562023</v>
       </c>
-      <c r="N285" s="12"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
@@ -33696,7 +33677,7 @@
         <f>VLOOKUP(C286,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N286" s="12">
+      <c r="N286">
         <f>VLOOKUP(C286,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2197.21875</v>
       </c>
@@ -33733,7 +33714,7 @@
         <f>VLOOKUP(C287,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.33870967741935487</v>
       </c>
-      <c r="N287" s="12">
+      <c r="N287">
         <f>VLOOKUP(C287,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2241.9687500000005</v>
       </c>
@@ -33770,7 +33751,7 @@
         <f>VLOOKUP(C288,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.38709677419354838</v>
       </c>
-      <c r="N288" s="12">
+      <c r="N288">
         <f>VLOOKUP(C288,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2259.729166666667</v>
       </c>
@@ -33807,7 +33788,7 @@
         <f>VLOOKUP(C289,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.5161290322580645</v>
       </c>
-      <c r="N289" s="12">
+      <c r="N289">
         <f>VLOOKUP(C289,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2246.5520833333335</v>
       </c>
@@ -33848,7 +33829,7 @@
         <f>VLOOKUP(C290,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.33870967741935487</v>
       </c>
-      <c r="N290" s="12">
+      <c r="N290">
         <f>VLOOKUP(C290,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2241.8958333333335</v>
       </c>
@@ -33889,7 +33870,7 @@
         <f>VLOOKUP(C291,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.37096774193548387</v>
       </c>
-      <c r="N291" s="12">
+      <c r="N291">
         <f>VLOOKUP(C291,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2247.40625</v>
       </c>
@@ -33930,7 +33911,7 @@
         <f>VLOOKUP(C292,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="N292" s="12">
+      <c r="N292">
         <f>VLOOKUP(C292,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2276.9895833333335</v>
       </c>
@@ -33971,7 +33952,7 @@
         <f>VLOOKUP(C293,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="N293" s="12">
+      <c r="N293">
         <f>VLOOKUP(C293,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2253.5833333333335</v>
       </c>
@@ -34005,7 +33986,6 @@
         <f>VLOOKUP(sampling!C294,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>37.843700000000013</v>
       </c>
-      <c r="N294" s="12"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
@@ -34036,7 +34016,6 @@
         <f>VLOOKUP(sampling!C295,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>65.752399999999994</v>
       </c>
-      <c r="N295" s="12"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
@@ -34067,7 +34046,6 @@
         <f>VLOOKUP(sampling!C296,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>34.440200000000004</v>
       </c>
-      <c r="N296" s="12"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
@@ -34098,7 +34076,6 @@
         <f>VLOOKUP(sampling!C297,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>19.4648</v>
       </c>
-      <c r="N297" s="12"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
@@ -34129,7 +34106,6 @@
         <f>VLOOKUP(sampling!C298,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>38.5244</v>
       </c>
-      <c r="N298" s="12"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
@@ -34160,7 +34136,6 @@
         <f>VLOOKUP(sampling!C299,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>80.727800000000016</v>
       </c>
-      <c r="N299" s="12"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
@@ -34191,7 +34166,6 @@
         <f>VLOOKUP(sampling!C300,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>31.717400000000001</v>
       </c>
-      <c r="N300" s="12"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
@@ -34222,7 +34196,6 @@
         <f>VLOOKUP(sampling!C301,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>20.145500000000002</v>
       </c>
-      <c r="N301" s="12"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
@@ -34266,7 +34239,7 @@
         <f>VLOOKUP(C302,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.24193548387096775</v>
       </c>
-      <c r="N302" s="12">
+      <c r="N302">
         <f>VLOOKUP(C302,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2267.5520833333335</v>
       </c>
@@ -34313,7 +34286,7 @@
         <f>VLOOKUP(C303,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.24193548387096775</v>
       </c>
-      <c r="N303" s="12">
+      <c r="N303">
         <f>VLOOKUP(C303,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2267.96875</v>
       </c>
@@ -34360,7 +34333,7 @@
         <f>VLOOKUP(C304,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.59677419354838701</v>
       </c>
-      <c r="N304" s="12">
+      <c r="N304">
         <f>VLOOKUP(C304,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2313.0416666666665</v>
       </c>
@@ -34407,7 +34380,7 @@
         <f>VLOOKUP(C305,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.37096774193548387</v>
       </c>
-      <c r="N305" s="12">
+      <c r="N305">
         <f>VLOOKUP(C305,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2247.291666666667</v>
       </c>
@@ -34448,7 +34421,7 @@
         <f>VLOOKUP(C306,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.72580645161290314</v>
       </c>
-      <c r="N306" s="12">
+      <c r="N306">
         <f>VLOOKUP(C306,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2246.6041666666665</v>
       </c>
@@ -34489,7 +34462,7 @@
         <f>VLOOKUP(C307,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.19354838709677419</v>
       </c>
-      <c r="N307" s="12">
+      <c r="N307">
         <f>VLOOKUP(C307,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2252.291666666667</v>
       </c>
@@ -34530,7 +34503,7 @@
         <f>VLOOKUP(C308,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.56451612903225812</v>
       </c>
-      <c r="N308" s="12">
+      <c r="N308">
         <f>VLOOKUP(C308,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2355.78125</v>
       </c>
@@ -34571,7 +34544,7 @@
         <f>VLOOKUP(C309,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.5</v>
       </c>
-      <c r="N309" s="12">
+      <c r="N309">
         <f>VLOOKUP(C309,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2284.125</v>
       </c>
@@ -34604,7 +34577,6 @@
       <c r="H310">
         <v>32.299999999999997</v>
       </c>
-      <c r="N310" s="12"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
@@ -34634,7 +34606,6 @@
       <c r="H311">
         <v>32.799999999999997</v>
       </c>
-      <c r="N311" s="12"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
@@ -34664,7 +34635,6 @@
       <c r="H312">
         <v>34</v>
       </c>
-      <c r="N312" s="12"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
@@ -34694,7 +34664,6 @@
       <c r="H313">
         <v>30.9</v>
       </c>
-      <c r="N313" s="12"/>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
@@ -34729,7 +34698,7 @@
         <f>VLOOKUP(C314,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="N314" s="12">
+      <c r="N314">
         <f>VLOOKUP(C314,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2243.9791666666665</v>
       </c>
@@ -34767,7 +34736,7 @@
         <f>VLOOKUP(C315,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.38709677419354838</v>
       </c>
-      <c r="N315" s="12">
+      <c r="N315">
         <f>VLOOKUP(C315,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2225.4166666666665</v>
       </c>
@@ -34805,7 +34774,7 @@
         <f>VLOOKUP(C316,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.37096774193548387</v>
       </c>
-      <c r="N316" s="12">
+      <c r="N316">
         <f>VLOOKUP(C316,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2344.916666666667</v>
       </c>
@@ -34843,7 +34812,7 @@
         <f>VLOOKUP(C317,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.967741935483871</v>
       </c>
-      <c r="N317" s="12">
+      <c r="N317">
         <f>VLOOKUP(C317,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2298.458333333333</v>
       </c>
@@ -34877,7 +34846,6 @@
         <f>VLOOKUP(sampling!C318,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>46.012100000000004</v>
       </c>
-      <c r="N318" s="12"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
@@ -34908,7 +34876,6 @@
         <f>VLOOKUP(sampling!C319,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>71.198000000000008</v>
       </c>
-      <c r="N319" s="12"/>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
@@ -34939,7 +34906,6 @@
         <f>VLOOKUP(sampling!C320,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>37.843700000000013</v>
       </c>
-      <c r="N320" s="12"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
@@ -34970,7 +34936,6 @@
         <f>VLOOKUP(sampling!C321,fe_plate_1!$C$2:$G$80,5,FALSE)</f>
         <v>25.591100000000008</v>
       </c>
-      <c r="N321" s="12"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
@@ -34997,7 +34962,6 @@
         <f t="shared" si="13"/>
         <v>21.597916666658421</v>
       </c>
-      <c r="N322" s="12"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
@@ -35024,7 +34988,6 @@
         <f t="shared" si="13"/>
         <v>21.597916666658421</v>
       </c>
-      <c r="N323" s="12"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
@@ -35051,7 +35014,6 @@
         <f t="shared" ref="G324:G387" si="17" xml:space="preserve"> F324-IF(OR(B324=1,B324=2),$O$2,$O$3)</f>
         <v>21.588194444440887</v>
       </c>
-      <c r="N324" s="12"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
@@ -35078,7 +35040,6 @@
         <f t="shared" si="17"/>
         <v>21.588194444440887</v>
       </c>
-      <c r="N325" s="12"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
@@ -35113,7 +35074,7 @@
         <f>VLOOKUP(C326,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>2.532258064516129</v>
       </c>
-      <c r="N326" s="12">
+      <c r="N326">
         <f>VLOOKUP(C326,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2190.6041666666665</v>
       </c>
@@ -35151,7 +35112,7 @@
         <f>VLOOKUP(C327,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.45161290322580649</v>
       </c>
-      <c r="N327" s="12">
+      <c r="N327">
         <f>VLOOKUP(C327,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2229.3229166666665</v>
       </c>
@@ -35189,7 +35150,7 @@
         <f>VLOOKUP(C328,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="N328" s="12">
+      <c r="N328">
         <f>VLOOKUP(C328,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2293.9374999999995</v>
       </c>
@@ -35227,7 +35188,7 @@
         <f>VLOOKUP(C329,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.41935483870967738</v>
       </c>
-      <c r="N329" s="12">
+      <c r="N329">
         <f>VLOOKUP(C329,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2300.7500000000005</v>
       </c>
@@ -35265,7 +35226,7 @@
         <f>VLOOKUP(C330,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.467741935483871</v>
       </c>
-      <c r="N330" s="12">
+      <c r="N330">
         <f>VLOOKUP(C330,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2252.84375</v>
       </c>
@@ -35303,7 +35264,7 @@
         <f>VLOOKUP(C331,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>118.66129032258064</v>
       </c>
-      <c r="N331" s="12">
+      <c r="N331">
         <f>VLOOKUP(C331,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2333.291666666667</v>
       </c>
@@ -35341,7 +35302,7 @@
         <f>VLOOKUP(C332,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>10.85483870967742</v>
       </c>
-      <c r="N332" s="12">
+      <c r="N332">
         <f>VLOOKUP(C332,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2380.864583333333</v>
       </c>
@@ -35379,7 +35340,7 @@
         <f>VLOOKUP(C333,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>16.258064516129032</v>
       </c>
-      <c r="N333" s="12">
+      <c r="N333">
         <f>VLOOKUP(C333,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2351.0625</v>
       </c>
@@ -35417,7 +35378,7 @@
         <f>VLOOKUP(C334,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>127.59677419354837</v>
       </c>
-      <c r="N334" s="12">
+      <c r="N334">
         <f>VLOOKUP(C334,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2370.1250000000005</v>
       </c>
@@ -35455,7 +35416,7 @@
         <f>VLOOKUP(C335,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>632.41935483870975</v>
       </c>
-      <c r="N335" s="12">
+      <c r="N335">
         <f>VLOOKUP(C335,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2408.2291666666665</v>
       </c>
@@ -35493,7 +35454,7 @@
         <f>VLOOKUP(C336,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>530.98387096774195</v>
       </c>
-      <c r="N336" s="12">
+      <c r="N336">
         <f>VLOOKUP(C336,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2403.1979166666665</v>
       </c>
@@ -35531,7 +35492,7 @@
         <f>VLOOKUP(C337,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>475.12903225806446</v>
       </c>
-      <c r="N337" s="12">
+      <c r="N337">
         <f>VLOOKUP(C337,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2472.8854166666665</v>
       </c>
@@ -35565,7 +35526,6 @@
         <f>VLOOKUP(sampling!C338,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>13.338500000000007</v>
       </c>
-      <c r="N338" s="12"/>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
@@ -35596,7 +35556,6 @@
         <f>VLOOKUP(sampling!C339,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>7.2122000000000064</v>
       </c>
-      <c r="N339" s="12"/>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
@@ -35627,7 +35586,6 @@
         <f>VLOOKUP(sampling!C340,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>10.6157</v>
       </c>
-      <c r="N340" s="12"/>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
@@ -35658,7 +35616,6 @@
         <f>VLOOKUP(sampling!C341,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>7.8929000000000009</v>
       </c>
-      <c r="N341" s="12"/>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
@@ -35693,7 +35650,7 @@
         <f>VLOOKUP(C342,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>151.67741935483872</v>
       </c>
-      <c r="N342" s="12">
+      <c r="N342">
         <f>VLOOKUP(C342,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2516.875</v>
       </c>
@@ -35731,7 +35688,7 @@
         <f>VLOOKUP(C343,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>68.967741935483872</v>
       </c>
-      <c r="N343" s="12">
+      <c r="N343">
         <f>VLOOKUP(C343,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2482.46875</v>
       </c>
@@ -35769,7 +35726,7 @@
         <f>VLOOKUP(C344,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>757.0645161290322</v>
       </c>
-      <c r="N344" s="12">
+      <c r="N344">
         <f>VLOOKUP(C344,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2456.4583333333335</v>
       </c>
@@ -35807,7 +35764,7 @@
         <f>VLOOKUP(C345,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>266.96774193548384</v>
       </c>
-      <c r="N345" s="12">
+      <c r="N345">
         <f>VLOOKUP(C345,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2483.552083333333</v>
       </c>
@@ -35841,7 +35798,7 @@
         <f>VLOOKUP(C346,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>13.5</v>
       </c>
-      <c r="N346" s="12">
+      <c r="N346">
         <f>VLOOKUP(C346,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2481.895833333333</v>
       </c>
@@ -35875,7 +35832,7 @@
         <f>VLOOKUP(C347,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>2.5483870967741939</v>
       </c>
-      <c r="N347" s="12">
+      <c r="N347">
         <f>VLOOKUP(C347,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2460.9479166666665</v>
       </c>
@@ -35909,7 +35866,7 @@
         <f>VLOOKUP(C348,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>192.08064516129033</v>
       </c>
-      <c r="N348" s="12">
+      <c r="N348">
         <f>VLOOKUP(C348,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2457.333333333333</v>
       </c>
@@ -35943,7 +35900,7 @@
         <f>VLOOKUP(C349,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>3.1290322580645165</v>
       </c>
-      <c r="N349" s="12">
+      <c r="N349">
         <f>VLOOKUP(C349,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2472.1354166666665</v>
       </c>
@@ -35977,7 +35934,6 @@
         <f>VLOOKUP(sampling!C350,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>9.2542999999999971</v>
       </c>
-      <c r="N350" s="12"/>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
@@ -36008,7 +35964,6 @@
         <f>VLOOKUP(sampling!C351,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>11.977100000000004</v>
       </c>
-      <c r="N351" s="12"/>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
@@ -36039,7 +35994,6 @@
         <f>VLOOKUP(sampling!C352,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>11.296400000000002</v>
       </c>
-      <c r="N352" s="12"/>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
@@ -36070,7 +36024,6 @@
         <f>VLOOKUP(sampling!C353,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>9.2542999999999971</v>
       </c>
-      <c r="N353" s="12"/>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
@@ -36105,7 +36058,7 @@
         <f>VLOOKUP(C354,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="N354" s="12">
+      <c r="N354">
         <f>VLOOKUP(C354,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2420.166666666667</v>
       </c>
@@ -36143,7 +36096,7 @@
         <f>VLOOKUP(C355,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.90322580645161299</v>
       </c>
-      <c r="N355" s="12">
+      <c r="N355">
         <f>VLOOKUP(C355,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2410.458333333333</v>
       </c>
@@ -36181,7 +36134,7 @@
         <f>VLOOKUP(C356,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.35483870967741932</v>
       </c>
-      <c r="N356" s="12">
+      <c r="N356">
         <f>VLOOKUP(C356,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2472.6041666666665</v>
       </c>
@@ -36219,7 +36172,7 @@
         <f>VLOOKUP(C357,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.41935483870967738</v>
       </c>
-      <c r="N357" s="12">
+      <c r="N357">
         <f>VLOOKUP(C357,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2470.4166666666665</v>
       </c>
@@ -36253,7 +36206,6 @@
         <f>VLOOKUP(sampling!C358,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>26.27180000000001</v>
       </c>
-      <c r="N358" s="12"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
@@ -36284,7 +36236,6 @@
         <f>VLOOKUP(sampling!C359,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>28.3139</v>
       </c>
-      <c r="N359" s="12"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
@@ -36315,7 +36266,6 @@
         <f>VLOOKUP(sampling!C360,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>14.019200000000009</v>
       </c>
-      <c r="N360" s="12"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
@@ -36346,7 +36296,6 @@
         <f>VLOOKUP(sampling!C361,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>18.103399999999997</v>
       </c>
-      <c r="N361" s="12"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
@@ -36381,7 +36330,7 @@
         <f>VLOOKUP(C362,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="N362" s="12">
+      <c r="N362">
         <f>VLOOKUP(C362,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2452.5520833333335</v>
       </c>
@@ -36419,7 +36368,7 @@
         <f>VLOOKUP(C363,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.98387096774193539</v>
       </c>
-      <c r="N363" s="12">
+      <c r="N363">
         <f>VLOOKUP(C363,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2420.46875</v>
       </c>
@@ -36457,7 +36406,7 @@
         <f>VLOOKUP(C364,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.75806451612903225</v>
       </c>
-      <c r="N364" s="12">
+      <c r="N364">
         <f>VLOOKUP(C364,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2480.6145833333335</v>
       </c>
@@ -36495,7 +36444,7 @@
         <f>VLOOKUP(C365,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.59677419354838701</v>
       </c>
-      <c r="N365" s="12">
+      <c r="N365">
         <f>VLOOKUP(C365,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2444.520833333333</v>
       </c>
@@ -36533,7 +36482,7 @@
         <f>VLOOKUP(C366,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.70967741935483863</v>
       </c>
-      <c r="N366" s="12">
+      <c r="N366">
         <f>VLOOKUP(C366,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2440.875</v>
       </c>
@@ -36571,7 +36520,7 @@
         <f>VLOOKUP(C367,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1</v>
       </c>
-      <c r="N367" s="12">
+      <c r="N367">
         <f>VLOOKUP(C367,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2405.6041666666665</v>
       </c>
@@ -36609,7 +36558,7 @@
         <f>VLOOKUP(C368,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.43548387096774194</v>
       </c>
-      <c r="N368" s="12">
+      <c r="N368">
         <f>VLOOKUP(C368,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2436.4166666666665</v>
       </c>
@@ -36647,7 +36596,7 @@
         <f>VLOOKUP(C369,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.56451612903225812</v>
       </c>
-      <c r="N369" s="12">
+      <c r="N369">
         <f>VLOOKUP(C369,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2491.5625</v>
       </c>
@@ -36685,7 +36634,6 @@
         <f>VLOOKUP(sampling!C370,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>18.103399999999997</v>
       </c>
-      <c r="N370" s="12"/>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371">
@@ -36716,7 +36664,6 @@
         <f>VLOOKUP(sampling!C371,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>26.27180000000001</v>
       </c>
-      <c r="N371" s="12"/>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372">
@@ -36747,7 +36694,6 @@
         <f>VLOOKUP(sampling!C372,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>36.482300000000009</v>
       </c>
-      <c r="N372" s="12"/>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373">
@@ -36778,7 +36724,6 @@
         <f>VLOOKUP(sampling!C373,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>19.4648</v>
       </c>
-      <c r="N373" s="12"/>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374">
@@ -36805,7 +36750,6 @@
         <f t="shared" si="17"/>
         <v>26.152777777773736</v>
       </c>
-      <c r="N374" s="12"/>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375">
@@ -36832,7 +36776,6 @@
         <f t="shared" si="17"/>
         <v>26.152777777773736</v>
       </c>
-      <c r="N375" s="12"/>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376">
@@ -36859,7 +36802,6 @@
         <f t="shared" si="17"/>
         <v>26.143055555556202</v>
       </c>
-      <c r="N376" s="12"/>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377">
@@ -36886,7 +36828,6 @@
         <f t="shared" si="17"/>
         <v>26.143055555556202</v>
       </c>
-      <c r="N377" s="12"/>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378">
@@ -36921,7 +36862,7 @@
         <f>VLOOKUP(C378,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>1.5806451612903225</v>
       </c>
-      <c r="N378" s="12">
+      <c r="N378">
         <f>VLOOKUP(C378,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2422.2291666666665</v>
       </c>
@@ -36959,7 +36900,7 @@
         <f>VLOOKUP(C379,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="N379" s="12">
+      <c r="N379">
         <f>VLOOKUP(C379,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2383.65625</v>
       </c>
@@ -36997,7 +36938,7 @@
         <f>VLOOKUP(C380,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.5</v>
       </c>
-      <c r="N380" s="12">
+      <c r="N380">
         <f>VLOOKUP(C380,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2468.4791666666665</v>
       </c>
@@ -37035,7 +36976,7 @@
         <f>VLOOKUP(C381,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0.4838709677419355</v>
       </c>
-      <c r="N381" s="12">
+      <c r="N381">
         <f>VLOOKUP(C381,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2510.2395833333335</v>
       </c>
@@ -37069,7 +37010,6 @@
         <f>VLOOKUP(sampling!C382,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>31.717400000000001</v>
       </c>
-      <c r="N382" s="12"/>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383">
@@ -37100,7 +37040,6 @@
         <f>VLOOKUP(sampling!C383,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>18.103399999999997</v>
       </c>
-      <c r="N383" s="12"/>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384">
@@ -37131,7 +37070,6 @@
         <f>VLOOKUP(sampling!C384,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>37.163000000000011</v>
       </c>
-      <c r="N384" s="12"/>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
@@ -37162,7 +37100,6 @@
         <f>VLOOKUP(sampling!C385,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>21.506900000000005</v>
       </c>
-      <c r="N385" s="12"/>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
@@ -37189,7 +37126,6 @@
         <f t="shared" si="17"/>
         <v>27.180555555554747</v>
       </c>
-      <c r="N386" s="12"/>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
@@ -37216,7 +37152,6 @@
         <f t="shared" si="17"/>
         <v>27.180555555554747</v>
       </c>
-      <c r="N387" s="12"/>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
@@ -37243,7 +37178,6 @@
         <f t="shared" ref="G388:G451" si="20" xml:space="preserve"> F388-IF(OR(B388=1,B388=2),$O$2,$O$3)</f>
         <v>27.170833333337214</v>
       </c>
-      <c r="N388" s="12"/>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
@@ -37270,7 +37204,6 @@
         <f t="shared" si="20"/>
         <v>27.170833333337214</v>
       </c>
-      <c r="N389" s="12"/>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
@@ -37305,7 +37238,7 @@
         <f>VLOOKUP(C390,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N390" s="12">
+      <c r="N390">
         <f>VLOOKUP(C390,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2399.7604166666665</v>
       </c>
@@ -37343,7 +37276,7 @@
         <f>VLOOKUP(C391,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N391" s="12">
+      <c r="N391">
         <f>VLOOKUP(C391,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2324.6041666666665</v>
       </c>
@@ -37381,7 +37314,7 @@
         <f>VLOOKUP(C392,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N392" s="12">
+      <c r="N392">
         <f>VLOOKUP(C392,new_data!$C$2:$L$221,10,FALSE)/96*1000</f>
         <v>2451.2708333333335</v>
       </c>
@@ -37415,7 +37348,6 @@
         <f>VLOOKUP(C393,new_data!$C$2:$L$221,9,FALSE)/62*1000</f>
         <v>0</v>
       </c>
-      <c r="N393" s="12"/>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394">
@@ -37446,7 +37378,6 @@
         <f>VLOOKUP(sampling!C394,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>11.296400000000002</v>
       </c>
-      <c r="N394" s="12"/>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395">
@@ -37477,7 +37408,6 @@
         <f>VLOOKUP(sampling!C395,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>26.27180000000001</v>
       </c>
-      <c r="N395" s="12"/>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396">
@@ -37508,7 +37438,6 @@
         <f>VLOOKUP(sampling!C396,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>16.061300000000006</v>
       </c>
-      <c r="N396" s="12"/>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397">
@@ -37539,7 +37468,6 @@
         <f>VLOOKUP(sampling!C397,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>19.4648</v>
       </c>
-      <c r="N397" s="12"/>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398">
@@ -37566,7 +37494,6 @@
         <f t="shared" si="20"/>
         <v>28.149305555554747</v>
       </c>
-      <c r="N398" s="12"/>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399">
@@ -37593,7 +37520,6 @@
         <f t="shared" si="20"/>
         <v>28.149305555554747</v>
       </c>
-      <c r="N399" s="12"/>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400">
@@ -37620,9 +37546,8 @@
         <f t="shared" si="20"/>
         <v>28.139583333337214</v>
       </c>
-      <c r="N400" s="12"/>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>100</v>
       </c>
@@ -37647,9 +37572,8 @@
         <f t="shared" si="20"/>
         <v>28.139583333337214</v>
       </c>
-      <c r="N401" s="12"/>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>101</v>
       </c>
@@ -37674,9 +37598,8 @@
         <f t="shared" si="20"/>
         <v>28.661458333335759</v>
       </c>
-      <c r="N402" s="12"/>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>101</v>
       </c>
@@ -37701,9 +37624,8 @@
         <f t="shared" si="20"/>
         <v>28.661458333335759</v>
       </c>
-      <c r="N403" s="12"/>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>101</v>
       </c>
@@ -37728,9 +37650,8 @@
         <f t="shared" si="20"/>
         <v>28.651736111118225</v>
       </c>
-      <c r="N404" s="12"/>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>101</v>
       </c>
@@ -37755,9 +37676,8 @@
         <f t="shared" si="20"/>
         <v>28.651736111118225</v>
       </c>
-      <c r="N405" s="12"/>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>102</v>
       </c>
@@ -37786,9 +37706,8 @@
         <f>VLOOKUP(sampling!C406,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>35.801600000000008</v>
       </c>
-      <c r="N406" s="12"/>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>102</v>
       </c>
@@ -37817,9 +37736,8 @@
         <f>VLOOKUP(sampling!C407,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>33.078800000000001</v>
       </c>
-      <c r="N407" s="12"/>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>102</v>
       </c>
@@ -37848,9 +37766,8 @@
         <f>VLOOKUP(sampling!C408,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>41.927900000000008</v>
       </c>
-      <c r="N408" s="12"/>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>102</v>
       </c>
@@ -37879,9 +37796,8 @@
         <f>VLOOKUP(sampling!C409,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>19.4648</v>
       </c>
-      <c r="N409" s="12"/>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>103</v>
       </c>
@@ -37906,9 +37822,8 @@
         <f t="shared" si="20"/>
         <v>29.223263888889051</v>
       </c>
-      <c r="N410" s="12"/>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>103</v>
       </c>
@@ -37933,9 +37848,8 @@
         <f t="shared" si="20"/>
         <v>29.223263888889051</v>
       </c>
-      <c r="N411" s="12"/>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>103</v>
       </c>
@@ -37960,9 +37874,8 @@
         <f t="shared" si="20"/>
         <v>29.213541666671517</v>
       </c>
-      <c r="N412" s="12"/>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>103</v>
       </c>
@@ -37987,9 +37900,8 @@
         <f t="shared" si="20"/>
         <v>29.213541666671517</v>
       </c>
-      <c r="N413" s="12"/>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>104</v>
       </c>
@@ -38014,9 +37926,8 @@
         <f t="shared" si="20"/>
         <v>29.63749999999709</v>
       </c>
-      <c r="N414" s="12"/>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>104</v>
       </c>
@@ -38041,9 +37952,8 @@
         <f t="shared" si="20"/>
         <v>29.63749999999709</v>
       </c>
-      <c r="N415" s="12"/>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>104</v>
       </c>
@@ -38068,9 +37978,8 @@
         <f t="shared" si="20"/>
         <v>29.627777777779556</v>
       </c>
-      <c r="N416" s="12"/>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>104</v>
       </c>
@@ -38095,9 +38004,8 @@
         <f t="shared" si="20"/>
         <v>29.627777777779556</v>
       </c>
-      <c r="N417" s="12"/>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>105</v>
       </c>
@@ -38126,9 +38034,8 @@
         <f>VLOOKUP(sampling!C418,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>30.356000000000005</v>
       </c>
-      <c r="N418" s="12"/>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>105</v>
       </c>
@@ -38157,9 +38064,8 @@
         <f>VLOOKUP(sampling!C419,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>35.801600000000008</v>
       </c>
-      <c r="N419" s="12"/>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>105</v>
       </c>
@@ -38188,9 +38094,8 @@
         <f>VLOOKUP(sampling!C420,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>50.777000000000001</v>
       </c>
-      <c r="N420" s="12"/>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>105</v>
       </c>
@@ -38219,9 +38124,8 @@
         <f>VLOOKUP(sampling!C421,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>22.187600000000007</v>
       </c>
-      <c r="N421" s="12"/>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>106</v>
       </c>
@@ -38246,9 +38150,8 @@
         <f t="shared" si="20"/>
         <v>30.214583333327028</v>
       </c>
-      <c r="N422" s="12"/>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>106</v>
       </c>
@@ -38273,9 +38176,8 @@
         <f t="shared" si="20"/>
         <v>30.214583333327028</v>
       </c>
-      <c r="N423" s="12"/>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>106</v>
       </c>
@@ -38300,9 +38202,8 @@
         <f t="shared" si="20"/>
         <v>30.204861111109494</v>
       </c>
-      <c r="N424" s="12"/>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>106</v>
       </c>
@@ -38327,9 +38228,8 @@
         <f t="shared" si="20"/>
         <v>30.204861111109494</v>
       </c>
-      <c r="N425" s="12"/>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>107</v>
       </c>
@@ -38354,9 +38254,8 @@
         <f t="shared" si="20"/>
         <v>30.563194444439432</v>
       </c>
-      <c r="N426" s="12"/>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>107</v>
       </c>
@@ -38381,9 +38280,8 @@
         <f t="shared" si="20"/>
         <v>30.563194444439432</v>
       </c>
-      <c r="N427" s="12"/>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>107</v>
       </c>
@@ -38408,9 +38306,8 @@
         <f t="shared" si="20"/>
         <v>30.553472222221899</v>
       </c>
-      <c r="N428" s="12"/>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>107</v>
       </c>
@@ -38435,9 +38332,8 @@
         <f t="shared" si="20"/>
         <v>30.553472222221899</v>
       </c>
-      <c r="N429" s="12"/>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>108</v>
       </c>
@@ -38466,9 +38362,8 @@
         <f>VLOOKUP(sampling!C430,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>32.398099999999999</v>
       </c>
-      <c r="N430" s="12"/>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>108</v>
       </c>
@@ -38497,9 +38392,8 @@
         <f>VLOOKUP(sampling!C431,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>31.0367</v>
       </c>
-      <c r="N431" s="12"/>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>108</v>
       </c>
@@ -38528,9 +38422,8 @@
         <f>VLOOKUP(sampling!C432,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>26.27180000000001</v>
       </c>
-      <c r="N432" s="12"/>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>108</v>
       </c>
@@ -38559,9 +38452,8 @@
         <f>VLOOKUP(sampling!C433,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>21.506900000000005</v>
       </c>
-      <c r="N433" s="12"/>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>109</v>
       </c>
@@ -38586,9 +38478,8 @@
         <f t="shared" si="20"/>
         <v>31.189236111109494</v>
       </c>
-      <c r="N434" s="12"/>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>109</v>
       </c>
@@ -38613,9 +38504,8 @@
         <f t="shared" si="20"/>
         <v>31.189236111109494</v>
       </c>
-      <c r="N435" s="12"/>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>109</v>
       </c>
@@ -38640,9 +38530,8 @@
         <f t="shared" si="20"/>
         <v>31.179513888891961</v>
       </c>
-      <c r="N436" s="12"/>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>109</v>
       </c>
@@ -38667,9 +38556,8 @@
         <f t="shared" si="20"/>
         <v>31.179513888891961</v>
       </c>
-      <c r="N437" s="12"/>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>110</v>
       </c>
@@ -38698,9 +38586,8 @@
         <f>VLOOKUP(sampling!C438,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>1.0524360000000001</v>
       </c>
-      <c r="N438" s="12"/>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>110</v>
       </c>
@@ -38729,9 +38616,8 @@
         <f>VLOOKUP(sampling!C439,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>0.4508580000000002</v>
       </c>
-      <c r="N439" s="12"/>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>110</v>
       </c>
@@ -38760,9 +38646,8 @@
         <f>VLOOKUP(sampling!C440,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>-0.28440399999999988</v>
       </c>
-      <c r="N440" s="12"/>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>110</v>
       </c>
@@ -38791,9 +38676,8 @@
         <f>VLOOKUP(sampling!C441,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>-8.3877999999999897E-2</v>
       </c>
-      <c r="N441" s="12"/>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>111</v>
       </c>
@@ -38822,9 +38706,8 @@
         <f>VLOOKUP(sampling!C442,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>31.717400000000001</v>
       </c>
-      <c r="N442" s="12"/>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>111</v>
       </c>
@@ -38853,9 +38736,8 @@
         <f>VLOOKUP(sampling!C443,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>35.120900000000006</v>
       </c>
-      <c r="N443" s="12"/>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>111</v>
       </c>
@@ -38884,9 +38766,8 @@
         <f>VLOOKUP(sampling!C444,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>76.643600000000006</v>
       </c>
-      <c r="N444" s="12"/>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>111</v>
       </c>
@@ -38915,9 +38796,8 @@
         <f>VLOOKUP(sampling!C445,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>23.549000000000003</v>
       </c>
-      <c r="N445" s="12"/>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>112</v>
       </c>
@@ -38942,9 +38822,8 @@
         <f t="shared" si="20"/>
         <v>32.230902777773736</v>
       </c>
-      <c r="N446" s="12"/>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>112</v>
       </c>
@@ -38969,9 +38848,8 @@
         <f t="shared" si="20"/>
         <v>32.230902777773736</v>
       </c>
-      <c r="N447" s="12"/>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>112</v>
       </c>
@@ -38996,9 +38874,8 @@
         <f t="shared" si="20"/>
         <v>32.221180555556202</v>
       </c>
-      <c r="N448" s="12"/>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>112</v>
       </c>
@@ -39023,9 +38900,8 @@
         <f t="shared" si="20"/>
         <v>32.221180555556202</v>
       </c>
-      <c r="N449" s="12"/>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>113</v>
       </c>
@@ -39054,9 +38930,8 @@
         <f>VLOOKUP(sampling!C450,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>-0.15071999999999974</v>
       </c>
-      <c r="N450" s="12"/>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>113</v>
       </c>
@@ -39085,9 +38960,8 @@
         <f>VLOOKUP(sampling!C451,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>-0.15071999999999974</v>
       </c>
-      <c r="N451" s="12"/>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>113</v>
       </c>
@@ -39116,9 +38990,8 @@
         <f>VLOOKUP(sampling!C452,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>-0.21756200000000003</v>
       </c>
-      <c r="N452" s="12"/>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>113</v>
       </c>
@@ -39147,9 +39020,8 @@
         <f>VLOOKUP(sampling!C453,standard_curve_plate_3!$C$2:$G$404,5,FALSE)</f>
         <v>0.91875200000000001</v>
       </c>
-      <c r="N453" s="12"/>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>114</v>
       </c>
@@ -39178,9 +39050,8 @@
         <f>VLOOKUP(sampling!C454,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>33.078800000000001</v>
       </c>
-      <c r="N454" s="12"/>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>114</v>
       </c>
@@ -39209,9 +39080,8 @@
         <f>VLOOKUP(sampling!C455,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>43.289300000000011</v>
       </c>
-      <c r="N455" s="12"/>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>114</v>
       </c>
@@ -39240,9 +39110,8 @@
         <f>VLOOKUP(sampling!C456,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>30.356000000000005</v>
       </c>
-      <c r="N456" s="12"/>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>114</v>
       </c>
@@ -39271,9 +39140,8 @@
         <f>VLOOKUP(sampling!C457,fe_plate_1!$C$2:$G$300,5,FALSE)</f>
         <v>22.187600000000007</v>
       </c>
-      <c r="N457" s="12"/>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>115</v>
       </c>
@@ -39298,9 +39166,8 @@
         <f t="shared" si="23"/>
         <v>33.251041666662786</v>
       </c>
-      <c r="N458" s="12"/>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>115</v>
       </c>
@@ -39325,9 +39192,8 @@
         <f t="shared" si="23"/>
         <v>33.251041666662786</v>
       </c>
-      <c r="N459" s="12"/>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>115</v>
       </c>
@@ -39352,9 +39218,8 @@
         <f t="shared" si="23"/>
         <v>33.241319444445253</v>
       </c>
-      <c r="N460" s="12"/>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>115</v>
       </c>
@@ -39379,9 +39244,8 @@
         <f t="shared" si="23"/>
         <v>33.241319444445253</v>
       </c>
-      <c r="N461" s="12"/>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>116</v>
       </c>
@@ -39406,9 +39270,8 @@
         <f t="shared" si="23"/>
         <v>34.210763888891961</v>
       </c>
-      <c r="N462" s="12"/>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>116</v>
       </c>
@@ -39433,9 +39296,8 @@
         <f t="shared" si="23"/>
         <v>34.210763888891961</v>
       </c>
-      <c r="N463" s="12"/>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>116</v>
       </c>
@@ -39460,9 +39322,8 @@
         <f t="shared" si="23"/>
         <v>34.201041666674428</v>
       </c>
-      <c r="N464" s="12"/>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>116</v>
       </c>
@@ -39487,7 +39348,6 @@
         <f t="shared" si="23"/>
         <v>34.201041666674428</v>
       </c>
-      <c r="N465" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
